--- a/output/Results - sem3 (Extended).xlsx
+++ b/output/Results - sem3 (Extended).xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\CGPA-gen\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39E7A24-1CC6-43B3-8153-88A35A2837E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -349,30 +343,30 @@
     <t>KEERAWELLA K.P.C.P.</t>
   </si>
   <si>
+    <t>230521</t>
+  </si>
+  <si>
+    <t>RANASINGHE D.P.H.</t>
+  </si>
+  <si>
+    <t>230218</t>
+  </si>
+  <si>
+    <t>GUNATHUNGA U.A.</t>
+  </si>
+  <si>
     <t>230327</t>
   </si>
   <si>
     <t>KAUSHALYA R.G.S.P.</t>
   </si>
   <si>
-    <t>230521</t>
-  </si>
-  <si>
-    <t>RANASINGHE D.P.H.</t>
-  </si>
-  <si>
     <t>230444</t>
   </si>
   <si>
     <t>NIRMANI W.T.</t>
   </si>
   <si>
-    <t>230218</t>
-  </si>
-  <si>
-    <t>GUNATHUNGA U.A.</t>
-  </si>
-  <si>
     <t>230238</t>
   </si>
   <si>
@@ -433,6 +427,12 @@
     <t>ANTHONY C.S.B.</t>
   </si>
   <si>
+    <t>230145</t>
+  </si>
+  <si>
+    <t>DILHAN W.A.</t>
+  </si>
+  <si>
     <t>230492</t>
   </si>
   <si>
@@ -445,12 +445,6 @@
     <t>AMARATHUNGE A.M.N.L.</t>
   </si>
   <si>
-    <t>230145</t>
-  </si>
-  <si>
-    <t>DILHAN W.A.</t>
-  </si>
-  <si>
     <t>230500</t>
   </si>
   <si>
@@ -481,6 +475,12 @@
     <t>SHEHAN M.N.N.</t>
   </si>
   <si>
+    <t>230070</t>
+  </si>
+  <si>
+    <t>BALASOORIYA B.R.B.D.</t>
+  </si>
+  <si>
     <t>230726</t>
   </si>
   <si>
@@ -499,12 +499,6 @@
     <t>RAHMAN M.F.A.</t>
   </si>
   <si>
-    <t>230070</t>
-  </si>
-  <si>
-    <t>BALASOORIYA B.R.B.D.</t>
-  </si>
-  <si>
     <t>230052</t>
   </si>
   <si>
@@ -589,6 +583,12 @@
     <t>HIMASARA W.V.M.J.</t>
   </si>
   <si>
+    <t>230727</t>
+  </si>
+  <si>
+    <t>WIJESINGHE W.A.P.W.</t>
+  </si>
+  <si>
     <t>230470</t>
   </si>
   <si>
@@ -607,12 +607,6 @@
     <t>RANATHUNGA R.J.K.O.H.</t>
   </si>
   <si>
-    <t>230727</t>
-  </si>
-  <si>
-    <t>WIJESINGHE W.A.P.W.</t>
-  </si>
-  <si>
     <t>230526</t>
   </si>
   <si>
@@ -631,6 +625,12 @@
     <t>ABISHEK L.</t>
   </si>
   <si>
+    <t>230407</t>
+  </si>
+  <si>
+    <t>MEEDENIYA M.M.H.</t>
+  </si>
+  <si>
     <t>230458</t>
   </si>
   <si>
@@ -655,12 +655,6 @@
     <t>IMBULPITIYA B.N.</t>
   </si>
   <si>
-    <t>230407</t>
-  </si>
-  <si>
-    <t>MEEDENIYA M.M.H.</t>
-  </si>
-  <si>
     <t>230017</t>
   </si>
   <si>
@@ -718,6 +712,12 @@
     <t>AMARASINGHE A.A.D.K.</t>
   </si>
   <si>
+    <t>230527</t>
+  </si>
+  <si>
+    <t>RANAWAKA R.A.G.K.</t>
+  </si>
+  <si>
     <t>230395</t>
   </si>
   <si>
@@ -736,12 +736,6 @@
     <t>SAMARANAYAKA H.D.J.D.</t>
   </si>
   <si>
-    <t>230527</t>
-  </si>
-  <si>
-    <t>RANAWAKA R.A.G.K.</t>
-  </si>
-  <si>
     <t>230203</t>
   </si>
   <si>
@@ -880,9 +874,6 @@
     <t>9(7.8%)</t>
   </si>
   <si>
-    <t>11(12.4%)</t>
-  </si>
-  <si>
     <t>31(27.0%)</t>
   </si>
   <si>
@@ -904,7 +895,7 @@
     <t>3(2.6%)</t>
   </si>
   <si>
-    <t>14(15.7%)</t>
+    <t>15(16.9%)</t>
   </si>
   <si>
     <t>2(1.7%)</t>
@@ -923,6 +914,9 @@
   </si>
   <si>
     <t>1(0.9%)</t>
+  </si>
+  <si>
+    <t>8(9.0%)</t>
   </si>
   <si>
     <t>3(3.4%)</t>
@@ -946,8 +940,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,21 +978,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1036,7 +1022,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1070,7 +1056,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1105,10 +1090,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1281,17 +1265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1460,7 +1441,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1546,7 +1527,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1626,13 +1607,13 @@
         <v>285</v>
       </c>
       <c r="AC4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD4" t="s">
         <v>286</v>
       </c>
-      <c r="AD4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1691,34 +1672,34 @@
         <v>264</v>
       </c>
       <c r="V5" t="s">
+        <v>287</v>
+      </c>
+      <c r="W5" t="s">
         <v>288</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y5" t="s">
         <v>289</v>
       </c>
-      <c r="X5" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>290</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>291</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>292</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>293</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>294</v>
       </c>
       <c r="AD5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1780,7 +1761,7 @@
         <v>267</v>
       </c>
       <c r="W6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="X6" t="s">
         <v>267</v>
@@ -1795,16 +1776,16 @@
         <v>260</v>
       </c>
       <c r="AB6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AC6" t="s">
         <v>277</v>
       </c>
       <c r="AD6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1860,7 +1841,7 @@
         <v>267</v>
       </c>
       <c r="U7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V7" t="s">
         <v>267</v>
@@ -1872,25 +1853,25 @@
         <v>267</v>
       </c>
       <c r="Y7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC7" t="s">
         <v>296</v>
       </c>
-      <c r="Z7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>293</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>297</v>
       </c>
-      <c r="AD7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1946,7 +1927,7 @@
         <v>267</v>
       </c>
       <c r="U8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V8" t="s">
         <v>267</v>
@@ -1958,25 +1939,25 @@
         <v>267</v>
       </c>
       <c r="Y8" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB8" t="s">
         <v>299</v>
       </c>
-      <c r="Z8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>300</v>
       </c>
-      <c r="AC8" t="s">
-        <v>266</v>
-      </c>
       <c r="AD8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2062,7 +2043,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2124,7 +2105,7 @@
         <v>267</v>
       </c>
       <c r="W10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X10" t="s">
         <v>267</v>
@@ -2148,7 +2129,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2234,7 +2215,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2320,7 +2301,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2406,7 +2387,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2492,7 +2473,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2542,7 +2523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2592,7 +2573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2642,7 +2623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2692,7 +2673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2742,7 +2723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2792,7 +2773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2842,7 +2823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2892,7 +2873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2942,7 +2923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2992,7 +2973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3042,7 +3023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>22</v>
       </c>
@@ -3092,7 +3073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>22</v>
       </c>
@@ -3142,7 +3123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3192,7 +3173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3242,7 +3223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3292,7 +3273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3342,7 +3323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>28</v>
       </c>
@@ -3392,7 +3373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>28</v>
       </c>
@@ -3442,7 +3423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3492,7 +3473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3542,7 +3523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3592,7 +3573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3642,7 +3623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3692,7 +3673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3742,7 +3723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>36</v>
       </c>
@@ -3792,7 +3773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3842,7 +3823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3892,7 +3873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3942,7 +3923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3992,9 +3973,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>109</v>
@@ -4006,13 +3987,13 @@
         <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
         <v>20</v>
@@ -4027,22 +4008,22 @@
         <v>20</v>
       </c>
       <c r="L45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M45" t="s">
         <v>29</v>
       </c>
       <c r="N45" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="O45">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="P45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4053,48 +4034,48 @@
         <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
         <v>19</v>
       </c>
       <c r="J46" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s">
         <v>20</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
         <v>65</v>
       </c>
       <c r="N46" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="O46">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
       <c r="P46">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>113</v>
@@ -4103,16 +4084,16 @@
         <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H47" t="s">
         <v>20</v>
@@ -4121,28 +4102,28 @@
         <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="K47" t="s">
         <v>20</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N47" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="O47">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="P47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4153,7 +4134,7 @@
         <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -4165,36 +4146,36 @@
         <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
         <v>19</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s">
         <v>20</v>
       </c>
       <c r="L48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="N48" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="P48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>117</v>
@@ -4242,7 +4223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4292,7 +4273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4342,7 +4323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4392,7 +4373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4442,7 +4423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4492,7 +4473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4542,7 +4523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>53</v>
       </c>
@@ -4592,7 +4573,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4642,9 +4623,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>137</v>
@@ -4659,42 +4640,42 @@
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K58" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="L58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="N58" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="O58">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
       <c r="P58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>139</v>
@@ -4706,31 +4687,31 @@
         <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H59" t="s">
         <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J59" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N59" t="s">
         <v>65</v>
@@ -4742,9 +4723,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>141</v>
@@ -4756,16 +4737,16 @@
         <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F60" t="s">
         <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s">
         <v>19</v>
@@ -4774,27 +4755,27 @@
         <v>29</v>
       </c>
       <c r="K60" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L60" t="s">
         <v>20</v>
       </c>
       <c r="M60" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="N60" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="O60">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="P60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>143</v>
@@ -4839,12 +4820,12 @@
         <v>3.68</v>
       </c>
       <c r="P61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>145</v>
@@ -4889,10 +4870,10 @@
         <v>3.68</v>
       </c>
       <c r="P62">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4942,7 +4923,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4992,7 +4973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>62</v>
       </c>
@@ -5042,9 +5023,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
         <v>153</v>
@@ -5062,37 +5043,37 @@
         <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="J66" t="s">
         <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="L66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M66" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="N66" t="s">
         <v>65</v>
       </c>
       <c r="O66">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="P66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5106,45 +5087,45 @@
         <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s">
         <v>19</v>
       </c>
       <c r="K67" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L67" t="s">
         <v>18</v>
       </c>
       <c r="M67" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="N67" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="O67">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="P67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>157</v>
@@ -5153,37 +5134,37 @@
         <v>158</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J68" t="s">
         <v>19</v>
       </c>
       <c r="K68" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L68" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="N68" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="O68">
         <v>3.65</v>
@@ -5192,9 +5173,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>159</v>
@@ -5203,13 +5184,13 @@
         <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E69" t="s">
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
         <v>65</v>
@@ -5218,7 +5199,7 @@
         <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s">
         <v>19</v>
@@ -5227,22 +5208,22 @@
         <v>20</v>
       </c>
       <c r="L69" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M69" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="N69" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="O69">
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
       <c r="P69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5292,7 +5273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5342,7 +5323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5392,7 +5373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5442,7 +5423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5492,7 +5473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5542,7 +5523,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5592,7 +5573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>74</v>
       </c>
@@ -5642,7 +5623,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>74</v>
       </c>
@@ -5692,7 +5673,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5742,7 +5723,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5792,7 +5773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5842,7 +5823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5892,7 +5873,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5942,9 +5923,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="A84">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
         <v>189</v>
@@ -5953,16 +5934,16 @@
         <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="H84" t="s">
         <v>20</v>
@@ -5971,28 +5952,28 @@
         <v>19</v>
       </c>
       <c r="J84" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K84" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="L84" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M84" t="s">
         <v>127</v>
       </c>
       <c r="N84" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="O84">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="P84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6006,43 +5987,43 @@
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H85" t="s">
         <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="J85" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K85" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="L85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M85" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="N85" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="O85">
-        <v>3.51</v>
+        <v>3.53</v>
       </c>
       <c r="P85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6056,7 +6037,7 @@
         <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
@@ -6065,36 +6046,36 @@
         <v>82</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="J86" t="s">
         <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="L86" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M86" t="s">
         <v>65</v>
       </c>
       <c r="N86" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="P86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>195</v>
@@ -6103,37 +6084,37 @@
         <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J87" t="s">
         <v>19</v>
       </c>
       <c r="K87" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="L87" t="s">
         <v>29</v>
       </c>
       <c r="M87" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="N87" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O87">
         <v>3.5</v>
@@ -6142,9 +6123,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>197</v>
@@ -6189,10 +6170,10 @@
         <v>3.5</v>
       </c>
       <c r="P88">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6242,7 +6223,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6292,7 +6273,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6306,19 +6287,19 @@
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="G91" t="s">
         <v>82</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
@@ -6330,21 +6311,21 @@
         <v>18</v>
       </c>
       <c r="M91" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N91" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="O91">
         <v>3.47</v>
       </c>
       <c r="P91">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>205</v>
@@ -6356,45 +6337,45 @@
         <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G92" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L92" t="s">
         <v>18</v>
       </c>
       <c r="M92" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="N92" t="s">
         <v>82</v>
       </c>
       <c r="O92">
-        <v>3.46</v>
+        <v>3.47</v>
       </c>
       <c r="P92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>207</v>
@@ -6406,34 +6387,34 @@
         <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H93" t="s">
         <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K93" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="L93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M93" t="s">
         <v>127</v>
       </c>
       <c r="N93" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="O93">
         <v>3.46</v>
@@ -6442,9 +6423,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>209</v>
@@ -6453,46 +6434,46 @@
         <v>210</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
         <v>19</v>
       </c>
       <c r="J94" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K94" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="L94" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M94" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="N94" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O94">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="P94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6503,48 +6484,48 @@
         <v>212</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="H95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K95" t="s">
         <v>20</v>
       </c>
       <c r="L95" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="M95" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="N95" t="s">
         <v>65</v>
       </c>
       <c r="O95">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="P95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>213</v>
@@ -6592,9 +6573,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16">
       <c r="A97">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>215</v>
@@ -6642,7 +6623,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6692,7 +6673,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6742,7 +6723,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6792,7 +6773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6842,7 +6823,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>99</v>
       </c>
@@ -6892,7 +6873,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6942,7 +6923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6992,7 +6973,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7012,39 +6993,39 @@
         <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="H105" t="s">
         <v>20</v>
       </c>
       <c r="I105" t="s">
+        <v>134</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" t="s">
+        <v>29</v>
+      </c>
+      <c r="L105" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" t="s">
         <v>127</v>
       </c>
-      <c r="J105" t="s">
-        <v>19</v>
-      </c>
-      <c r="K105" t="s">
-        <v>65</v>
-      </c>
-      <c r="L105" t="s">
-        <v>20</v>
-      </c>
-      <c r="M105" t="s">
-        <v>229</v>
-      </c>
       <c r="N105" t="s">
         <v>82</v>
       </c>
       <c r="O105">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="P105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>234</v>
@@ -7056,10 +7037,10 @@
         <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G106" t="s">
         <v>82</v>
@@ -7068,19 +7049,19 @@
         <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="J106" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K106" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L106" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M106" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="N106" t="s">
         <v>82</v>
@@ -7089,12 +7070,12 @@
         <v>3.33</v>
       </c>
       <c r="P106">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>236</v>
@@ -7106,16 +7087,16 @@
         <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
         <v>82</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I107" t="s">
         <v>19</v>
@@ -7127,7 +7108,7 @@
         <v>29</v>
       </c>
       <c r="L107" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="M107" t="s">
         <v>134</v>
@@ -7136,15 +7117,15 @@
         <v>82</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="P107">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>238</v>
@@ -7156,22 +7137,22 @@
         <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="H108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I108" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="J108" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K108" t="s">
         <v>29</v>
@@ -7192,7 +7173,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7242,7 +7223,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>108</v>
       </c>
@@ -7292,7 +7273,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7342,7 +7323,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7392,7 +7373,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7442,7 +7423,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7492,7 +7473,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7542,7 +7523,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>115</v>
       </c>

--- a/output/Results - sem3 (Extended).xlsx
+++ b/output/Results - sem3 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="310">
   <si>
     <t>Rank</t>
   </si>
@@ -58,6 +58,9 @@
     <t>EN2031</t>
   </si>
   <si>
+    <t>MA3014</t>
+  </si>
+  <si>
     <t>SGPA</t>
   </si>
   <si>
@@ -79,18 +82,18 @@
     <t>A</t>
   </si>
   <si>
+    <t>230266</t>
+  </si>
+  <si>
+    <t>JATHUNWATHTHA J.C.R.N.</t>
+  </si>
+  <si>
     <t>230481</t>
   </si>
   <si>
     <t>PERERA K.W.A.O.V.</t>
   </si>
   <si>
-    <t>230266</t>
-  </si>
-  <si>
-    <t>JATHUNWATHTHA J.C.R.N.</t>
-  </si>
-  <si>
     <t>230436</t>
   </si>
   <si>
@@ -124,18 +127,18 @@
     <t>BANDARA W.D.A.C.</t>
   </si>
   <si>
+    <t>230548</t>
+  </si>
+  <si>
+    <t>RATNAYAKE R.M.S.H.</t>
+  </si>
+  <si>
     <t>230352</t>
   </si>
   <si>
     <t>KUMARA K.B.R.</t>
   </si>
   <si>
-    <t>230548</t>
-  </si>
-  <si>
-    <t>RATNAYAKE R.M.S.H.</t>
-  </si>
-  <si>
     <t>230018</t>
   </si>
   <si>
@@ -181,18 +184,18 @@
     <t>PEIRIS E.A.S.S.</t>
   </si>
   <si>
+    <t>230318</t>
+  </si>
+  <si>
+    <t>KARIYAWASAM J.H.D.</t>
+  </si>
+  <si>
     <t>230256</t>
   </si>
   <si>
     <t>ILANKOON I.M.M.K.B.</t>
   </si>
   <si>
-    <t>230318</t>
-  </si>
-  <si>
-    <t>KARIYAWASAM J.H.D.</t>
-  </si>
-  <si>
     <t>230544</t>
   </si>
   <si>
@@ -244,39 +247,39 @@
     <t>SAMARASINGHE S.M.R.R.</t>
   </si>
   <si>
+    <t>230508</t>
+  </si>
+  <si>
+    <t>RAHUL B.</t>
+  </si>
+  <si>
+    <t>230140</t>
+  </si>
+  <si>
+    <t>DHARMAKEERTHI P.K.G.C.L.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>230477</t>
+  </si>
+  <si>
+    <t>PERERA H.A.J.I.</t>
+  </si>
+  <si>
+    <t>230390</t>
+  </si>
+  <si>
+    <t>MALDENIYA P.A.D.G.R.</t>
+  </si>
+  <si>
     <t>230186</t>
   </si>
   <si>
     <t>FERNANDO W.H.D.</t>
   </si>
   <si>
-    <t>230508</t>
-  </si>
-  <si>
-    <t>RAHUL B.</t>
-  </si>
-  <si>
-    <t>230140</t>
-  </si>
-  <si>
-    <t>DHARMAKEERTHI P.K.G.C.L.</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>230477</t>
-  </si>
-  <si>
-    <t>PERERA H.A.J.I.</t>
-  </si>
-  <si>
-    <t>230390</t>
-  </si>
-  <si>
-    <t>MALDENIYA P.A.D.G.R.</t>
-  </si>
-  <si>
     <t>230322</t>
   </si>
   <si>
@@ -289,18 +292,18 @@
     <t>AYANAJA N.B.G.M.</t>
   </si>
   <si>
+    <t>230724</t>
+  </si>
+  <si>
+    <t>WIJESEKARA W.A.G.S.</t>
+  </si>
+  <si>
     <t>230536</t>
   </si>
   <si>
     <t>RASANJANA W.P.G.R.A.</t>
   </si>
   <si>
-    <t>230724</t>
-  </si>
-  <si>
-    <t>WIJESEKARA W.A.G.S.</t>
-  </si>
-  <si>
     <t>230051</t>
   </si>
   <si>
@@ -337,18 +340,18 @@
     <t>MUNASINGHE A.I.</t>
   </si>
   <si>
+    <t>230521</t>
+  </si>
+  <si>
+    <t>RANASINGHE D.P.H.</t>
+  </si>
+  <si>
     <t>230332</t>
   </si>
   <si>
     <t>KEERAWELLA K.P.C.P.</t>
   </si>
   <si>
-    <t>230521</t>
-  </si>
-  <si>
-    <t>RANASINGHE D.P.H.</t>
-  </si>
-  <si>
     <t>230218</t>
   </si>
   <si>
@@ -433,18 +436,24 @@
     <t>DILHAN W.A.</t>
   </si>
   <si>
+    <t>230613</t>
+  </si>
+  <si>
+    <t>SHEHAN M.N.N.</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
+    <t>AMARATHUNGE A.M.N.L.</t>
+  </si>
+  <si>
     <t>230492</t>
   </si>
   <si>
     <t>PITIWADUGE D.N.</t>
   </si>
   <si>
-    <t>230038</t>
-  </si>
-  <si>
-    <t>AMARATHUNGE A.M.N.L.</t>
-  </si>
-  <si>
     <t>230500</t>
   </si>
   <si>
@@ -457,24 +466,18 @@
     <t>GAMAGE SK</t>
   </si>
   <si>
+    <t>230629</t>
+  </si>
+  <si>
+    <t>TENNAKOON U.G.R.B.</t>
+  </si>
+  <si>
     <t>230697</t>
   </si>
   <si>
     <t>WEERASINGHE J.A.H.R.</t>
   </si>
   <si>
-    <t>230629</t>
-  </si>
-  <si>
-    <t>TENNAKOON U.G.R.B.</t>
-  </si>
-  <si>
-    <t>230613</t>
-  </si>
-  <si>
-    <t>SHEHAN M.N.N.</t>
-  </si>
-  <si>
     <t>230070</t>
   </si>
   <si>
@@ -535,6 +538,12 @@
     <t>ABEYWARNA D.H.</t>
   </si>
   <si>
+    <t>230654</t>
+  </si>
+  <si>
+    <t>UMAIR A.</t>
+  </si>
+  <si>
     <t>230502</t>
   </si>
   <si>
@@ -547,10 +556,10 @@
     <t>DISSANAYAKE R.K.T.</t>
   </si>
   <si>
-    <t>230654</t>
-  </si>
-  <si>
-    <t>UMAIR A.</t>
+    <t>230063</t>
+  </si>
+  <si>
+    <t>ATHUKORALA U.R.</t>
   </si>
   <si>
     <t>230012</t>
@@ -559,12 +568,6 @@
     <t>ABEYWARDHANA T.C.W.</t>
   </si>
   <si>
-    <t>230063</t>
-  </si>
-  <si>
-    <t>ATHUKORALA U.R.</t>
-  </si>
-  <si>
     <t>230581</t>
   </si>
   <si>
@@ -655,16 +658,22 @@
     <t>IMBULPITIYA B.N.</t>
   </si>
   <si>
+    <t>230473</t>
+  </si>
+  <si>
+    <t>PERAMUNAGE D.S.</t>
+  </si>
+  <si>
     <t>230017</t>
   </si>
   <si>
     <t>ADHIKARI A.H.C.S.</t>
   </si>
   <si>
-    <t>230473</t>
-  </si>
-  <si>
-    <t>PERAMUNAGE D.S.</t>
+    <t>230261</t>
+  </si>
+  <si>
+    <t>INDUWARA M.L.A.S.</t>
   </si>
   <si>
     <t>230495</t>
@@ -673,10 +682,16 @@
     <t>PRABHARSHA H.W.D.</t>
   </si>
   <si>
-    <t>230261</t>
-  </si>
-  <si>
-    <t>INDUWARA M.L.A.S.</t>
+    <t>230175</t>
+  </si>
+  <si>
+    <t>ERANGA W.A.O.</t>
+  </si>
+  <si>
+    <t>230229</t>
+  </si>
+  <si>
+    <t>HANSINDU M.M.A.D.</t>
   </si>
   <si>
     <t>230735</t>
@@ -685,18 +700,6 @@
     <t>WITHANAGE G.D.N.</t>
   </si>
   <si>
-    <t>230175</t>
-  </si>
-  <si>
-    <t>ERANGA W.A.O.</t>
-  </si>
-  <si>
-    <t>230229</t>
-  </si>
-  <si>
-    <t>HANSINDU M.M.A.D.</t>
-  </si>
-  <si>
     <t>230650</t>
   </si>
   <si>
@@ -736,18 +739,18 @@
     <t>SAMARANAYAKA H.D.J.D.</t>
   </si>
   <si>
+    <t>230183</t>
+  </si>
+  <si>
+    <t>FERNANDO LTJ</t>
+  </si>
+  <si>
     <t>230203</t>
   </si>
   <si>
     <t>GUNARATHNA K.T.M.B.</t>
   </si>
   <si>
-    <t>230183</t>
-  </si>
-  <si>
-    <t>FERNANDO LTJ</t>
-  </si>
-  <si>
     <t>230636</t>
   </si>
   <si>
@@ -820,6 +823,9 @@
     <t>0(0.0%)</t>
   </si>
   <si>
+    <t>3(60.0%)</t>
+  </si>
+  <si>
     <t>13(65.0%)</t>
   </si>
   <si>
@@ -851,6 +857,9 @@
   </si>
   <si>
     <t>26(22.6%)</t>
+  </si>
+  <si>
+    <t>2(40.0%)</t>
   </si>
   <si>
     <t>4(20.0%)</t>
@@ -1266,13 +1275,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD116"/>
+  <dimension ref="A1:AF116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1321,94 +1330,100 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>5</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AF1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2">
         <v>4</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
       <c r="T2" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
         <v>258</v>
@@ -1440,2113 +1455,2254 @@
       <c r="AD2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3">
         <v>4</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="S3" t="s">
-        <v>20</v>
-      </c>
       <c r="T3" t="s">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="U3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AB3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>279</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4">
         <v>4</v>
       </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="S4" t="s">
-        <v>29</v>
+      <c r="Q4">
+        <v>3</v>
       </c>
       <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" t="s">
+        <v>282</v>
+      </c>
+      <c r="V4" t="s">
+        <v>283</v>
+      </c>
+      <c r="W4" t="s">
+        <v>284</v>
+      </c>
+      <c r="X4" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD4" t="s">
         <v>279</v>
       </c>
-      <c r="U4" t="s">
-        <v>280</v>
-      </c>
-      <c r="V4" t="s">
-        <v>281</v>
-      </c>
-      <c r="W4" t="s">
-        <v>280</v>
-      </c>
-      <c r="X4" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
-      <c r="S5" t="s">
-        <v>65</v>
+      <c r="Q5">
+        <v>4</v>
       </c>
       <c r="T5" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="U5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="V5" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="W5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="X5" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="Y5" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="Z5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AA5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AB5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AC5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AD5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>296</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6">
-        <v>3.97</v>
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
       </c>
       <c r="P6">
+        <v>3.9739</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
       </c>
-      <c r="S6" t="s">
-        <v>82</v>
-      </c>
       <c r="T6" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="V6" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="W6" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="X6" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="Y6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Z6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AA6" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB6" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="AC6" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="AD6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>279</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7">
-        <v>3.96</v>
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
       </c>
       <c r="P7">
+        <v>3.9609</v>
+      </c>
+      <c r="Q7">
         <v>6</v>
       </c>
-      <c r="S7" t="s">
-        <v>127</v>
-      </c>
       <c r="T7" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="U7" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="V7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="W7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="X7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="Y7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC7" t="s">
         <v>295</v>
       </c>
-      <c r="Z7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>296</v>
-      </c>
       <c r="AD7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>299</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8">
-        <v>3.96</v>
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
       </c>
       <c r="P8">
+        <v>3.9609</v>
+      </c>
+      <c r="Q8">
         <v>7</v>
       </c>
-      <c r="S8" t="s">
-        <v>134</v>
-      </c>
       <c r="T8" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="U8" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="V8" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="W8" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="X8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Y8" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="Z8" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="AA8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB8" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="AC8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AD8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>303</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9">
-        <v>3.96</v>
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
       </c>
       <c r="P9">
+        <v>3.9609</v>
+      </c>
+      <c r="Q9">
         <v>8</v>
       </c>
-      <c r="S9" t="s">
-        <v>229</v>
-      </c>
       <c r="T9" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="U9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC9" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="AD9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>304</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s">
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10">
-        <v>3.96</v>
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
       </c>
       <c r="P10">
+        <v>3.9609</v>
+      </c>
+      <c r="Q10">
         <v>9</v>
       </c>
-      <c r="S10" t="s">
-        <v>254</v>
-      </c>
       <c r="T10" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="U10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W10" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="X10" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="Y10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC10" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="AD10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>305</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11">
-        <v>3.96</v>
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
       </c>
       <c r="P11">
-        <v>9</v>
-      </c>
-      <c r="S11" t="s">
-        <v>303</v>
+        <v>3.9609</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
       </c>
       <c r="T11" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="U11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>268</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12">
-        <v>3.96</v>
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
       </c>
       <c r="P12">
+        <v>3.9609</v>
+      </c>
+      <c r="Q12">
         <v>11</v>
       </c>
-      <c r="S12" t="s">
-        <v>304</v>
-      </c>
       <c r="T12" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="U12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>268</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13">
-        <v>3.96</v>
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
       </c>
       <c r="P13">
-        <v>11</v>
-      </c>
-      <c r="S13" t="s">
-        <v>305</v>
+        <v>3.9571</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
       </c>
       <c r="T13" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="U13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>268</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14">
-        <v>3.96</v>
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
       </c>
       <c r="P14">
+        <v>3.9571</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
       </c>
-      <c r="S14" t="s">
-        <v>306</v>
-      </c>
       <c r="T14" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="U14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AC14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>268</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15">
-        <v>3.96</v>
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
       </c>
       <c r="P15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>3.9571</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16">
+        <v>3.955</v>
+      </c>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17">
         <v>3.95</v>
       </c>
-      <c r="P16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17">
-        <v>3.95</v>
-      </c>
-      <c r="P17">
+      <c r="Q17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18">
-        <v>3.94</v>
+        <v>21</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
       </c>
       <c r="P18">
+        <v>3.9375</v>
+      </c>
+      <c r="Q18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>3.925</v>
+      </c>
+      <c r="Q19">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="M19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19">
-        <v>3.93</v>
-      </c>
-      <c r="P19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20">
-        <v>19</v>
-      </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20">
-        <v>3.92</v>
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
       </c>
       <c r="P20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>3.925</v>
+      </c>
+      <c r="Q20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21">
-        <v>3.92</v>
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
       </c>
       <c r="P21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>3.9217</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22">
-        <v>3.92</v>
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
       </c>
       <c r="P22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>3.9217</v>
+      </c>
+      <c r="Q22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N23" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23">
+        <v>66</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23">
         <v>3.9</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N24" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24">
         <v>3.9</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25">
         <v>3.9</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26">
-        <v>3.9</v>
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
       </c>
       <c r="P26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>3.8957</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>65</v>
-      </c>
-      <c r="O27">
-        <v>3.9</v>
+        <v>66</v>
+      </c>
+      <c r="O27" t="s">
+        <v>20</v>
       </c>
       <c r="P27">
+        <v>3.895</v>
+      </c>
+      <c r="Q27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N28" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28">
-        <v>3.88</v>
+        <v>21</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
       </c>
       <c r="P28">
+        <v>3.8846</v>
+      </c>
+      <c r="Q28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29">
+        <v>3.8826</v>
+      </c>
+      <c r="Q29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29">
-        <v>3.87</v>
-      </c>
-      <c r="P29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30">
-        <v>28</v>
-      </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30">
+        <v>3.8739</v>
+      </c>
+      <c r="Q30">
         <v>29</v>
       </c>
-      <c r="L30" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30">
-        <v>3.87</v>
-      </c>
-      <c r="P30">
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31">
-        <v>28</v>
-      </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>81</v>
+      </c>
+      <c r="N31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31">
+        <v>3.8739</v>
+      </c>
+      <c r="Q31">
         <v>29</v>
       </c>
-      <c r="K31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" t="s">
-        <v>82</v>
-      </c>
-      <c r="N31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31">
-        <v>3.87</v>
-      </c>
-      <c r="P31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N32" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32">
-        <v>3.87</v>
+        <v>21</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
       </c>
       <c r="P32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>3.8739</v>
+      </c>
+      <c r="Q32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
         <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M33" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="N33" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33">
-        <v>3.87</v>
+        <v>21</v>
+      </c>
+      <c r="O33" t="s">
+        <v>20</v>
       </c>
       <c r="P33">
+        <v>3.8696</v>
+      </c>
+      <c r="Q33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O34">
-        <v>3.86</v>
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
+        <v>20</v>
       </c>
       <c r="P34">
+        <v>3.8625</v>
+      </c>
+      <c r="Q34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>52</v>
-      </c>
-      <c r="O35">
+        <v>53</v>
+      </c>
+      <c r="O35" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35">
         <v>3.85</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
         <v>19</v>
@@ -3555,4021 +3711,4264 @@
         <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="L36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M36" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="N36" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36">
-        <v>3.85</v>
+        <v>21</v>
+      </c>
+      <c r="O36" t="s">
+        <v>19</v>
       </c>
       <c r="P36">
+        <v>3.8478</v>
+      </c>
+      <c r="Q36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>81</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37">
+        <v>3.8478</v>
+      </c>
+      <c r="Q37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" t="s">
-        <v>65</v>
-      </c>
-      <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" t="s">
-        <v>19</v>
-      </c>
-      <c r="N37" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37">
-        <v>3.83</v>
-      </c>
-      <c r="P37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N38" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38">
-        <v>3.83</v>
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
+        <v>20</v>
       </c>
       <c r="P38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>3.8304</v>
+      </c>
+      <c r="Q38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>65</v>
-      </c>
-      <c r="O39">
-        <v>3.83</v>
+        <v>66</v>
+      </c>
+      <c r="O39" t="s">
+        <v>20</v>
       </c>
       <c r="P39">
+        <v>3.8304</v>
+      </c>
+      <c r="Q39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:17">
       <c r="A40">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N40" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40">
-        <v>3.83</v>
+        <v>21</v>
+      </c>
+      <c r="O40" t="s">
+        <v>20</v>
       </c>
       <c r="P40">
+        <v>3.8269</v>
+      </c>
+      <c r="Q40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N41" t="s">
-        <v>29</v>
-      </c>
-      <c r="O41">
-        <v>3.82</v>
+        <v>30</v>
+      </c>
+      <c r="O41" t="s">
+        <v>20</v>
       </c>
       <c r="P41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>3.8217</v>
+      </c>
+      <c r="Q41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N42" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42">
-        <v>3.8</v>
+        <v>30</v>
+      </c>
+      <c r="O42" t="s">
+        <v>20</v>
       </c>
       <c r="P42">
+        <v>3.8043</v>
+      </c>
+      <c r="Q42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N43" t="s">
-        <v>29</v>
-      </c>
-      <c r="O43">
-        <v>3.8</v>
+        <v>30</v>
+      </c>
+      <c r="O43" t="s">
+        <v>20</v>
       </c>
       <c r="P43">
+        <v>3.8043</v>
+      </c>
+      <c r="Q43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="K44" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N44" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44">
+        <v>66</v>
+      </c>
+      <c r="O44" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44">
+        <v>3.7913</v>
+      </c>
+      <c r="Q44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45">
         <v>3.79</v>
       </c>
-      <c r="P44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" t="s">
-        <v>65</v>
-      </c>
-      <c r="K45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" t="s">
-        <v>65</v>
-      </c>
-      <c r="O45">
-        <v>3.79</v>
-      </c>
-      <c r="P45">
+      <c r="Q45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N46" t="s">
-        <v>29</v>
-      </c>
-      <c r="O46">
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46">
         <v>3.78</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N47" t="s">
-        <v>29</v>
-      </c>
-      <c r="O47">
-        <v>3.77</v>
+        <v>30</v>
+      </c>
+      <c r="O47" t="s">
+        <v>20</v>
       </c>
       <c r="P47">
+        <v>3.7652</v>
+      </c>
+      <c r="Q47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N48" t="s">
-        <v>82</v>
-      </c>
-      <c r="O48">
-        <v>3.76</v>
+        <v>81</v>
+      </c>
+      <c r="O48" t="s">
+        <v>20</v>
       </c>
       <c r="P48">
+        <v>3.7571</v>
+      </c>
+      <c r="Q48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N49" t="s">
-        <v>29</v>
-      </c>
-      <c r="O49">
+        <v>30</v>
+      </c>
+      <c r="O49" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49">
         <v>3.75</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N50" t="s">
-        <v>29</v>
-      </c>
-      <c r="O50">
-        <v>3.74</v>
+        <v>30</v>
+      </c>
+      <c r="O50" t="s">
+        <v>20</v>
       </c>
       <c r="P50">
+        <v>3.7391</v>
+      </c>
+      <c r="Q50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N51" t="s">
-        <v>29</v>
-      </c>
-      <c r="O51">
-        <v>3.73</v>
+        <v>30</v>
+      </c>
+      <c r="O51" t="s">
+        <v>20</v>
       </c>
       <c r="P51">
+        <v>3.7304</v>
+      </c>
+      <c r="Q51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N52" t="s">
-        <v>65</v>
-      </c>
-      <c r="O52">
-        <v>3.72</v>
+        <v>66</v>
+      </c>
+      <c r="O52" t="s">
+        <v>20</v>
       </c>
       <c r="P52">
+        <v>3.7217</v>
+      </c>
+      <c r="Q52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N53" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53">
-        <v>3.72</v>
+        <v>30</v>
+      </c>
+      <c r="O53" t="s">
+        <v>20</v>
       </c>
       <c r="P53">
+        <v>3.7217</v>
+      </c>
+      <c r="Q53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" t="s">
+        <v>66</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" t="s">
+        <v>81</v>
+      </c>
+      <c r="O54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54">
+        <v>3.7143</v>
+      </c>
+      <c r="Q54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s">
         <v>128</v>
       </c>
-      <c r="C54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" t="s">
-        <v>65</v>
-      </c>
-      <c r="J54" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" t="s">
-        <v>19</v>
-      </c>
-      <c r="N54" t="s">
-        <v>82</v>
-      </c>
-      <c r="O54">
-        <v>3.71</v>
-      </c>
-      <c r="P54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" t="s">
-        <v>127</v>
-      </c>
       <c r="J55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N55" t="s">
-        <v>65</v>
-      </c>
-      <c r="O55">
-        <v>3.71</v>
+        <v>66</v>
+      </c>
+      <c r="O55" t="s">
+        <v>20</v>
       </c>
       <c r="P55">
+        <v>3.713</v>
+      </c>
+      <c r="Q55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:17">
       <c r="A56">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>20</v>
-      </c>
-      <c r="O56">
-        <v>3.71</v>
+        <v>21</v>
+      </c>
+      <c r="O56" t="s">
+        <v>20</v>
       </c>
       <c r="P56">
+        <v>3.713</v>
+      </c>
+      <c r="Q56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N57" t="s">
-        <v>29</v>
-      </c>
-      <c r="O57">
-        <v>3.7</v>
+        <v>30</v>
+      </c>
+      <c r="O57" t="s">
+        <v>20</v>
       </c>
       <c r="P57">
+        <v>3.7043</v>
+      </c>
+      <c r="Q57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N58" t="s">
-        <v>82</v>
-      </c>
-      <c r="O58">
-        <v>3.7</v>
+        <v>81</v>
+      </c>
+      <c r="O58" t="s">
+        <v>20</v>
       </c>
       <c r="P58">
+        <v>3.7043</v>
+      </c>
+      <c r="Q58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="L59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N59" t="s">
-        <v>65</v>
-      </c>
-      <c r="O59">
-        <v>3.69</v>
+        <v>81</v>
+      </c>
+      <c r="O59" t="s">
+        <v>21</v>
       </c>
       <c r="P59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>3.7</v>
+      </c>
+      <c r="Q59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N60" t="s">
-        <v>65</v>
-      </c>
-      <c r="O60">
-        <v>3.69</v>
+        <v>66</v>
+      </c>
+      <c r="O60" t="s">
+        <v>20</v>
       </c>
       <c r="P60">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>3.6913</v>
+      </c>
+      <c r="Q60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J61" t="s">
         <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="L61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" t="s">
+        <v>66</v>
+      </c>
+      <c r="O61" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61">
+        <v>3.6905</v>
+      </c>
+      <c r="Q61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" t="s">
+        <v>66</v>
+      </c>
+      <c r="N62" t="s">
+        <v>81</v>
+      </c>
+      <c r="O62" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62">
+        <v>3.6783</v>
+      </c>
+      <c r="Q62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" t="s">
+        <v>66</v>
+      </c>
+      <c r="N63" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63">
+        <v>3.6783</v>
+      </c>
+      <c r="Q63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s">
+        <v>66</v>
+      </c>
+      <c r="J64" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" t="s">
+        <v>66</v>
+      </c>
+      <c r="O64" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64">
+        <v>3.6739</v>
+      </c>
+      <c r="Q64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" t="s">
+        <v>81</v>
+      </c>
+      <c r="O65" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65">
+        <v>3.6714</v>
+      </c>
+      <c r="Q65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="N61" t="s">
-        <v>82</v>
-      </c>
-      <c r="O61">
-        <v>3.68</v>
-      </c>
-      <c r="P61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s">
+        <v>66</v>
+      </c>
+      <c r="J66" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" t="s">
+        <v>66</v>
+      </c>
+      <c r="N66" t="s">
+        <v>66</v>
+      </c>
+      <c r="O66" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66">
+        <v>3.6652</v>
+      </c>
+      <c r="Q66">
         <v>65</v>
       </c>
-      <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" t="s">
-        <v>82</v>
-      </c>
-      <c r="J62" t="s">
-        <v>19</v>
-      </c>
-      <c r="K62" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" t="s">
-        <v>18</v>
-      </c>
-      <c r="M62" t="s">
-        <v>65</v>
-      </c>
-      <c r="N62" t="s">
-        <v>20</v>
-      </c>
-      <c r="O62">
-        <v>3.68</v>
-      </c>
-      <c r="P62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>65</v>
-      </c>
-      <c r="H63" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N63" t="s">
-        <v>82</v>
-      </c>
-      <c r="O63">
-        <v>3.67</v>
-      </c>
-      <c r="P63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>65</v>
-      </c>
-      <c r="H64" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" t="s">
-        <v>65</v>
-      </c>
-      <c r="J64" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" t="s">
-        <v>29</v>
-      </c>
-      <c r="L64" t="s">
-        <v>18</v>
-      </c>
-      <c r="M64" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" t="s">
-        <v>65</v>
-      </c>
-      <c r="O64">
-        <v>3.67</v>
-      </c>
-      <c r="P64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65">
-        <v>62</v>
-      </c>
-      <c r="B65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>65</v>
-      </c>
-      <c r="H65" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" t="s">
-        <v>29</v>
-      </c>
-      <c r="J65" t="s">
-        <v>19</v>
-      </c>
-      <c r="K65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" t="s">
-        <v>19</v>
-      </c>
-      <c r="N65" t="s">
-        <v>82</v>
-      </c>
-      <c r="O65">
-        <v>3.67</v>
-      </c>
-      <c r="P65">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66">
-        <v>62</v>
-      </c>
-      <c r="B66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" t="s">
-        <v>154</v>
-      </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>65</v>
-      </c>
-      <c r="H66" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" t="s">
-        <v>65</v>
-      </c>
-      <c r="J66" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" t="s">
-        <v>65</v>
-      </c>
-      <c r="N66" t="s">
-        <v>65</v>
-      </c>
-      <c r="O66">
-        <v>3.67</v>
-      </c>
-      <c r="P66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N67" t="s">
-        <v>65</v>
-      </c>
-      <c r="O67">
-        <v>3.66</v>
+        <v>66</v>
+      </c>
+      <c r="O67" t="s">
+        <v>20</v>
       </c>
       <c r="P67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>3.6609</v>
+      </c>
+      <c r="Q67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N68" t="s">
-        <v>29</v>
-      </c>
-      <c r="O68">
-        <v>3.65</v>
+        <v>30</v>
+      </c>
+      <c r="O68" t="s">
+        <v>20</v>
       </c>
       <c r="P68">
+        <v>3.6522</v>
+      </c>
+      <c r="Q68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:17">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N69" t="s">
-        <v>82</v>
-      </c>
-      <c r="O69">
-        <v>3.65</v>
+        <v>81</v>
+      </c>
+      <c r="O69" t="s">
+        <v>20</v>
       </c>
       <c r="P69">
+        <v>3.645</v>
+      </c>
+      <c r="Q69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N70" t="s">
-        <v>29</v>
-      </c>
-      <c r="O70">
+        <v>30</v>
+      </c>
+      <c r="O70" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70">
         <v>3.63</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N71" t="s">
-        <v>65</v>
-      </c>
-      <c r="O71">
-        <v>3.62</v>
+        <v>66</v>
+      </c>
+      <c r="O71" t="s">
+        <v>20</v>
       </c>
       <c r="P71">
+        <v>3.619</v>
+      </c>
+      <c r="Q71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N72" t="s">
-        <v>82</v>
-      </c>
-      <c r="O72">
-        <v>3.61</v>
+        <v>81</v>
+      </c>
+      <c r="O72" t="s">
+        <v>20</v>
       </c>
       <c r="P72">
+        <v>3.613</v>
+      </c>
+      <c r="Q72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N73" t="s">
-        <v>52</v>
-      </c>
-      <c r="O73">
+        <v>53</v>
+      </c>
+      <c r="O73" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73">
         <v>3.6</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N74" t="s">
-        <v>29</v>
-      </c>
-      <c r="O74">
+        <v>30</v>
+      </c>
+      <c r="O74" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74">
         <v>3.6</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N75" t="s">
-        <v>20</v>
-      </c>
-      <c r="O75">
-        <v>3.59</v>
+        <v>21</v>
+      </c>
+      <c r="O75" t="s">
+        <v>20</v>
       </c>
       <c r="P75">
+        <v>3.5913</v>
+      </c>
+      <c r="Q75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J76" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="L76" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N76" t="s">
-        <v>65</v>
-      </c>
-      <c r="O76">
-        <v>3.59</v>
+        <v>30</v>
+      </c>
+      <c r="O76" t="s">
+        <v>20</v>
       </c>
       <c r="P76">
+        <v>3.5913</v>
+      </c>
+      <c r="Q76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:17">
       <c r="A77">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K77" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M77" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="N77" t="s">
-        <v>82</v>
-      </c>
-      <c r="O77">
-        <v>3.59</v>
+        <v>66</v>
+      </c>
+      <c r="O77" t="s">
+        <v>20</v>
       </c>
       <c r="P77">
+        <v>3.587</v>
+      </c>
+      <c r="Q77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:17">
       <c r="A78">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K78" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="L78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M78" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="N78" t="s">
-        <v>29</v>
-      </c>
-      <c r="O78">
-        <v>3.59</v>
+        <v>81</v>
+      </c>
+      <c r="O78" t="s">
+        <v>20</v>
       </c>
       <c r="P78">
+        <v>3.587</v>
+      </c>
+      <c r="Q78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
         <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="K79" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="L79" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="M79" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N79" t="s">
-        <v>65</v>
-      </c>
-      <c r="O79">
-        <v>3.56</v>
+        <v>30</v>
+      </c>
+      <c r="O79" t="s">
+        <v>20</v>
       </c>
       <c r="P79">
+        <v>3.5609</v>
+      </c>
+      <c r="Q79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:17">
       <c r="A80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J80" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="K80" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="L80" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="M80" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N80" t="s">
-        <v>29</v>
-      </c>
-      <c r="O80">
-        <v>3.56</v>
+        <v>66</v>
+      </c>
+      <c r="O80" t="s">
+        <v>20</v>
       </c>
       <c r="P80">
+        <v>3.5583</v>
+      </c>
+      <c r="Q80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N81" t="s">
-        <v>52</v>
-      </c>
-      <c r="O81">
-        <v>3.55</v>
+        <v>53</v>
+      </c>
+      <c r="O81" t="s">
+        <v>20</v>
       </c>
       <c r="P81">
+        <v>3.5471</v>
+      </c>
+      <c r="Q81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N82" t="s">
-        <v>127</v>
-      </c>
-      <c r="O82">
+        <v>128</v>
+      </c>
+      <c r="O82" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82">
+        <v>3.5435</v>
+      </c>
+      <c r="Q82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" t="s">
+        <v>135</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" t="s">
+        <v>30</v>
+      </c>
+      <c r="N83" t="s">
+        <v>66</v>
+      </c>
+      <c r="O83" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83">
+        <v>3.5435</v>
+      </c>
+      <c r="Q83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" t="s">
+        <v>21</v>
+      </c>
+      <c r="L84" t="s">
+        <v>30</v>
+      </c>
+      <c r="M84" t="s">
+        <v>128</v>
+      </c>
+      <c r="N84" t="s">
+        <v>30</v>
+      </c>
+      <c r="O84" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84">
         <v>3.54</v>
       </c>
-      <c r="P82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83" t="s">
-        <v>188</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" t="s">
-        <v>134</v>
-      </c>
-      <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>65</v>
-      </c>
-      <c r="H83" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" t="s">
-        <v>20</v>
-      </c>
-      <c r="J83" t="s">
-        <v>19</v>
-      </c>
-      <c r="K83" t="s">
-        <v>29</v>
-      </c>
-      <c r="L83" t="s">
-        <v>18</v>
-      </c>
-      <c r="M83" t="s">
-        <v>29</v>
-      </c>
-      <c r="N83" t="s">
-        <v>65</v>
-      </c>
-      <c r="O83">
-        <v>3.54</v>
-      </c>
-      <c r="P83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84">
-        <v>81</v>
-      </c>
-      <c r="B84" t="s">
-        <v>189</v>
-      </c>
-      <c r="C84" t="s">
-        <v>190</v>
-      </c>
-      <c r="D84" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" t="s">
-        <v>82</v>
-      </c>
-      <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>65</v>
-      </c>
-      <c r="H84" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J84" t="s">
-        <v>19</v>
-      </c>
-      <c r="K84" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" t="s">
-        <v>29</v>
-      </c>
-      <c r="M84" t="s">
-        <v>127</v>
-      </c>
-      <c r="N84" t="s">
-        <v>29</v>
-      </c>
-      <c r="O84">
-        <v>3.54</v>
-      </c>
-      <c r="P84">
+      <c r="Q84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N85" t="s">
-        <v>65</v>
-      </c>
-      <c r="O85">
-        <v>3.53</v>
+        <v>66</v>
+      </c>
+      <c r="O85" t="s">
+        <v>20</v>
       </c>
       <c r="P85">
+        <v>3.5261</v>
+      </c>
+      <c r="Q85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N86" t="s">
-        <v>127</v>
-      </c>
-      <c r="O86">
-        <v>3.51</v>
+        <v>128</v>
+      </c>
+      <c r="O86" t="s">
+        <v>20</v>
       </c>
       <c r="P86">
+        <v>3.5087</v>
+      </c>
+      <c r="Q86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N87" t="s">
-        <v>20</v>
-      </c>
-      <c r="O87">
+        <v>21</v>
+      </c>
+      <c r="O87" t="s">
+        <v>20</v>
+      </c>
+      <c r="P87">
         <v>3.5</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:17">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M88" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N88" t="s">
-        <v>82</v>
-      </c>
-      <c r="O88">
-        <v>3.5</v>
+        <v>81</v>
+      </c>
+      <c r="O88" t="s">
+        <v>20</v>
       </c>
       <c r="P88">
+        <v>3.4957</v>
+      </c>
+      <c r="Q88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N89" t="s">
-        <v>52</v>
-      </c>
-      <c r="O89">
-        <v>3.49</v>
+        <v>53</v>
+      </c>
+      <c r="O89" t="s">
+        <v>20</v>
       </c>
       <c r="P89">
+        <v>3.495</v>
+      </c>
+      <c r="Q89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N90" t="s">
-        <v>82</v>
-      </c>
-      <c r="O90">
+        <v>81</v>
+      </c>
+      <c r="O90" t="s">
+        <v>20</v>
+      </c>
+      <c r="P90">
         <v>3.48</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O91">
-        <v>3.47</v>
+        <v>66</v>
+      </c>
+      <c r="O91" t="s">
+        <v>20</v>
       </c>
       <c r="P91">
+        <v>3.4696</v>
+      </c>
+      <c r="Q91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:17">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N92" t="s">
-        <v>82</v>
-      </c>
-      <c r="O92">
-        <v>3.47</v>
+        <v>81</v>
+      </c>
+      <c r="O92" t="s">
+        <v>20</v>
       </c>
       <c r="P92">
+        <v>3.4652</v>
+      </c>
+      <c r="Q92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M93" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N93" t="s">
-        <v>82</v>
-      </c>
-      <c r="O93">
-        <v>3.46</v>
+        <v>81</v>
+      </c>
+      <c r="O93" t="s">
+        <v>20</v>
       </c>
       <c r="P93">
+        <v>3.4609</v>
+      </c>
+      <c r="Q93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:17">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N94" t="s">
-        <v>52</v>
-      </c>
-      <c r="O94">
-        <v>3.46</v>
+        <v>53</v>
+      </c>
+      <c r="O94" t="s">
+        <v>20</v>
       </c>
       <c r="P94">
+        <v>3.455</v>
+      </c>
+      <c r="Q94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N95" t="s">
-        <v>65</v>
-      </c>
-      <c r="O95">
-        <v>3.45</v>
+        <v>66</v>
+      </c>
+      <c r="O95" t="s">
+        <v>20</v>
       </c>
       <c r="P95">
+        <v>3.4476</v>
+      </c>
+      <c r="Q95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="J96" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="K96" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="L96" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M96" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="N96" t="s">
-        <v>82</v>
-      </c>
-      <c r="O96">
-        <v>3.44</v>
+        <v>128</v>
+      </c>
+      <c r="O96" t="s">
+        <v>20</v>
       </c>
       <c r="P96">
+        <v>3.4435</v>
+      </c>
+      <c r="Q96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:17">
       <c r="A97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J97" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K97" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="L97" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M97" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="N97" t="s">
-        <v>127</v>
-      </c>
-      <c r="O97">
-        <v>3.44</v>
+        <v>81</v>
+      </c>
+      <c r="O97" t="s">
+        <v>20</v>
       </c>
       <c r="P97">
+        <v>3.4417</v>
+      </c>
+      <c r="Q97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I98" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="J98" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K98" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="L98" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="M98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N98" t="s">
-        <v>127</v>
-      </c>
-      <c r="O98">
-        <v>3.42</v>
+        <v>66</v>
+      </c>
+      <c r="O98" t="s">
+        <v>20</v>
       </c>
       <c r="P98">
+        <v>3.425</v>
+      </c>
+      <c r="Q98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:17">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D99" t="s">
         <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J99" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K99" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="L99" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="M99" t="s">
         <v>19</v>
       </c>
       <c r="N99" t="s">
-        <v>65</v>
-      </c>
-      <c r="O99">
-        <v>3.42</v>
+        <v>128</v>
+      </c>
+      <c r="O99" t="s">
+        <v>20</v>
       </c>
       <c r="P99">
+        <v>3.4174</v>
+      </c>
+      <c r="Q99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="H100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I100" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="J100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K100" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="L100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M100" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N100" t="s">
-        <v>29</v>
-      </c>
-      <c r="O100">
+        <v>66</v>
+      </c>
+      <c r="O100" t="s">
+        <v>20</v>
+      </c>
+      <c r="P100">
+        <v>3.4043</v>
+      </c>
+      <c r="Q100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>135</v>
+      </c>
+      <c r="F101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" t="s">
+        <v>30</v>
+      </c>
+      <c r="L101" t="s">
+        <v>21</v>
+      </c>
+      <c r="M101" t="s">
+        <v>20</v>
+      </c>
+      <c r="N101" t="s">
+        <v>81</v>
+      </c>
+      <c r="O101" t="s">
+        <v>20</v>
+      </c>
+      <c r="P101">
         <v>3.4</v>
       </c>
-      <c r="P100">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>223</v>
-      </c>
-      <c r="C101" t="s">
-        <v>224</v>
-      </c>
-      <c r="D101" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" t="s">
-        <v>82</v>
-      </c>
-      <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>82</v>
-      </c>
-      <c r="H101" t="s">
-        <v>20</v>
-      </c>
-      <c r="I101" t="s">
-        <v>82</v>
-      </c>
-      <c r="J101" t="s">
-        <v>19</v>
-      </c>
-      <c r="K101" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" t="s">
-        <v>18</v>
-      </c>
-      <c r="M101" t="s">
-        <v>127</v>
-      </c>
-      <c r="N101" t="s">
-        <v>65</v>
-      </c>
-      <c r="O101">
+      <c r="Q101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>128</v>
+      </c>
+      <c r="H102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" t="s">
+        <v>66</v>
+      </c>
+      <c r="J102" t="s">
+        <v>20</v>
+      </c>
+      <c r="K102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L102" t="s">
+        <v>19</v>
+      </c>
+      <c r="M102" t="s">
+        <v>135</v>
+      </c>
+      <c r="N102" t="s">
+        <v>30</v>
+      </c>
+      <c r="O102" t="s">
+        <v>20</v>
+      </c>
+      <c r="P102">
         <v>3.4</v>
       </c>
-      <c r="P101">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
-      <c r="A102">
-        <v>99</v>
-      </c>
-      <c r="B102" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" t="s">
-        <v>226</v>
-      </c>
-      <c r="D102" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" t="s">
-        <v>134</v>
-      </c>
-      <c r="F102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G102" t="s">
-        <v>82</v>
-      </c>
-      <c r="H102" t="s">
-        <v>18</v>
-      </c>
-      <c r="I102" t="s">
-        <v>20</v>
-      </c>
-      <c r="J102" t="s">
-        <v>19</v>
-      </c>
-      <c r="K102" t="s">
-        <v>29</v>
-      </c>
-      <c r="L102" t="s">
-        <v>20</v>
-      </c>
-      <c r="M102" t="s">
-        <v>19</v>
-      </c>
-      <c r="N102" t="s">
-        <v>82</v>
-      </c>
-      <c r="O102">
-        <v>3.4</v>
-      </c>
-      <c r="P102">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="Q102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N103" t="s">
-        <v>82</v>
-      </c>
-      <c r="O103">
-        <v>3.37</v>
+        <v>81</v>
+      </c>
+      <c r="O103" t="s">
+        <v>20</v>
       </c>
       <c r="P103">
+        <v>3.3739</v>
+      </c>
+      <c r="Q103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:17">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N104" t="s">
-        <v>65</v>
-      </c>
-      <c r="O104">
-        <v>3.35</v>
+        <v>66</v>
+      </c>
+      <c r="O104" t="s">
+        <v>20</v>
       </c>
       <c r="P104">
+        <v>3.3478</v>
+      </c>
+      <c r="Q104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:17">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G105" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I105" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M105" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N105" t="s">
-        <v>82</v>
-      </c>
-      <c r="O105">
-        <v>3.34</v>
+        <v>81</v>
+      </c>
+      <c r="O105" t="s">
+        <v>20</v>
       </c>
       <c r="P105">
+        <v>3.3391</v>
+      </c>
+      <c r="Q105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:17">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N106" t="s">
-        <v>82</v>
-      </c>
-      <c r="O106">
-        <v>3.33</v>
+        <v>81</v>
+      </c>
+      <c r="O106" t="s">
+        <v>20</v>
       </c>
       <c r="P106">
+        <v>3.3348</v>
+      </c>
+      <c r="Q106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:17">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L107" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N107" t="s">
-        <v>82</v>
-      </c>
-      <c r="O107">
-        <v>3.33</v>
+        <v>81</v>
+      </c>
+      <c r="O107" t="s">
+        <v>20</v>
       </c>
       <c r="P107">
+        <v>3.3348</v>
+      </c>
+      <c r="Q107">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:17">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M108" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N108" t="s">
-        <v>82</v>
-      </c>
-      <c r="O108">
-        <v>3.3</v>
+        <v>81</v>
+      </c>
+      <c r="O108" t="s">
+        <v>20</v>
       </c>
       <c r="P108">
+        <v>3.3043</v>
+      </c>
+      <c r="Q108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:17">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F109" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G109" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H109" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J109" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="K109" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="L109" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M109" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="N109" t="s">
-        <v>52</v>
-      </c>
-      <c r="O109">
+        <v>53</v>
+      </c>
+      <c r="O109" t="s">
+        <v>20</v>
+      </c>
+      <c r="P109">
+        <v>3.2529</v>
+      </c>
+      <c r="Q109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" t="s">
+        <v>244</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F110" t="s">
+        <v>66</v>
+      </c>
+      <c r="G110" t="s">
+        <v>135</v>
+      </c>
+      <c r="H110" t="s">
+        <v>30</v>
+      </c>
+      <c r="I110" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" t="s">
+        <v>66</v>
+      </c>
+      <c r="K110" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M110" t="s">
+        <v>20</v>
+      </c>
+      <c r="N110" t="s">
+        <v>53</v>
+      </c>
+      <c r="O110" t="s">
+        <v>20</v>
+      </c>
+      <c r="P110">
         <v>3.25</v>
       </c>
-      <c r="P109">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
-      <c r="A110">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>242</v>
-      </c>
-      <c r="C110" t="s">
-        <v>243</v>
-      </c>
-      <c r="D110" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" t="s">
-        <v>82</v>
-      </c>
-      <c r="F110" t="s">
-        <v>52</v>
-      </c>
-      <c r="G110" t="s">
-        <v>134</v>
-      </c>
-      <c r="H110" t="s">
-        <v>20</v>
-      </c>
-      <c r="I110" t="s">
-        <v>19</v>
-      </c>
-      <c r="J110" t="s">
-        <v>20</v>
-      </c>
-      <c r="K110" t="s">
-        <v>82</v>
-      </c>
-      <c r="L110" t="s">
-        <v>20</v>
-      </c>
-      <c r="M110" t="s">
-        <v>127</v>
-      </c>
-      <c r="N110" t="s">
-        <v>52</v>
-      </c>
-      <c r="O110">
-        <v>3.25</v>
-      </c>
-      <c r="P110">
+      <c r="Q110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:17">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M111" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N111" t="s">
-        <v>29</v>
-      </c>
-      <c r="O111">
-        <v>3.24</v>
+        <v>30</v>
+      </c>
+      <c r="O111" t="s">
+        <v>20</v>
       </c>
       <c r="P111">
+        <v>3.2391</v>
+      </c>
+      <c r="Q111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:17">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L112" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M112" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N112" t="s">
-        <v>82</v>
-      </c>
-      <c r="O112">
-        <v>3.22</v>
+        <v>81</v>
+      </c>
+      <c r="O112" t="s">
+        <v>20</v>
       </c>
       <c r="P112">
+        <v>3.2217</v>
+      </c>
+      <c r="Q112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:17">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N113" t="s">
-        <v>82</v>
-      </c>
-      <c r="O113">
-        <v>3.22</v>
+        <v>81</v>
+      </c>
+      <c r="O113" t="s">
+        <v>20</v>
       </c>
       <c r="P113">
+        <v>3.2217</v>
+      </c>
+      <c r="Q113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:17">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E114" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M114" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N114" t="s">
-        <v>65</v>
-      </c>
-      <c r="O114">
-        <v>3.17</v>
+        <v>66</v>
+      </c>
+      <c r="O114" t="s">
+        <v>20</v>
       </c>
       <c r="P114">
+        <v>3.1706</v>
+      </c>
+      <c r="Q114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:17">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M115" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N115" t="s">
-        <v>127</v>
-      </c>
-      <c r="O115">
-        <v>3.1</v>
+        <v>128</v>
+      </c>
+      <c r="O115" t="s">
+        <v>20</v>
       </c>
       <c r="P115">
+        <v>3.0957</v>
+      </c>
+      <c r="Q115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:17">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" t="s">
+        <v>257</v>
+      </c>
+      <c r="D116" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
         <v>255</v>
       </c>
-      <c r="C116" t="s">
-        <v>256</v>
-      </c>
-      <c r="D116" t="s">
-        <v>29</v>
-      </c>
-      <c r="E116" t="s">
-        <v>127</v>
-      </c>
-      <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>254</v>
-      </c>
       <c r="H116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I116" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J116" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K116" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N116" t="s">
-        <v>82</v>
-      </c>
-      <c r="O116">
-        <v>2.83</v>
+        <v>81</v>
+      </c>
+      <c r="O116" t="s">
+        <v>20</v>
       </c>
       <c r="P116">
+        <v>2.835</v>
+      </c>
+      <c r="Q116">
         <v>115</v>
       </c>
     </row>

--- a/output/Results - sem3 (Extended).xlsx
+++ b/output/Results - sem3 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="312">
   <si>
     <t>Rank</t>
   </si>
@@ -61,6 +61,9 @@
     <t>MA3014</t>
   </si>
   <si>
+    <t>EL2410</t>
+  </si>
+  <si>
     <t>SGPA</t>
   </si>
   <si>
@@ -502,6 +505,12 @@
     <t>RAHMAN M.F.A.</t>
   </si>
   <si>
+    <t>230013</t>
+  </si>
+  <si>
+    <t>ABEYWARNA D.H.</t>
+  </si>
+  <si>
     <t>230052</t>
   </si>
   <si>
@@ -532,12 +541,6 @@
     <t>LENMINI B.L.W.</t>
   </si>
   <si>
-    <t>230013</t>
-  </si>
-  <si>
-    <t>ABEYWARNA D.H.</t>
-  </si>
-  <si>
     <t>230654</t>
   </si>
   <si>
@@ -860,6 +863,9 @@
   </si>
   <si>
     <t>2(40.0%)</t>
+  </si>
+  <si>
+    <t>1(100.0%)</t>
   </si>
   <si>
     <t>4(20.0%)</t>
@@ -1275,13 +1281,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF116"/>
+  <dimension ref="A1:AH116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1333,100 +1339,106 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>4</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>5</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AH1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2">
         <v>4</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
       <c r="U2" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s">
         <v>259</v>
@@ -1461,64 +1473,70 @@
       <c r="AF2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3">
         <v>4</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="T3" t="s">
-        <v>21</v>
-      </c>
       <c r="U3" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="V3" t="s">
         <v>271</v>
@@ -1553,6422 +1571,6800 @@
       <c r="AF3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4">
         <v>4</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3</v>
       </c>
-      <c r="T4" t="s">
-        <v>30</v>
-      </c>
       <c r="U4" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Y4" t="s">
         <v>285</v>
       </c>
       <c r="Z4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AA4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AB4" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AC4" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="AD4" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AE4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AF4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+        <v>291</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
-      <c r="T5" t="s">
-        <v>66</v>
+      <c r="R5">
+        <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="V5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="W5" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="X5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y5" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="Z5" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="AA5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AB5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AD5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AE5" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="AF5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
+        <v>274</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6">
         <v>3.9739</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="T6" t="s">
-        <v>81</v>
-      </c>
       <c r="U6" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="W6" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="X6" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="Y6" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="Z6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AA6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AB6" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AC6" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="AD6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AE6" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AF6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
+        <v>293</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7">
         <v>3.9609</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>6</v>
       </c>
-      <c r="T7" t="s">
-        <v>128</v>
-      </c>
       <c r="U7" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="V7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="W7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="X7" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="Y7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="Z7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="AA7" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="AB7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD7" t="s">
         <v>297</v>
       </c>
-      <c r="AC7" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>299</v>
-      </c>
       <c r="AE7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
+        <v>302</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8">
         <v>3.9609</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>7</v>
       </c>
-      <c r="T8" t="s">
-        <v>135</v>
-      </c>
       <c r="U8" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="V8" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="W8" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="X8" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Y8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Z8" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="AA8" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="AB8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AC8" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="AD8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AE8" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="AF8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+        <v>269</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9">
+        <v>21</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9">
         <v>3.9609</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8</v>
       </c>
-      <c r="T9" t="s">
-        <v>230</v>
-      </c>
       <c r="U9" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="V9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AC9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD9" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="AE9" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="AF9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
+        <v>269</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10">
         <v>3.9609</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>9</v>
       </c>
-      <c r="T10" t="s">
-        <v>255</v>
-      </c>
       <c r="U10" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="V10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X10" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="Y10" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="Z10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AC10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD10" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="AE10" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="AF10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
+        <v>269</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11">
         <v>3.9609</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>10</v>
       </c>
-      <c r="T11" t="s">
-        <v>306</v>
-      </c>
       <c r="U11" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="V11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AC11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
+        <v>269</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12">
         <v>3.9609</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>11</v>
       </c>
-      <c r="T12" t="s">
-        <v>307</v>
-      </c>
       <c r="U12" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="V12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AC12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
+        <v>269</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13">
+        <v>21</v>
+      </c>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13">
         <v>3.9571</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>12</v>
       </c>
-      <c r="T13" t="s">
-        <v>308</v>
-      </c>
       <c r="U13" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="V13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AC13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
+        <v>269</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14">
+        <v>21</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14">
         <v>3.9571</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>13</v>
       </c>
-      <c r="T14" t="s">
-        <v>309</v>
-      </c>
       <c r="U14" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="V14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AC14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AD14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
+        <v>269</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15">
+        <v>21</v>
+      </c>
+      <c r="P15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15">
         <v>3.9571</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16">
+        <v>21</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16">
         <v>3.955</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17">
         <v>3.95</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18">
+        <v>21</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18">
         <v>3.9375</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19">
+        <v>21</v>
+      </c>
+      <c r="P19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19">
         <v>3.925</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20">
+        <v>3.925</v>
+      </c>
+      <c r="R20">
         <v>19</v>
       </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20">
-        <v>3.925</v>
-      </c>
-      <c r="Q20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21">
+        <v>21</v>
+      </c>
+      <c r="P21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21">
         <v>3.9217</v>
       </c>
-      <c r="Q21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22">
+        <v>21</v>
+      </c>
+      <c r="P22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22">
         <v>3.9217</v>
       </c>
-      <c r="Q22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23">
+        <v>21</v>
+      </c>
+      <c r="P23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23">
         <v>3.9</v>
       </c>
-      <c r="Q23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24">
+        <v>21</v>
+      </c>
+      <c r="P24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24">
         <v>3.9</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O25" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25">
+        <v>21</v>
+      </c>
+      <c r="P25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25">
         <v>3.9</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O26" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26">
+        <v>21</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26">
         <v>3.8957</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27">
+        <v>21</v>
+      </c>
+      <c r="P27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27">
         <v>3.895</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28">
+        <v>21</v>
+      </c>
+      <c r="P28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28">
         <v>3.8846</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O29" t="s">
-        <v>21</v>
-      </c>
-      <c r="P29">
+        <v>22</v>
+      </c>
+      <c r="P29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29">
         <v>3.8826</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O30" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30">
+        <v>21</v>
+      </c>
+      <c r="P30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30">
         <v>3.8739</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31" t="s">
-        <v>81</v>
-      </c>
       <c r="N31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="P31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31">
         <v>3.8739</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32">
         <v>3.8739</v>
       </c>
-      <c r="Q32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O33" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33">
+        <v>21</v>
+      </c>
+      <c r="P33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33">
         <v>3.8696</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O34" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34">
+        <v>21</v>
+      </c>
+      <c r="P34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34">
         <v>3.8625</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O35" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35">
+        <v>21</v>
+      </c>
+      <c r="P35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35">
         <v>3.85</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O36" t="s">
-        <v>19</v>
-      </c>
-      <c r="P36">
+        <v>20</v>
+      </c>
+      <c r="P36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36">
         <v>3.8478</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P37">
+        <v>21</v>
+      </c>
+      <c r="P37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37">
         <v>3.8478</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O38" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38">
+        <v>21</v>
+      </c>
+      <c r="P38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38">
         <v>3.8304</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39">
+        <v>21</v>
+      </c>
+      <c r="P39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39">
         <v>3.8304</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O40" t="s">
-        <v>20</v>
-      </c>
-      <c r="P40">
+        <v>21</v>
+      </c>
+      <c r="P40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40">
         <v>3.8269</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O41" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41">
+        <v>21</v>
+      </c>
+      <c r="P41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41">
         <v>3.8217</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O42" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42">
+        <v>21</v>
+      </c>
+      <c r="P42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42">
         <v>3.8043</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O43" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43">
+        <v>21</v>
+      </c>
+      <c r="P43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43">
         <v>3.8043</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O44" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44">
+        <v>21</v>
+      </c>
+      <c r="P44" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44">
         <v>3.7913</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O45" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45">
+        <v>21</v>
+      </c>
+      <c r="P45" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45">
         <v>3.79</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O46" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46">
+        <v>21</v>
+      </c>
+      <c r="P46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46">
         <v>3.78</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O47" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47">
+        <v>21</v>
+      </c>
+      <c r="P47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47">
         <v>3.7652</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O48" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48">
+        <v>21</v>
+      </c>
+      <c r="P48" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48">
         <v>3.7571</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O49" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49">
+        <v>21</v>
+      </c>
+      <c r="P49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49">
         <v>3.75</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O50" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50">
+        <v>21</v>
+      </c>
+      <c r="P50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50">
         <v>3.7391</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O51" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51">
+        <v>21</v>
+      </c>
+      <c r="P51" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51">
         <v>3.7304</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52">
+        <v>21</v>
+      </c>
+      <c r="P52" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52">
         <v>3.7217</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O53" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53">
+        <v>21</v>
+      </c>
+      <c r="P53" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q53">
         <v>3.7217</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O54" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54">
+        <v>21</v>
+      </c>
+      <c r="P54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q54">
         <v>3.7143</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O55" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55">
+        <v>21</v>
+      </c>
+      <c r="P55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55">
         <v>3.713</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O56" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56">
+        <v>21</v>
+      </c>
+      <c r="P56" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56">
         <v>3.713</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O57" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57">
+        <v>21</v>
+      </c>
+      <c r="P57" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57">
         <v>3.7043</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O58" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58">
+        <v>21</v>
+      </c>
+      <c r="P58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q58">
         <v>3.7043</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O59" t="s">
-        <v>21</v>
-      </c>
-      <c r="P59">
+        <v>22</v>
+      </c>
+      <c r="P59" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59">
         <v>3.7</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O60" t="s">
-        <v>20</v>
-      </c>
-      <c r="P60">
+        <v>21</v>
+      </c>
+      <c r="P60" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q60">
         <v>3.6913</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O61" t="s">
-        <v>20</v>
-      </c>
-      <c r="P61">
+        <v>21</v>
+      </c>
+      <c r="P61" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61">
         <v>3.6905</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O62" t="s">
-        <v>20</v>
-      </c>
-      <c r="P62">
+        <v>21</v>
+      </c>
+      <c r="P62" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62">
         <v>3.6783</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O63" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63">
+        <v>21</v>
+      </c>
+      <c r="P63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63">
         <v>3.6783</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O64" t="s">
-        <v>20</v>
-      </c>
-      <c r="P64">
+        <v>21</v>
+      </c>
+      <c r="P64" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64">
         <v>3.6739</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O65" t="s">
-        <v>20</v>
-      </c>
-      <c r="P65">
+        <v>21</v>
+      </c>
+      <c r="P65" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65">
         <v>3.6714</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O66" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66">
+        <v>21</v>
+      </c>
+      <c r="P66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66">
         <v>3.6652</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K67" t="s">
+        <v>67</v>
+      </c>
+      <c r="L67" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" t="s">
+        <v>136</v>
+      </c>
+      <c r="N67" t="s">
+        <v>67</v>
+      </c>
+      <c r="O67" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67">
+        <v>3.6609</v>
+      </c>
+      <c r="R67">
         <v>66</v>
       </c>
-      <c r="L67" t="s">
-        <v>19</v>
-      </c>
-      <c r="M67" t="s">
-        <v>135</v>
-      </c>
-      <c r="N67" t="s">
-        <v>66</v>
-      </c>
-      <c r="O67" t="s">
-        <v>20</v>
-      </c>
-      <c r="P67">
-        <v>3.6609</v>
-      </c>
-      <c r="Q67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O68" t="s">
-        <v>20</v>
-      </c>
-      <c r="P68">
+        <v>21</v>
+      </c>
+      <c r="P68" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68">
         <v>3.6522</v>
       </c>
-      <c r="Q68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O69" t="s">
-        <v>20</v>
-      </c>
-      <c r="P69">
+        <v>21</v>
+      </c>
+      <c r="P69" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q69">
         <v>3.645</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H70" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
         <v>20</v>
       </c>
       <c r="J70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="L70" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M70" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="N70" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O70" t="s">
-        <v>20</v>
-      </c>
-      <c r="P70">
-        <v>3.63</v>
+        <v>21</v>
+      </c>
+      <c r="P70" t="s">
+        <v>22</v>
       </c>
       <c r="Q70">
+        <v>3.6385</v>
+      </c>
+      <c r="R70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K71" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="L71" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M71" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="N71" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="O71" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71">
-        <v>3.619</v>
+        <v>21</v>
+      </c>
+      <c r="P71" t="s">
+        <v>21</v>
       </c>
       <c r="Q71">
+        <v>3.63</v>
+      </c>
+      <c r="R71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
         <v>21</v>
       </c>
       <c r="G72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K72" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="L72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M72" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="O72" t="s">
-        <v>20</v>
-      </c>
-      <c r="P72">
-        <v>3.613</v>
+        <v>21</v>
+      </c>
+      <c r="P72" t="s">
+        <v>21</v>
       </c>
       <c r="Q72">
+        <v>3.619</v>
+      </c>
+      <c r="R72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I73" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N73" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="O73" t="s">
-        <v>20</v>
-      </c>
-      <c r="P73">
+        <v>21</v>
+      </c>
+      <c r="P73" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73">
+        <v>3.613</v>
+      </c>
+      <c r="R73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" t="s">
+        <v>82</v>
+      </c>
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" t="s">
+        <v>82</v>
+      </c>
+      <c r="N74" t="s">
+        <v>54</v>
+      </c>
+      <c r="O74" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q74">
         <v>3.6</v>
       </c>
-      <c r="Q73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" t="s">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" t="s">
-        <v>30</v>
-      </c>
-      <c r="J74" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" t="s">
-        <v>30</v>
-      </c>
-      <c r="L74" t="s">
-        <v>21</v>
-      </c>
-      <c r="M74" t="s">
-        <v>66</v>
-      </c>
-      <c r="N74" t="s">
-        <v>30</v>
-      </c>
-      <c r="O74" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74">
+      <c r="R74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" t="s">
+        <v>67</v>
+      </c>
+      <c r="N75" t="s">
+        <v>31</v>
+      </c>
+      <c r="O75" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q75">
         <v>3.6</v>
       </c>
-      <c r="Q74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75">
+      <c r="R75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>172</v>
-      </c>
-      <c r="C75" t="s">
-        <v>173</v>
-      </c>
-      <c r="D75" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>66</v>
-      </c>
-      <c r="H75" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" t="s">
-        <v>81</v>
-      </c>
-      <c r="L75" t="s">
-        <v>30</v>
-      </c>
-      <c r="M75" t="s">
-        <v>128</v>
-      </c>
-      <c r="N75" t="s">
-        <v>21</v>
-      </c>
-      <c r="O75" t="s">
-        <v>20</v>
-      </c>
-      <c r="P75">
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s">
+        <v>31</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>82</v>
+      </c>
+      <c r="L76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76" t="s">
+        <v>129</v>
+      </c>
+      <c r="N76" t="s">
+        <v>31</v>
+      </c>
+      <c r="O76" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76">
         <v>3.5913</v>
       </c>
-      <c r="Q75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>174</v>
-      </c>
-      <c r="C76" t="s">
-        <v>175</v>
-      </c>
-      <c r="D76" t="s">
-        <v>20</v>
-      </c>
-      <c r="E76" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>30</v>
-      </c>
-      <c r="H76" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" t="s">
-        <v>30</v>
-      </c>
-      <c r="J76" t="s">
-        <v>20</v>
-      </c>
-      <c r="K76" t="s">
-        <v>81</v>
-      </c>
-      <c r="L76" t="s">
-        <v>21</v>
-      </c>
-      <c r="M76" t="s">
-        <v>128</v>
-      </c>
-      <c r="N76" t="s">
-        <v>30</v>
-      </c>
-      <c r="O76" t="s">
-        <v>20</v>
-      </c>
-      <c r="P76">
-        <v>3.5913</v>
-      </c>
-      <c r="Q76">
+      <c r="R76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O77" t="s">
-        <v>20</v>
-      </c>
-      <c r="P77">
+        <v>21</v>
+      </c>
+      <c r="P77" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77">
         <v>3.587</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O78" t="s">
-        <v>20</v>
-      </c>
-      <c r="P78">
+        <v>21</v>
+      </c>
+      <c r="P78" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q78">
         <v>3.587</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O79" t="s">
-        <v>20</v>
-      </c>
-      <c r="P79">
+        <v>21</v>
+      </c>
+      <c r="P79" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q79">
         <v>3.5609</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O80" t="s">
-        <v>20</v>
-      </c>
-      <c r="P80">
+        <v>21</v>
+      </c>
+      <c r="P80" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q80">
         <v>3.5583</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O81" t="s">
-        <v>20</v>
-      </c>
-      <c r="P81">
+        <v>21</v>
+      </c>
+      <c r="P81" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q81">
         <v>3.5471</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O82" t="s">
-        <v>20</v>
-      </c>
-      <c r="P82">
+        <v>21</v>
+      </c>
+      <c r="P82" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q82">
         <v>3.5435</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O83" t="s">
-        <v>20</v>
-      </c>
-      <c r="P83">
+        <v>21</v>
+      </c>
+      <c r="P83" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q83">
         <v>3.5435</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O84" t="s">
-        <v>20</v>
-      </c>
-      <c r="P84">
+        <v>21</v>
+      </c>
+      <c r="P84" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q84">
         <v>3.54</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O85" t="s">
-        <v>20</v>
-      </c>
-      <c r="P85">
+        <v>21</v>
+      </c>
+      <c r="P85" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q85">
         <v>3.5261</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N86" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O86" t="s">
-        <v>20</v>
-      </c>
-      <c r="P86">
+        <v>21</v>
+      </c>
+      <c r="P86" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q86">
         <v>3.5087</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O87" t="s">
-        <v>20</v>
-      </c>
-      <c r="P87">
+        <v>21</v>
+      </c>
+      <c r="P87" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q87">
         <v>3.5</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M88" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O88" t="s">
-        <v>20</v>
-      </c>
-      <c r="P88">
+        <v>21</v>
+      </c>
+      <c r="P88" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q88">
         <v>3.4957</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M89" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O89" t="s">
-        <v>20</v>
-      </c>
-      <c r="P89">
+        <v>21</v>
+      </c>
+      <c r="P89" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q89">
         <v>3.495</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O90" t="s">
-        <v>20</v>
-      </c>
-      <c r="P90">
+        <v>21</v>
+      </c>
+      <c r="P90" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q90">
         <v>3.48</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O91" t="s">
-        <v>20</v>
-      </c>
-      <c r="P91">
+        <v>21</v>
+      </c>
+      <c r="P91" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q91">
         <v>3.4696</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O92" t="s">
-        <v>20</v>
-      </c>
-      <c r="P92">
+        <v>21</v>
+      </c>
+      <c r="P92" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q92">
         <v>3.4652</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M93" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O93" t="s">
-        <v>20</v>
-      </c>
-      <c r="P93">
+        <v>21</v>
+      </c>
+      <c r="P93" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q93">
         <v>3.4609</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M94" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O94" t="s">
-        <v>20</v>
-      </c>
-      <c r="P94">
+        <v>21</v>
+      </c>
+      <c r="P94" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q94">
         <v>3.455</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G95" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O95" t="s">
-        <v>20</v>
-      </c>
-      <c r="P95">
+        <v>21</v>
+      </c>
+      <c r="P95" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q95">
         <v>3.4476</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O96" t="s">
-        <v>20</v>
-      </c>
-      <c r="P96">
+        <v>21</v>
+      </c>
+      <c r="P96" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q96">
         <v>3.4435</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O97" t="s">
-        <v>20</v>
-      </c>
-      <c r="P97">
+        <v>21</v>
+      </c>
+      <c r="P97" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q97">
         <v>3.4417</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O98" t="s">
-        <v>20</v>
-      </c>
-      <c r="P98">
+        <v>21</v>
+      </c>
+      <c r="P98" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q98">
         <v>3.425</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N99" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O99" t="s">
-        <v>20</v>
-      </c>
-      <c r="P99">
+        <v>21</v>
+      </c>
+      <c r="P99" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q99">
         <v>3.4174</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M100" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O100" t="s">
-        <v>20</v>
-      </c>
-      <c r="P100">
+        <v>21</v>
+      </c>
+      <c r="P100" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q100">
         <v>3.4043</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O101" t="s">
-        <v>20</v>
-      </c>
-      <c r="P101">
+        <v>21</v>
+      </c>
+      <c r="P101" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q101">
         <v>3.4</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G102" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O102" t="s">
-        <v>20</v>
-      </c>
-      <c r="P102">
+        <v>21</v>
+      </c>
+      <c r="P102" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q102">
         <v>3.4</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N103" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O103" t="s">
-        <v>20</v>
-      </c>
-      <c r="P103">
+        <v>21</v>
+      </c>
+      <c r="P103" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q103">
         <v>3.3739</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O104" t="s">
-        <v>20</v>
-      </c>
-      <c r="P104">
+        <v>21</v>
+      </c>
+      <c r="P104" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q104">
         <v>3.3478</v>
       </c>
-      <c r="Q104">
+      <c r="R104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I105" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M105" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O105" t="s">
-        <v>20</v>
-      </c>
-      <c r="P105">
+        <v>21</v>
+      </c>
+      <c r="P105" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q105">
         <v>3.3391</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G106" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N106" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O106" t="s">
-        <v>20</v>
-      </c>
-      <c r="P106">
+        <v>21</v>
+      </c>
+      <c r="P106" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q106">
         <v>3.3348</v>
       </c>
-      <c r="Q106">
+      <c r="R106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M107" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N107" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O107" t="s">
-        <v>20</v>
-      </c>
-      <c r="P107">
+        <v>21</v>
+      </c>
+      <c r="P107" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q107">
         <v>3.3348</v>
       </c>
-      <c r="Q107">
+      <c r="R107">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N108" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O108" t="s">
-        <v>20</v>
-      </c>
-      <c r="P108">
+        <v>21</v>
+      </c>
+      <c r="P108" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q108">
         <v>3.3043</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G109" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K109" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M109" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O109" t="s">
-        <v>20</v>
-      </c>
-      <c r="P109">
+        <v>21</v>
+      </c>
+      <c r="P109" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q109">
         <v>3.2529</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G110" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P110">
+        <v>21</v>
+      </c>
+      <c r="P110" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q110">
         <v>3.25</v>
       </c>
-      <c r="Q110">
+      <c r="R110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M111" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O111" t="s">
-        <v>20</v>
-      </c>
-      <c r="P111">
+        <v>21</v>
+      </c>
+      <c r="P111" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q111">
         <v>3.2391</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J112" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K112" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L112" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M112" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N112" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O112" t="s">
-        <v>20</v>
-      </c>
-      <c r="P112">
+        <v>21</v>
+      </c>
+      <c r="P112" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q112">
         <v>3.2217</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E113" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G113" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M113" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N113" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O113" t="s">
-        <v>20</v>
-      </c>
-      <c r="P113">
+        <v>21</v>
+      </c>
+      <c r="P113" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q113">
         <v>3.2217</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K114" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O114" t="s">
-        <v>20</v>
-      </c>
-      <c r="P114">
+        <v>21</v>
+      </c>
+      <c r="P114" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q114">
         <v>3.1706</v>
       </c>
-      <c r="Q114">
+      <c r="R114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C115" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O115" t="s">
-        <v>20</v>
-      </c>
-      <c r="P115">
+        <v>21</v>
+      </c>
+      <c r="P115" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q115">
         <v>3.0957</v>
       </c>
-      <c r="Q115">
+      <c r="R115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
         <v>256</v>
       </c>
-      <c r="C116" t="s">
-        <v>257</v>
-      </c>
-      <c r="D116" t="s">
-        <v>30</v>
-      </c>
-      <c r="E116" t="s">
-        <v>128</v>
-      </c>
-      <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>255</v>
-      </c>
       <c r="H116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K116" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O116" t="s">
-        <v>20</v>
-      </c>
-      <c r="P116">
+        <v>21</v>
+      </c>
+      <c r="P116" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q116">
         <v>2.835</v>
       </c>
-      <c r="Q116">
+      <c r="R116">
         <v>115</v>
       </c>
     </row>

--- a/output/Results - sem3 (Extended).xlsx
+++ b/output/Results - sem3 (Extended).xlsx
@@ -289,6 +289,12 @@
     <t>KARUNARATHNA G.K.T.</t>
   </si>
   <si>
+    <t>230486</t>
+  </si>
+  <si>
+    <t>PERERA U.I.H.</t>
+  </si>
+  <si>
     <t>230065</t>
   </si>
   <si>
@@ -319,12 +325,6 @@
     <t>WEDAMESTRIGE A.N.</t>
   </si>
   <si>
-    <t>230486</t>
-  </si>
-  <si>
-    <t>PERERA U.I.H.</t>
-  </si>
-  <si>
     <t>230212</t>
   </si>
   <si>
@@ -361,6 +361,12 @@
     <t>GUNATHUNGA U.A.</t>
   </si>
   <si>
+    <t>230180</t>
+  </si>
+  <si>
+    <t>FERNANDO H.M.D.</t>
+  </si>
+  <si>
     <t>230327</t>
   </si>
   <si>
@@ -379,12 +385,6 @@
     <t>HENDENIYA H.M.J.C.</t>
   </si>
   <si>
-    <t>230180</t>
-  </si>
-  <si>
-    <t>FERNANDO H.M.D.</t>
-  </si>
-  <si>
     <t>230321</t>
   </si>
   <si>
@@ -517,6 +517,12 @@
     <t>ARACHCHIGE M. A. D. T. S.</t>
   </si>
   <si>
+    <t>230164</t>
+  </si>
+  <si>
+    <t>DISSANAYAKE R.K.T.</t>
+  </si>
+  <si>
     <t>230077</t>
   </si>
   <si>
@@ -553,12 +559,6 @@
     <t>PRIYADARSHANA S.A.D.</t>
   </si>
   <si>
-    <t>230164</t>
-  </si>
-  <si>
-    <t>DISSANAYAKE R.K.T.</t>
-  </si>
-  <si>
     <t>230063</t>
   </si>
   <si>
@@ -742,6 +742,12 @@
     <t>SAMARANAYAKA H.D.J.D.</t>
   </si>
   <si>
+    <t>230636</t>
+  </si>
+  <si>
+    <t>THARUSHIKA G.K.E.</t>
+  </si>
+  <si>
     <t>230183</t>
   </si>
   <si>
@@ -754,12 +760,6 @@
     <t>GUNARATHNA K.T.M.B.</t>
   </si>
   <si>
-    <t>230636</t>
-  </si>
-  <si>
-    <t>THARUSHIKA G.K.E.</t>
-  </si>
-  <si>
     <t>230224</t>
   </si>
   <si>
@@ -835,7 +835,7 @@
     <t>36(31.3%)</t>
   </si>
   <si>
-    <t>63(63.0%)</t>
+    <t>67(67.0%)</t>
   </si>
   <si>
     <t>22(19.1%)</t>
@@ -874,7 +874,7 @@
     <t>21(18.3%)</t>
   </si>
   <si>
-    <t>12(12.0%)</t>
+    <t>8(8.0%)</t>
   </si>
   <si>
     <t>7(6.1%)</t>
@@ -3787,13 +3787,13 @@
         <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
         <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
         <v>67</v>
@@ -3811,13 +3811,13 @@
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N35" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="O35" t="s">
         <v>21</v>
@@ -3826,7 +3826,7 @@
         <v>21</v>
       </c>
       <c r="Q35">
-        <v>3.85</v>
+        <v>3.8615</v>
       </c>
       <c r="R35">
         <v>34</v>
@@ -3846,43 +3846,43 @@
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
         <v>67</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
         <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N36" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="O36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P36" t="s">
         <v>21</v>
       </c>
       <c r="Q36">
-        <v>3.8478</v>
+        <v>3.85</v>
       </c>
       <c r="R36">
         <v>35</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>95</v>
@@ -3908,31 +3908,31 @@
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="L37" t="s">
         <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P37" t="s">
         <v>21</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>97</v>
@@ -3958,7 +3958,7 @@
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -3970,19 +3970,19 @@
         <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L38" t="s">
         <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="N38" t="s">
         <v>31</v>
@@ -3994,7 +3994,7 @@
         <v>21</v>
       </c>
       <c r="Q38">
-        <v>3.8304</v>
+        <v>3.8478</v>
       </c>
       <c r="R38">
         <v>37</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>99</v>
@@ -4014,34 +4014,34 @@
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L39" t="s">
         <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N39" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="O39" t="s">
         <v>21</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>101</v>
@@ -4067,25 +4067,25 @@
         <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
@@ -4094,10 +4094,10 @@
         <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N40" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="O40" t="s">
         <v>21</v>
@@ -4106,7 +4106,7 @@
         <v>21</v>
       </c>
       <c r="Q40">
-        <v>3.8269</v>
+        <v>3.8304</v>
       </c>
       <c r="R40">
         <v>39</v>
@@ -4462,7 +4462,7 @@
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -4480,7 +4480,7 @@
         <v>67</v>
       </c>
       <c r="K47" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L47" t="s">
         <v>20</v>
@@ -4498,7 +4498,7 @@
         <v>21</v>
       </c>
       <c r="Q47">
-        <v>3.7652</v>
+        <v>3.7783</v>
       </c>
       <c r="R47">
         <v>46</v>
@@ -4515,16 +4515,16 @@
         <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
@@ -4533,19 +4533,19 @@
         <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="K48" t="s">
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N48" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O48" t="s">
         <v>21</v>
@@ -4554,7 +4554,7 @@
         <v>21</v>
       </c>
       <c r="Q48">
-        <v>3.7571</v>
+        <v>3.7652</v>
       </c>
       <c r="R48">
         <v>47</v>
@@ -4574,13 +4574,13 @@
         <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
         <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H49" t="s">
         <v>22</v>
@@ -4589,10 +4589,10 @@
         <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
@@ -4601,7 +4601,7 @@
         <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="O49" t="s">
         <v>21</v>
@@ -4610,7 +4610,7 @@
         <v>21</v>
       </c>
       <c r="Q49">
-        <v>3.75</v>
+        <v>3.7571</v>
       </c>
       <c r="R49">
         <v>48</v>
@@ -4627,16 +4627,16 @@
         <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s">
         <v>22</v>
@@ -4645,16 +4645,16 @@
         <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K50" t="s">
         <v>31</v>
       </c>
       <c r="L50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M50" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N50" t="s">
         <v>31</v>
@@ -4666,7 +4666,7 @@
         <v>21</v>
       </c>
       <c r="Q50">
-        <v>3.7391</v>
+        <v>3.75</v>
       </c>
       <c r="R50">
         <v>49</v>
@@ -5859,38 +5859,38 @@
         <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" t="s">
         <v>82</v>
       </c>
-      <c r="H72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" t="s">
+      <c r="N72" t="s">
         <v>82</v>
       </c>
-      <c r="L72" t="s">
-        <v>20</v>
-      </c>
-      <c r="M72" t="s">
-        <v>21</v>
-      </c>
-      <c r="N72" t="s">
-        <v>67</v>
-      </c>
       <c r="O72" t="s">
         <v>21</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>21</v>
       </c>
       <c r="Q72">
-        <v>3.619</v>
+        <v>3.6261</v>
       </c>
       <c r="R72">
         <v>71</v>
@@ -5915,37 +5915,37 @@
         <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
         <v>82</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
         <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="L73" t="s">
         <v>20</v>
       </c>
       <c r="M73" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="O73" t="s">
         <v>21</v>
@@ -5954,7 +5954,7 @@
         <v>21</v>
       </c>
       <c r="Q73">
-        <v>3.613</v>
+        <v>3.619</v>
       </c>
       <c r="R73">
         <v>72</v>
@@ -5974,25 +5974,25 @@
         <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s">
         <v>22</v>
       </c>
       <c r="I74" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L74" t="s">
         <v>20</v>
@@ -6001,7 +6001,7 @@
         <v>82</v>
       </c>
       <c r="N74" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="O74" t="s">
         <v>21</v>
@@ -6010,7 +6010,7 @@
         <v>21</v>
       </c>
       <c r="Q74">
-        <v>3.6</v>
+        <v>3.613</v>
       </c>
       <c r="R74">
         <v>73</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>173</v>
@@ -6030,34 +6030,34 @@
         <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" t="s">
         <v>82</v>
       </c>
-      <c r="H75" t="s">
-        <v>31</v>
-      </c>
-      <c r="I75" t="s">
-        <v>31</v>
-      </c>
       <c r="J75" t="s">
         <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M75" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="N75" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="O75" t="s">
         <v>21</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>175</v>
@@ -6086,16 +6086,16 @@
         <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I76" t="s">
         <v>31</v>
@@ -6104,13 +6104,13 @@
         <v>21</v>
       </c>
       <c r="K76" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
       </c>
       <c r="M76" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="N76" t="s">
         <v>31</v>
@@ -6122,7 +6122,7 @@
         <v>21</v>
       </c>
       <c r="Q76">
-        <v>3.5913</v>
+        <v>3.6</v>
       </c>
       <c r="R76">
         <v>75</v>
@@ -6142,34 +6142,34 @@
         <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J77" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="L77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M77" t="s">
         <v>129</v>
       </c>
       <c r="N77" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="O77" t="s">
         <v>21</v>
@@ -6178,7 +6178,7 @@
         <v>21</v>
       </c>
       <c r="Q77">
-        <v>3.587</v>
+        <v>3.5913</v>
       </c>
       <c r="R77">
         <v>76</v>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>179</v>
@@ -6198,7 +6198,7 @@
         <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
         <v>31</v>
@@ -6207,25 +6207,25 @@
         <v>67</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K78" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L78" t="s">
         <v>20</v>
       </c>
       <c r="M78" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="N78" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="O78" t="s">
         <v>21</v>
@@ -7934,10 +7934,10 @@
         <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F109" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G109" t="s">
         <v>136</v>
@@ -7946,22 +7946,22 @@
         <v>22</v>
       </c>
       <c r="I109" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="J109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K109" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="L109" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M109" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N109" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O109" t="s">
         <v>21</v>
@@ -7970,7 +7970,7 @@
         <v>21</v>
       </c>
       <c r="Q109">
-        <v>3.2529</v>
+        <v>3.2783</v>
       </c>
       <c r="R109">
         <v>108</v>
@@ -7993,28 +7993,28 @@
         <v>82</v>
       </c>
       <c r="F110" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G110" t="s">
         <v>136</v>
       </c>
       <c r="H110" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I110" t="s">
         <v>21</v>
       </c>
       <c r="J110" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="K110" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="L110" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M110" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="N110" t="s">
         <v>54</v>
@@ -8026,7 +8026,7 @@
         <v>21</v>
       </c>
       <c r="Q110">
-        <v>3.25</v>
+        <v>3.2529</v>
       </c>
       <c r="R110">
         <v>109</v>
@@ -8046,34 +8046,34 @@
         <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G111" t="s">
         <v>136</v>
       </c>
       <c r="H111" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I111" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J111" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="K111" t="s">
         <v>31</v>
       </c>
       <c r="L111" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M111" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="N111" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="O111" t="s">
         <v>21</v>
@@ -8082,7 +8082,7 @@
         <v>21</v>
       </c>
       <c r="Q111">
-        <v>3.2391</v>
+        <v>3.25</v>
       </c>
       <c r="R111">
         <v>110</v>

--- a/output/Results - sem3 (Extended).xlsx
+++ b/output/Results - sem3 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="313">
   <si>
     <t>Rank</t>
   </si>
@@ -172,6 +172,492 @@
     <t>COLOMBAGE D.M.</t>
   </si>
   <si>
+    <t>230469</t>
+  </si>
+  <si>
+    <t>PEIRIS E.A.S.S.</t>
+  </si>
+  <si>
+    <t>230256</t>
+  </si>
+  <si>
+    <t>ILANKOON I.M.M.K.B.</t>
+  </si>
+  <si>
+    <t>230318</t>
+  </si>
+  <si>
+    <t>KARIYAWASAM J.H.D.</t>
+  </si>
+  <si>
+    <t>230544</t>
+  </si>
+  <si>
+    <t>RATHNAYAKE M.A.G.K.N.</t>
+  </si>
+  <si>
+    <t>230121</t>
+  </si>
+  <si>
+    <t>DE MEL D.J.</t>
+  </si>
+  <si>
+    <t>230680</t>
+  </si>
+  <si>
+    <t>WANIGASUNDARA W.M.H.</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>230355</t>
+  </si>
+  <si>
+    <t>KUMARASINGHE M.N.</t>
+  </si>
+  <si>
+    <t>230197</t>
+  </si>
+  <si>
+    <t>GARUSINGHE S.B.</t>
+  </si>
+  <si>
+    <t>230468</t>
+  </si>
+  <si>
+    <t>PATHIRANA P.T.S.</t>
+  </si>
+  <si>
+    <t>230159</t>
+  </si>
+  <si>
+    <t>DISSANAYAKE G.R.G.K.</t>
+  </si>
+  <si>
+    <t>230566</t>
+  </si>
+  <si>
+    <t>SAMARASINGHE S.M.R.R.</t>
+  </si>
+  <si>
+    <t>230508</t>
+  </si>
+  <si>
+    <t>RAHUL B.</t>
+  </si>
+  <si>
+    <t>230140</t>
+  </si>
+  <si>
+    <t>DHARMAKEERTHI P.K.G.C.L.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>230477</t>
+  </si>
+  <si>
+    <t>PERERA H.A.J.I.</t>
+  </si>
+  <si>
+    <t>230390</t>
+  </si>
+  <si>
+    <t>MALDENIYA P.A.D.G.R.</t>
+  </si>
+  <si>
+    <t>230186</t>
+  </si>
+  <si>
+    <t>FERNANDO W.H.D.</t>
+  </si>
+  <si>
+    <t>230322</t>
+  </si>
+  <si>
+    <t>KARUNARATHNA G.K.T.</t>
+  </si>
+  <si>
+    <t>230486</t>
+  </si>
+  <si>
+    <t>PERERA U.I.H.</t>
+  </si>
+  <si>
+    <t>230724</t>
+  </si>
+  <si>
+    <t>WIJESEKARA W.A.G.S.</t>
+  </si>
+  <si>
+    <t>230536</t>
+  </si>
+  <si>
+    <t>RASANJANA W.P.G.R.A.</t>
+  </si>
+  <si>
+    <t>230051</t>
+  </si>
+  <si>
+    <t>ARACHCHI A.D.I.D.</t>
+  </si>
+  <si>
+    <t>230687</t>
+  </si>
+  <si>
+    <t>WEDAMESTRIGE A.N.</t>
+  </si>
+  <si>
+    <t>230212</t>
+  </si>
+  <si>
+    <t>GUNASEKARA L.U.A.</t>
+  </si>
+  <si>
+    <t>230659</t>
+  </si>
+  <si>
+    <t>UPEKSHANI T.S.</t>
+  </si>
+  <si>
+    <t>230417</t>
+  </si>
+  <si>
+    <t>MUNASINGHE A.I.</t>
+  </si>
+  <si>
+    <t>230521</t>
+  </si>
+  <si>
+    <t>RANASINGHE D.P.H.</t>
+  </si>
+  <si>
+    <t>230332</t>
+  </si>
+  <si>
+    <t>KEERAWELLA K.P.C.P.</t>
+  </si>
+  <si>
+    <t>230218</t>
+  </si>
+  <si>
+    <t>GUNATHUNGA U.A.</t>
+  </si>
+  <si>
+    <t>230180</t>
+  </si>
+  <si>
+    <t>FERNANDO H.M.D.</t>
+  </si>
+  <si>
+    <t>230327</t>
+  </si>
+  <si>
+    <t>KAUSHALYA R.G.S.P.</t>
+  </si>
+  <si>
+    <t>230444</t>
+  </si>
+  <si>
+    <t>NIRMANI W.T.</t>
+  </si>
+  <si>
+    <t>230321</t>
+  </si>
+  <si>
+    <t>KARUNANAYAKE A.H.D.</t>
+  </si>
+  <si>
+    <t>230100</t>
+  </si>
+  <si>
+    <t>CHANDRAKUMARA H.A.D.C.</t>
+  </si>
+  <si>
+    <t>230211</t>
+  </si>
+  <si>
+    <t>GUNASEKARA K.S.</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>230130</t>
+  </si>
+  <si>
+    <t>DESHAN W.U.</t>
+  </si>
+  <si>
+    <t>230300</t>
+  </si>
+  <si>
+    <t>JAYAWEERA N.S.</t>
+  </si>
+  <si>
+    <t>230058</t>
+  </si>
+  <si>
+    <t>AROSHANA H.A.P.</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>230045</t>
+  </si>
+  <si>
+    <t>ANTHONY C.S.B.</t>
+  </si>
+  <si>
+    <t>230145</t>
+  </si>
+  <si>
+    <t>DILHAN W.A.</t>
+  </si>
+  <si>
+    <t>230613</t>
+  </si>
+  <si>
+    <t>SHEHAN M.N.N.</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
+    <t>AMARATHUNGE A.M.N.L.</t>
+  </si>
+  <si>
+    <t>230492</t>
+  </si>
+  <si>
+    <t>PITIWADUGE D.N.</t>
+  </si>
+  <si>
+    <t>230500</t>
+  </si>
+  <si>
+    <t>PRISHMIKA H.W.N.</t>
+  </si>
+  <si>
+    <t>230195</t>
+  </si>
+  <si>
+    <t>GAMAGE SK</t>
+  </si>
+  <si>
+    <t>230629</t>
+  </si>
+  <si>
+    <t>TENNAKOON U.G.R.B.</t>
+  </si>
+  <si>
+    <t>230697</t>
+  </si>
+  <si>
+    <t>WEERASINGHE J.A.H.R.</t>
+  </si>
+  <si>
+    <t>230070</t>
+  </si>
+  <si>
+    <t>BALASOORIYA B.R.B.D.</t>
+  </si>
+  <si>
+    <t>230726</t>
+  </si>
+  <si>
+    <t>WIJESINGHE U.G.S.K.D.</t>
+  </si>
+  <si>
+    <t>230539</t>
+  </si>
+  <si>
+    <t>RATHEESHAN A.R.</t>
+  </si>
+  <si>
+    <t>230507</t>
+  </si>
+  <si>
+    <t>RAHMAN M.F.A.</t>
+  </si>
+  <si>
+    <t>230013</t>
+  </si>
+  <si>
+    <t>ABEYWARNA D.H.</t>
+  </si>
+  <si>
+    <t>230052</t>
+  </si>
+  <si>
+    <t>ARACHCHIGE M. A. D. T. S.</t>
+  </si>
+  <si>
+    <t>230164</t>
+  </si>
+  <si>
+    <t>DISSANAYAKE R.K.T.</t>
+  </si>
+  <si>
+    <t>230077</t>
+  </si>
+  <si>
+    <t>BANDARA K.M.N.D.</t>
+  </si>
+  <si>
+    <t>230353</t>
+  </si>
+  <si>
+    <t>KUMARA P.K.M.P.</t>
+  </si>
+  <si>
+    <t>230375</t>
+  </si>
+  <si>
+    <t>LENMINI B.L.W.</t>
+  </si>
+  <si>
+    <t>230654</t>
+  </si>
+  <si>
+    <t>UMAIR A.</t>
+  </si>
+  <si>
+    <t>230502</t>
+  </si>
+  <si>
+    <t>PRIYADARSHANA S.A.D.</t>
+  </si>
+  <si>
+    <t>230063</t>
+  </si>
+  <si>
+    <t>ATHUKORALA U.R.</t>
+  </si>
+  <si>
+    <t>230012</t>
+  </si>
+  <si>
+    <t>ABEYWARDHANA T.C.W.</t>
+  </si>
+  <si>
+    <t>230585</t>
+  </si>
+  <si>
+    <t>SARUKA U.</t>
+  </si>
+  <si>
+    <t>230248</t>
+  </si>
+  <si>
+    <t>HIMASARA W.V.M.J.</t>
+  </si>
+  <si>
+    <t>230727</t>
+  </si>
+  <si>
+    <t>WIJESINGHE W.A.P.W.</t>
+  </si>
+  <si>
+    <t>230470</t>
+  </si>
+  <si>
+    <t>PEIRIS T.S.R.</t>
+  </si>
+  <si>
+    <t>230147</t>
+  </si>
+  <si>
+    <t>DILHARA D.S.</t>
+  </si>
+  <si>
+    <t>230525</t>
+  </si>
+  <si>
+    <t>RANATHUNGA R.J.K.O.H.</t>
+  </si>
+  <si>
+    <t>230526</t>
+  </si>
+  <si>
+    <t>RANAWAKA R.A.C.D.</t>
+  </si>
+  <si>
+    <t>230016</t>
+  </si>
+  <si>
+    <t>ABISHEK L.</t>
+  </si>
+  <si>
+    <t>230407</t>
+  </si>
+  <si>
+    <t>MEEDENIYA M.M.H.</t>
+  </si>
+  <si>
+    <t>230458</t>
+  </si>
+  <si>
+    <t>PALIHENA H.H.</t>
+  </si>
+  <si>
+    <t>230208</t>
+  </si>
+  <si>
+    <t>GUNASEKARA H.M.</t>
+  </si>
+  <si>
+    <t>230259</t>
+  </si>
+  <si>
+    <t>IMBULPITIYA B.N.</t>
+  </si>
+  <si>
+    <t>230473</t>
+  </si>
+  <si>
+    <t>PERAMUNAGE D.S.</t>
+  </si>
+  <si>
+    <t>230017</t>
+  </si>
+  <si>
+    <t>ADHIKARI A.H.C.S.</t>
+  </si>
+  <si>
+    <t>230261</t>
+  </si>
+  <si>
+    <t>INDUWARA M.L.A.S.</t>
+  </si>
+  <si>
+    <t>230495</t>
+  </si>
+  <si>
+    <t>PRABHARSHA H.W.D.</t>
+  </si>
+  <si>
+    <t>230175</t>
+  </si>
+  <si>
+    <t>ERANGA W.A.O.</t>
+  </si>
+  <si>
+    <t>230229</t>
+  </si>
+  <si>
+    <t>HANSINDU M.M.A.D.</t>
+  </si>
+  <si>
+    <t>230735</t>
+  </si>
+  <si>
+    <t>WITHANAGE G.D.N.</t>
+  </si>
+  <si>
     <t>230689</t>
   </si>
   <si>
@@ -181,118 +667,13 @@
     <t>I-we</t>
   </si>
   <si>
-    <t>230469</t>
-  </si>
-  <si>
-    <t>PEIRIS E.A.S.S.</t>
-  </si>
-  <si>
-    <t>230318</t>
-  </si>
-  <si>
-    <t>KARIYAWASAM J.H.D.</t>
-  </si>
-  <si>
-    <t>230256</t>
-  </si>
-  <si>
-    <t>ILANKOON I.M.M.K.B.</t>
-  </si>
-  <si>
-    <t>230544</t>
-  </si>
-  <si>
-    <t>RATHNAYAKE M.A.G.K.N.</t>
-  </si>
-  <si>
-    <t>230121</t>
-  </si>
-  <si>
-    <t>DE MEL D.J.</t>
-  </si>
-  <si>
-    <t>230680</t>
-  </si>
-  <si>
-    <t>WANIGASUNDARA W.M.H.</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>230355</t>
-  </si>
-  <si>
-    <t>KUMARASINGHE M.N.</t>
-  </si>
-  <si>
-    <t>230197</t>
-  </si>
-  <si>
-    <t>GARUSINGHE S.B.</t>
-  </si>
-  <si>
-    <t>230468</t>
-  </si>
-  <si>
-    <t>PATHIRANA P.T.S.</t>
-  </si>
-  <si>
-    <t>230159</t>
-  </si>
-  <si>
-    <t>DISSANAYAKE G.R.G.K.</t>
-  </si>
-  <si>
-    <t>230566</t>
-  </si>
-  <si>
-    <t>SAMARASINGHE S.M.R.R.</t>
-  </si>
-  <si>
-    <t>230508</t>
-  </si>
-  <si>
-    <t>RAHUL B.</t>
-  </si>
-  <si>
-    <t>230140</t>
-  </si>
-  <si>
-    <t>DHARMAKEERTHI P.K.G.C.L.</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>230477</t>
-  </si>
-  <si>
-    <t>PERERA H.A.J.I.</t>
-  </si>
-  <si>
-    <t>230390</t>
-  </si>
-  <si>
-    <t>MALDENIYA P.A.D.G.R.</t>
-  </si>
-  <si>
-    <t>230186</t>
-  </si>
-  <si>
-    <t>FERNANDO W.H.D.</t>
-  </si>
-  <si>
-    <t>230322</t>
-  </si>
-  <si>
-    <t>KARUNARATHNA G.K.T.</t>
-  </si>
-  <si>
-    <t>230486</t>
-  </si>
-  <si>
-    <t>PERERA U.I.H.</t>
+    <t>230650</t>
+  </si>
+  <si>
+    <t>UBEYSEKARA V.T.T.</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>230065</t>
@@ -301,82 +682,52 @@
     <t>AYANAJA N.B.G.M.</t>
   </si>
   <si>
-    <t>230724</t>
-  </si>
-  <si>
-    <t>WIJESEKARA W.A.G.S.</t>
-  </si>
-  <si>
-    <t>230536</t>
-  </si>
-  <si>
-    <t>RASANJANA W.P.G.R.A.</t>
-  </si>
-  <si>
-    <t>230051</t>
-  </si>
-  <si>
-    <t>ARACHCHI A.D.I.D.</t>
-  </si>
-  <si>
-    <t>230687</t>
-  </si>
-  <si>
-    <t>WEDAMESTRIGE A.N.</t>
-  </si>
-  <si>
-    <t>230212</t>
-  </si>
-  <si>
-    <t>GUNASEKARA L.U.A.</t>
-  </si>
-  <si>
-    <t>230659</t>
-  </si>
-  <si>
-    <t>UPEKSHANI T.S.</t>
-  </si>
-  <si>
-    <t>230417</t>
-  </si>
-  <si>
-    <t>MUNASINGHE A.I.</t>
-  </si>
-  <si>
-    <t>230521</t>
-  </si>
-  <si>
-    <t>RANASINGHE D.P.H.</t>
-  </si>
-  <si>
-    <t>230332</t>
-  </si>
-  <si>
-    <t>KEERAWELLA K.P.C.P.</t>
-  </si>
-  <si>
-    <t>230218</t>
-  </si>
-  <si>
-    <t>GUNATHUNGA U.A.</t>
-  </si>
-  <si>
-    <t>230180</t>
-  </si>
-  <si>
-    <t>FERNANDO H.M.D.</t>
-  </si>
-  <si>
-    <t>230327</t>
-  </si>
-  <si>
-    <t>KAUSHALYA R.G.S.P.</t>
-  </si>
-  <si>
-    <t>230444</t>
-  </si>
-  <si>
-    <t>NIRMANI W.T.</t>
+    <t>230033</t>
+  </si>
+  <si>
+    <t>AMARASINGHE A.A.D.K.</t>
+  </si>
+  <si>
+    <t>230527</t>
+  </si>
+  <si>
+    <t>RANAWAKA R.A.G.K.</t>
+  </si>
+  <si>
+    <t>230395</t>
+  </si>
+  <si>
+    <t>MANATUNGA K.D.</t>
+  </si>
+  <si>
+    <t>230493</t>
+  </si>
+  <si>
+    <t>PIYUMAL N.P.P.</t>
+  </si>
+  <si>
+    <t>230563</t>
+  </si>
+  <si>
+    <t>SAMARANAYAKA H.D.J.D.</t>
+  </si>
+  <si>
+    <t>230636</t>
+  </si>
+  <si>
+    <t>THARUSHIKA G.K.E.</t>
+  </si>
+  <si>
+    <t>230224</t>
+  </si>
+  <si>
+    <t>HAKAM M.R.A.</t>
+  </si>
+  <si>
+    <t>230564</t>
+  </si>
+  <si>
+    <t>SAMARASEKARA S.M.R.P.</t>
   </si>
   <si>
     <t>230238</t>
@@ -385,190 +736,25 @@
     <t>HENDENIYA H.M.J.C.</t>
   </si>
   <si>
-    <t>230321</t>
-  </si>
-  <si>
-    <t>KARUNANAYAKE A.H.D.</t>
-  </si>
-  <si>
-    <t>230100</t>
-  </si>
-  <si>
-    <t>CHANDRAKUMARA H.A.D.C.</t>
-  </si>
-  <si>
-    <t>230211</t>
-  </si>
-  <si>
-    <t>GUNASEKARA K.S.</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>230130</t>
-  </si>
-  <si>
-    <t>DESHAN W.U.</t>
-  </si>
-  <si>
-    <t>230300</t>
-  </si>
-  <si>
-    <t>JAYAWEERA N.S.</t>
-  </si>
-  <si>
-    <t>230058</t>
-  </si>
-  <si>
-    <t>AROSHANA H.A.P.</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>230045</t>
-  </si>
-  <si>
-    <t>ANTHONY C.S.B.</t>
-  </si>
-  <si>
-    <t>230145</t>
-  </si>
-  <si>
-    <t>DILHAN W.A.</t>
-  </si>
-  <si>
-    <t>230613</t>
-  </si>
-  <si>
-    <t>SHEHAN M.N.N.</t>
-  </si>
-  <si>
-    <t>230038</t>
-  </si>
-  <si>
-    <t>AMARATHUNGE A.M.N.L.</t>
-  </si>
-  <si>
-    <t>230492</t>
-  </si>
-  <si>
-    <t>PITIWADUGE D.N.</t>
-  </si>
-  <si>
-    <t>230500</t>
-  </si>
-  <si>
-    <t>PRISHMIKA H.W.N.</t>
-  </si>
-  <si>
-    <t>230195</t>
-  </si>
-  <si>
-    <t>GAMAGE SK</t>
-  </si>
-  <si>
-    <t>230629</t>
-  </si>
-  <si>
-    <t>TENNAKOON U.G.R.B.</t>
-  </si>
-  <si>
-    <t>230697</t>
-  </si>
-  <si>
-    <t>WEERASINGHE J.A.H.R.</t>
-  </si>
-  <si>
-    <t>230070</t>
-  </si>
-  <si>
-    <t>BALASOORIYA B.R.B.D.</t>
-  </si>
-  <si>
-    <t>230726</t>
-  </si>
-  <si>
-    <t>WIJESINGHE U.G.S.K.D.</t>
-  </si>
-  <si>
-    <t>230539</t>
-  </si>
-  <si>
-    <t>RATHEESHAN A.R.</t>
-  </si>
-  <si>
-    <t>230507</t>
-  </si>
-  <si>
-    <t>RAHMAN M.F.A.</t>
-  </si>
-  <si>
-    <t>230013</t>
-  </si>
-  <si>
-    <t>ABEYWARNA D.H.</t>
-  </si>
-  <si>
-    <t>230052</t>
-  </si>
-  <si>
-    <t>ARACHCHIGE M. A. D. T. S.</t>
-  </si>
-  <si>
-    <t>230164</t>
-  </si>
-  <si>
-    <t>DISSANAYAKE R.K.T.</t>
-  </si>
-  <si>
-    <t>230077</t>
-  </si>
-  <si>
-    <t>BANDARA K.M.N.D.</t>
-  </si>
-  <si>
-    <t>230353</t>
-  </si>
-  <si>
-    <t>KUMARA P.K.M.P.</t>
-  </si>
-  <si>
     <t>230280</t>
   </si>
   <si>
     <t>JAYASINGHE J.A.P.R.</t>
   </si>
   <si>
-    <t>230375</t>
-  </si>
-  <si>
-    <t>LENMINI B.L.W.</t>
-  </si>
-  <si>
-    <t>230654</t>
-  </si>
-  <si>
-    <t>UMAIR A.</t>
-  </si>
-  <si>
-    <t>230502</t>
-  </si>
-  <si>
-    <t>PRIYADARSHANA S.A.D.</t>
-  </si>
-  <si>
-    <t>230063</t>
-  </si>
-  <si>
-    <t>ATHUKORALA U.R.</t>
-  </si>
-  <si>
-    <t>230012</t>
-  </si>
-  <si>
-    <t>ABEYWARDHANA T.C.W.</t>
+    <t>230268</t>
+  </si>
+  <si>
+    <t>JAYAKODY J.A.C.P.</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>230520</t>
+  </si>
+  <si>
+    <t>RANASINGHE A.G.N.S.</t>
   </si>
   <si>
     <t>230581</t>
@@ -577,175 +763,22 @@
     <t>SANTHOSH S.</t>
   </si>
   <si>
-    <t>230585</t>
-  </si>
-  <si>
-    <t>SARUKA U.</t>
-  </si>
-  <si>
-    <t>230248</t>
-  </si>
-  <si>
-    <t>HIMASARA W.V.M.J.</t>
-  </si>
-  <si>
-    <t>230727</t>
-  </si>
-  <si>
-    <t>WIJESINGHE W.A.P.W.</t>
-  </si>
-  <si>
-    <t>230470</t>
-  </si>
-  <si>
-    <t>PEIRIS T.S.R.</t>
-  </si>
-  <si>
-    <t>230147</t>
-  </si>
-  <si>
-    <t>DILHARA D.S.</t>
-  </si>
-  <si>
-    <t>230525</t>
-  </si>
-  <si>
-    <t>RANATHUNGA R.J.K.O.H.</t>
-  </si>
-  <si>
-    <t>230526</t>
-  </si>
-  <si>
-    <t>RANAWAKA R.A.C.D.</t>
-  </si>
-  <si>
-    <t>230520</t>
-  </si>
-  <si>
-    <t>RANASINGHE A.G.N.S.</t>
-  </si>
-  <si>
-    <t>230016</t>
-  </si>
-  <si>
-    <t>ABISHEK L.</t>
-  </si>
-  <si>
-    <t>230407</t>
-  </si>
-  <si>
-    <t>MEEDENIYA M.M.H.</t>
-  </si>
-  <si>
-    <t>230458</t>
-  </si>
-  <si>
-    <t>PALIHENA H.H.</t>
-  </si>
-  <si>
-    <t>230208</t>
-  </si>
-  <si>
-    <t>GUNASEKARA H.M.</t>
-  </si>
-  <si>
     <t>230020</t>
   </si>
   <si>
     <t>AHAMED A.M.S.</t>
   </si>
   <si>
-    <t>230259</t>
-  </si>
-  <si>
-    <t>IMBULPITIYA B.N.</t>
-  </si>
-  <si>
-    <t>230473</t>
-  </si>
-  <si>
-    <t>PERAMUNAGE D.S.</t>
-  </si>
-  <si>
-    <t>230017</t>
-  </si>
-  <si>
-    <t>ADHIKARI A.H.C.S.</t>
-  </si>
-  <si>
-    <t>230261</t>
-  </si>
-  <si>
-    <t>INDUWARA M.L.A.S.</t>
-  </si>
-  <si>
-    <t>230495</t>
-  </si>
-  <si>
-    <t>PRABHARSHA H.W.D.</t>
-  </si>
-  <si>
-    <t>230175</t>
-  </si>
-  <si>
-    <t>ERANGA W.A.O.</t>
-  </si>
-  <si>
-    <t>230229</t>
-  </si>
-  <si>
-    <t>HANSINDU M.M.A.D.</t>
-  </si>
-  <si>
-    <t>230735</t>
-  </si>
-  <si>
-    <t>WITHANAGE G.D.N.</t>
-  </si>
-  <si>
-    <t>230650</t>
-  </si>
-  <si>
-    <t>UBEYSEKARA V.T.T.</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>230033</t>
-  </si>
-  <si>
-    <t>AMARASINGHE A.A.D.K.</t>
-  </si>
-  <si>
-    <t>230527</t>
-  </si>
-  <si>
-    <t>RANAWAKA R.A.G.K.</t>
-  </si>
-  <si>
-    <t>230395</t>
-  </si>
-  <si>
-    <t>MANATUNGA K.D.</t>
-  </si>
-  <si>
-    <t>230493</t>
-  </si>
-  <si>
-    <t>PIYUMAL N.P.P.</t>
-  </si>
-  <si>
-    <t>230563</t>
-  </si>
-  <si>
-    <t>SAMARANAYAKA H.D.J.D.</t>
-  </si>
-  <si>
-    <t>230636</t>
-  </si>
-  <si>
-    <t>THARUSHIKA G.K.E.</t>
+    <t>230449</t>
+  </si>
+  <si>
+    <t>NUWANAKA W.A.S.</t>
+  </si>
+  <si>
+    <t>230203</t>
+  </si>
+  <si>
+    <t>GUNARATHNA K.T.M.B.</t>
   </si>
   <si>
     <t>230183</t>
@@ -754,45 +787,12 @@
     <t>FERNANDO LTJ</t>
   </si>
   <si>
-    <t>230203</t>
-  </si>
-  <si>
-    <t>GUNARATHNA K.T.M.B.</t>
-  </si>
-  <si>
-    <t>230224</t>
-  </si>
-  <si>
-    <t>HAKAM M.R.A.</t>
-  </si>
-  <si>
-    <t>230564</t>
-  </si>
-  <si>
-    <t>SAMARASEKARA S.M.R.P.</t>
-  </si>
-  <si>
     <t>230730</t>
   </si>
   <si>
     <t>WIJETHILAKA J.S.</t>
   </si>
   <si>
-    <t>230268</t>
-  </si>
-  <si>
-    <t>JAYAKODY J.A.C.P.</t>
-  </si>
-  <si>
-    <t>C-</t>
-  </si>
-  <si>
-    <t>230449</t>
-  </si>
-  <si>
-    <t>NUWANAKA W.A.S.</t>
-  </si>
-  <si>
     <t>3(15.0%)</t>
   </si>
   <si>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>2(2.0%)</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V5" t="s">
         <v>269</v>
@@ -1824,13 +1827,13 @@
         <v>21</v>
       </c>
       <c r="Q6">
-        <v>3.9739</v>
+        <v>3.973</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s">
         <v>269</v>
@@ -1922,13 +1925,13 @@
         <v>21</v>
       </c>
       <c r="Q7">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="V7" t="s">
         <v>269</v>
@@ -2020,13 +2023,13 @@
         <v>21</v>
       </c>
       <c r="Q8">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="V8" t="s">
         <v>269</v>
@@ -2118,13 +2121,13 @@
         <v>21</v>
       </c>
       <c r="Q9">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="V9" t="s">
         <v>269</v>
@@ -2216,13 +2219,13 @@
         <v>21</v>
       </c>
       <c r="Q10">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="V10" t="s">
         <v>269</v>
@@ -2314,7 +2317,7 @@
         <v>21</v>
       </c>
       <c r="Q11">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="R11">
         <v>10</v>
@@ -2412,7 +2415,7 @@
         <v>21</v>
       </c>
       <c r="Q12">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="R12">
         <v>11</v>
@@ -2510,7 +2513,7 @@
         <v>21</v>
       </c>
       <c r="Q13">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="R13">
         <v>12</v>
@@ -2608,7 +2611,7 @@
         <v>21</v>
       </c>
       <c r="Q14">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="R14">
         <v>13</v>
@@ -2706,10 +2709,52 @@
         <v>21</v>
       </c>
       <c r="Q15">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="R15">
         <v>14</v>
+      </c>
+      <c r="U15" t="s">
+        <v>216</v>
+      </c>
+      <c r="V15" t="s">
+        <v>269</v>
+      </c>
+      <c r="W15" t="s">
+        <v>269</v>
+      </c>
+      <c r="X15" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2762,7 +2807,7 @@
         <v>21</v>
       </c>
       <c r="Q16">
-        <v>3.955</v>
+        <v>3.954</v>
       </c>
       <c r="R16">
         <v>15</v>
@@ -2782,25 +2827,25 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
         <v>22</v>
@@ -2809,7 +2854,7 @@
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="O17" t="s">
         <v>21</v>
@@ -2818,7 +2863,7 @@
         <v>21</v>
       </c>
       <c r="Q17">
-        <v>3.95</v>
+        <v>3.937</v>
       </c>
       <c r="R17">
         <v>16</v>
@@ -2829,37 +2874,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
@@ -2874,7 +2919,7 @@
         <v>21</v>
       </c>
       <c r="Q18">
-        <v>3.9375</v>
+        <v>3.925</v>
       </c>
       <c r="R18">
         <v>17</v>
@@ -2885,11 +2930,11 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
@@ -2930,7 +2975,7 @@
         <v>21</v>
       </c>
       <c r="Q19">
-        <v>3.925</v>
+        <v>3.924</v>
       </c>
       <c r="R19">
         <v>18</v>
@@ -2938,34 +2983,34 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K20" t="s">
         <v>22</v>
@@ -2974,10 +3019,10 @@
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O20" t="s">
         <v>21</v>
@@ -2986,7 +3031,7 @@
         <v>21</v>
       </c>
       <c r="Q20">
-        <v>3.925</v>
+        <v>3.921</v>
       </c>
       <c r="R20">
         <v>19</v>
@@ -2994,43 +3039,43 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
         <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -3042,7 +3087,7 @@
         <v>21</v>
       </c>
       <c r="Q21">
-        <v>3.9217</v>
+        <v>3.921</v>
       </c>
       <c r="R21">
         <v>20</v>
@@ -3050,28 +3095,28 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -3080,16 +3125,16 @@
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O22" t="s">
         <v>21</v>
@@ -3098,7 +3143,7 @@
         <v>21</v>
       </c>
       <c r="Q22">
-        <v>3.9217</v>
+        <v>3.9</v>
       </c>
       <c r="R22">
         <v>21</v>
@@ -3106,7 +3151,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -3130,22 +3175,22 @@
         <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
         <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="O23" t="s">
         <v>21</v>
@@ -3162,46 +3207,46 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
         <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="N24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O24" t="s">
         <v>21</v>
@@ -3210,7 +3255,7 @@
         <v>21</v>
       </c>
       <c r="Q24">
-        <v>3.9</v>
+        <v>3.899</v>
       </c>
       <c r="R24">
         <v>23</v>
@@ -3218,19 +3263,19 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
       <c r="D25" t="s">
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -3242,10 +3287,10 @@
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
         <v>22</v>
@@ -3254,7 +3299,7 @@
         <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N25" t="s">
         <v>31</v>
@@ -3266,7 +3311,7 @@
         <v>21</v>
       </c>
       <c r="Q25">
-        <v>3.9</v>
+        <v>3.895</v>
       </c>
       <c r="R25">
         <v>24</v>
@@ -3274,25 +3319,25 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
         <v>72</v>
       </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
         <v>22</v>
@@ -3301,19 +3346,19 @@
         <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s">
         <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O26" t="s">
         <v>21</v>
@@ -3322,7 +3367,7 @@
         <v>21</v>
       </c>
       <c r="Q26">
-        <v>3.8957</v>
+        <v>3.895</v>
       </c>
       <c r="R26">
         <v>25</v>
@@ -3333,43 +3378,43 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
         <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N27" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="O27" t="s">
         <v>21</v>
@@ -3378,7 +3423,7 @@
         <v>21</v>
       </c>
       <c r="Q27">
-        <v>3.895</v>
+        <v>3.884</v>
       </c>
       <c r="R27">
         <v>26</v>
@@ -3389,11 +3434,11 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
       <c r="D28" t="s">
         <v>21</v>
       </c>
@@ -3401,40 +3446,40 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J28" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28" t="s">
         <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P28" t="s">
         <v>21</v>
       </c>
       <c r="Q28">
-        <v>3.8846</v>
+        <v>3.882</v>
       </c>
       <c r="R28">
         <v>27</v>
@@ -3445,52 +3490,52 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
         <v>79</v>
       </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" t="s">
-        <v>21</v>
-      </c>
       <c r="N29" t="s">
         <v>22</v>
       </c>
       <c r="O29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P29" t="s">
         <v>21</v>
       </c>
       <c r="Q29">
-        <v>3.8826</v>
+        <v>3.873</v>
       </c>
       <c r="R29">
         <v>28</v>
@@ -3498,7 +3543,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>80</v>
@@ -3516,16 +3561,16 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
         <v>22</v>
@@ -3534,7 +3579,7 @@
         <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N30" t="s">
         <v>22</v>
@@ -3546,22 +3591,22 @@
         <v>21</v>
       </c>
       <c r="Q30">
-        <v>3.8739</v>
+        <v>3.873</v>
       </c>
       <c r="R30">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
         <v>83</v>
       </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
@@ -3569,13 +3614,13 @@
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -3590,7 +3635,7 @@
         <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N31" t="s">
         <v>22</v>
@@ -3602,42 +3647,42 @@
         <v>21</v>
       </c>
       <c r="Q31">
-        <v>3.8739</v>
+        <v>3.873</v>
       </c>
       <c r="R31">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
         <v>85</v>
       </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
       <c r="D32" t="s">
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
         <v>22</v>
@@ -3646,7 +3691,7 @@
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="N32" t="s">
         <v>22</v>
@@ -3658,7 +3703,7 @@
         <v>21</v>
       </c>
       <c r="Q32">
-        <v>3.8739</v>
+        <v>3.869</v>
       </c>
       <c r="R32">
         <v>31</v>
@@ -3669,19 +3714,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
       <c r="D33" t="s">
         <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3690,22 +3735,22 @@
         <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O33" t="s">
         <v>21</v>
@@ -3714,7 +3759,7 @@
         <v>21</v>
       </c>
       <c r="Q33">
-        <v>3.8696</v>
+        <v>3.862</v>
       </c>
       <c r="R33">
         <v>32</v>
@@ -3725,43 +3770,43 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
-        <v>90</v>
-      </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N34" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O34" t="s">
         <v>21</v>
@@ -3770,7 +3815,7 @@
         <v>21</v>
       </c>
       <c r="Q34">
-        <v>3.8625</v>
+        <v>3.861</v>
       </c>
       <c r="R34">
         <v>33</v>
@@ -3781,52 +3826,52 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
         <v>91</v>
       </c>
-      <c r="C35" t="s">
-        <v>92</v>
-      </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
         <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N35" t="s">
         <v>22</v>
       </c>
       <c r="O35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P35" t="s">
         <v>21</v>
       </c>
       <c r="Q35">
-        <v>3.8615</v>
+        <v>3.847</v>
       </c>
       <c r="R35">
         <v>34</v>
@@ -3834,46 +3879,46 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="C36" t="s">
-        <v>94</v>
-      </c>
       <c r="D36" t="s">
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M36" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="N36" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O36" t="s">
         <v>21</v>
@@ -3882,7 +3927,7 @@
         <v>21</v>
       </c>
       <c r="Q36">
-        <v>3.85</v>
+        <v>3.847</v>
       </c>
       <c r="R36">
         <v>35</v>
@@ -3893,52 +3938,52 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
         <v>95</v>
       </c>
-      <c r="C37" t="s">
-        <v>96</v>
-      </c>
       <c r="D37" t="s">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H37" t="s">
         <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="J37" t="s">
         <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="L37" t="s">
         <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N37" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P37" t="s">
         <v>21</v>
       </c>
       <c r="Q37">
-        <v>3.8478</v>
+        <v>3.83</v>
       </c>
       <c r="R37">
         <v>36</v>
@@ -3949,11 +3994,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
         <v>97</v>
       </c>
-      <c r="C38" t="s">
-        <v>98</v>
-      </c>
       <c r="D38" t="s">
         <v>21</v>
       </c>
@@ -3964,28 +4009,28 @@
         <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
         <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="N38" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O38" t="s">
         <v>21</v>
@@ -3994,7 +4039,7 @@
         <v>21</v>
       </c>
       <c r="Q38">
-        <v>3.8478</v>
+        <v>3.83</v>
       </c>
       <c r="R38">
         <v>37</v>
@@ -4005,11 +4050,11 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
         <v>99</v>
       </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
@@ -4023,22 +4068,22 @@
         <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K39" t="s">
         <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="N39" t="s">
         <v>31</v>
@@ -4050,7 +4095,7 @@
         <v>21</v>
       </c>
       <c r="Q39">
-        <v>3.8304</v>
+        <v>3.821</v>
       </c>
       <c r="R39">
         <v>38</v>
@@ -4058,46 +4103,46 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
         <v>101</v>
       </c>
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
       <c r="D40" t="s">
         <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J40" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M40" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N40" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="O40" t="s">
         <v>21</v>
@@ -4106,7 +4151,7 @@
         <v>21</v>
       </c>
       <c r="Q40">
-        <v>3.8304</v>
+        <v>3.804</v>
       </c>
       <c r="R40">
         <v>39</v>
@@ -4114,28 +4159,28 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" t="s">
-        <v>104</v>
-      </c>
       <c r="D41" t="s">
         <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
@@ -4144,13 +4189,13 @@
         <v>31</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M41" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N41" t="s">
         <v>31</v>
@@ -4162,10 +4207,10 @@
         <v>21</v>
       </c>
       <c r="Q41">
-        <v>3.8217</v>
+        <v>3.804</v>
       </c>
       <c r="R41">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4173,31 +4218,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
         <v>105</v>
       </c>
-      <c r="C42" t="s">
-        <v>106</v>
-      </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K42" t="s">
         <v>22</v>
@@ -4209,7 +4254,7 @@
         <v>31</v>
       </c>
       <c r="N42" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O42" t="s">
         <v>21</v>
@@ -4218,7 +4263,7 @@
         <v>21</v>
       </c>
       <c r="Q42">
-        <v>3.8043</v>
+        <v>3.791</v>
       </c>
       <c r="R42">
         <v>41</v>
@@ -4226,37 +4271,37 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
         <v>107</v>
       </c>
-      <c r="C43" t="s">
-        <v>108</v>
-      </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L43" t="s">
         <v>20</v>
@@ -4274,10 +4319,10 @@
         <v>21</v>
       </c>
       <c r="Q43">
-        <v>3.8043</v>
+        <v>3.79</v>
       </c>
       <c r="R43">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4285,43 +4330,43 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
         <v>109</v>
       </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N44" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="O44" t="s">
         <v>21</v>
@@ -4330,7 +4375,7 @@
         <v>21</v>
       </c>
       <c r="Q44">
-        <v>3.7913</v>
+        <v>3.78</v>
       </c>
       <c r="R44">
         <v>43</v>
@@ -4341,31 +4386,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
         <v>111</v>
       </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s">
         <v>31</v>
@@ -4386,7 +4431,7 @@
         <v>21</v>
       </c>
       <c r="Q45">
-        <v>3.79</v>
+        <v>3.778</v>
       </c>
       <c r="R45">
         <v>44</v>
@@ -4397,31 +4442,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
         <v>113</v>
       </c>
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s">
         <v>22</v>
@@ -4430,7 +4475,7 @@
         <v>20</v>
       </c>
       <c r="M46" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N46" t="s">
         <v>31</v>
@@ -4442,7 +4487,7 @@
         <v>21</v>
       </c>
       <c r="Q46">
-        <v>3.78</v>
+        <v>3.765</v>
       </c>
       <c r="R46">
         <v>45</v>
@@ -4453,22 +4498,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s">
         <v>115</v>
       </c>
-      <c r="C47" t="s">
-        <v>116</v>
-      </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H47" t="s">
         <v>22</v>
@@ -4477,19 +4522,19 @@
         <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M47" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="O47" t="s">
         <v>21</v>
@@ -4498,7 +4543,7 @@
         <v>21</v>
       </c>
       <c r="Q47">
-        <v>3.7783</v>
+        <v>3.757</v>
       </c>
       <c r="R47">
         <v>46</v>
@@ -4509,31 +4554,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
         <v>117</v>
       </c>
-      <c r="C48" t="s">
-        <v>118</v>
-      </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J48" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
         <v>22</v>
@@ -4542,7 +4587,7 @@
         <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N48" t="s">
         <v>31</v>
@@ -4554,7 +4599,7 @@
         <v>21</v>
       </c>
       <c r="Q48">
-        <v>3.7652</v>
+        <v>3.73</v>
       </c>
       <c r="R48">
         <v>47</v>
@@ -4565,43 +4610,43 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
         <v>119</v>
       </c>
-      <c r="C49" t="s">
-        <v>120</v>
-      </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="L49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M49" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="N49" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O49" t="s">
         <v>21</v>
@@ -4610,7 +4655,7 @@
         <v>21</v>
       </c>
       <c r="Q49">
-        <v>3.7571</v>
+        <v>3.721</v>
       </c>
       <c r="R49">
         <v>48</v>
@@ -4618,44 +4663,44 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" t="s">
         <v>122</v>
       </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50" t="s">
-        <v>31</v>
-      </c>
-      <c r="L50" t="s">
-        <v>22</v>
-      </c>
-      <c r="M50" t="s">
-        <v>21</v>
-      </c>
       <c r="N50" t="s">
         <v>31</v>
       </c>
@@ -4666,7 +4711,7 @@
         <v>21</v>
       </c>
       <c r="Q50">
-        <v>3.75</v>
+        <v>3.721</v>
       </c>
       <c r="R50">
         <v>49</v>
@@ -4689,31 +4734,31 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="H51" t="s">
         <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J51" t="s">
         <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M51" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="O51" t="s">
         <v>21</v>
@@ -4722,7 +4767,7 @@
         <v>21</v>
       </c>
       <c r="Q51">
-        <v>3.7304</v>
+        <v>3.714</v>
       </c>
       <c r="R51">
         <v>50</v>
@@ -4748,28 +4793,28 @@
         <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="J52" t="s">
         <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
         <v>20</v>
       </c>
       <c r="M52" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="N52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O52" t="s">
         <v>21</v>
@@ -4778,7 +4823,7 @@
         <v>21</v>
       </c>
       <c r="Q52">
-        <v>3.7217</v>
+        <v>3.713</v>
       </c>
       <c r="R52">
         <v>51</v>
@@ -4798,34 +4843,34 @@
         <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
         <v>31</v>
       </c>
       <c r="L53" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="M53" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="N53" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O53" t="s">
         <v>21</v>
@@ -4834,10 +4879,10 @@
         <v>21</v>
       </c>
       <c r="Q53">
-        <v>3.7217</v>
+        <v>3.713</v>
       </c>
       <c r="R53">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4854,34 +4899,34 @@
         <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="N54" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O54" t="s">
         <v>21</v>
@@ -4890,7 +4935,7 @@
         <v>21</v>
       </c>
       <c r="Q54">
-        <v>3.7143</v>
+        <v>3.704</v>
       </c>
       <c r="R54">
         <v>53</v>
@@ -4898,7 +4943,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>132</v>
@@ -4913,31 +4958,31 @@
         <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H55" t="s">
         <v>22</v>
       </c>
       <c r="I55" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K55" t="s">
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M55" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="N55" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="O55" t="s">
         <v>21</v>
@@ -4946,7 +4991,7 @@
         <v>21</v>
       </c>
       <c r="Q55">
-        <v>3.713</v>
+        <v>3.704</v>
       </c>
       <c r="R55">
         <v>54</v>
@@ -4954,7 +4999,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>134</v>
@@ -4972,40 +5017,40 @@
         <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J56" t="s">
         <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N56" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="O56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P56" t="s">
         <v>21</v>
       </c>
       <c r="Q56">
-        <v>3.713</v>
+        <v>3.699</v>
       </c>
       <c r="R56">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5013,22 +5058,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
         <v>137</v>
       </c>
-      <c r="C57" t="s">
-        <v>138</v>
-      </c>
       <c r="D57" t="s">
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
         <v>20</v>
@@ -5040,16 +5085,16 @@
         <v>31</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M57" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="N57" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O57" t="s">
         <v>21</v>
@@ -5058,7 +5103,7 @@
         <v>21</v>
       </c>
       <c r="Q57">
-        <v>3.7043</v>
+        <v>3.691</v>
       </c>
       <c r="R57">
         <v>56</v>
@@ -5066,14 +5111,14 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s">
         <v>139</v>
       </c>
-      <c r="C58" t="s">
-        <v>140</v>
-      </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
@@ -5081,31 +5126,31 @@
         <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="J58" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="L58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O58" t="s">
         <v>21</v>
@@ -5114,7 +5159,7 @@
         <v>21</v>
       </c>
       <c r="Q58">
-        <v>3.7043</v>
+        <v>3.69</v>
       </c>
       <c r="R58">
         <v>57</v>
@@ -5125,31 +5170,31 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
         <v>141</v>
       </c>
-      <c r="C59" t="s">
-        <v>142</v>
-      </c>
       <c r="D59" t="s">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s">
         <v>22</v>
       </c>
       <c r="I59" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K59" t="s">
         <v>22</v>
@@ -5158,19 +5203,19 @@
         <v>20</v>
       </c>
       <c r="M59" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N59" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P59" t="s">
         <v>21</v>
       </c>
       <c r="Q59">
-        <v>3.7</v>
+        <v>3.678</v>
       </c>
       <c r="R59">
         <v>58</v>
@@ -5178,46 +5223,46 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
         <v>143</v>
       </c>
-      <c r="C60" t="s">
-        <v>144</v>
-      </c>
       <c r="D60" t="s">
         <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N60" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="O60" t="s">
         <v>21</v>
@@ -5226,10 +5271,10 @@
         <v>21</v>
       </c>
       <c r="Q60">
-        <v>3.6913</v>
+        <v>3.678</v>
       </c>
       <c r="R60">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5237,11 +5282,11 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
         <v>145</v>
       </c>
-      <c r="C61" t="s">
-        <v>146</v>
-      </c>
       <c r="D61" t="s">
         <v>21</v>
       </c>
@@ -5252,28 +5297,28 @@
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J61" t="s">
         <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="L61" t="s">
         <v>20</v>
       </c>
       <c r="M61" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O61" t="s">
         <v>21</v>
@@ -5282,7 +5327,7 @@
         <v>21</v>
       </c>
       <c r="Q61">
-        <v>3.6905</v>
+        <v>3.673</v>
       </c>
       <c r="R61">
         <v>60</v>
@@ -5293,31 +5338,31 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" t="s">
         <v>147</v>
       </c>
-      <c r="C62" t="s">
-        <v>148</v>
-      </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
         <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K62" t="s">
         <v>22</v>
@@ -5326,10 +5371,10 @@
         <v>20</v>
       </c>
       <c r="M62" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O62" t="s">
         <v>21</v>
@@ -5338,7 +5383,7 @@
         <v>21</v>
       </c>
       <c r="Q62">
-        <v>3.6783</v>
+        <v>3.671</v>
       </c>
       <c r="R62">
         <v>61</v>
@@ -5346,31 +5391,31 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
         <v>149</v>
       </c>
-      <c r="C63" t="s">
-        <v>150</v>
-      </c>
       <c r="D63" t="s">
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H63" t="s">
         <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
@@ -5379,13 +5424,13 @@
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M63" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N63" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="O63" t="s">
         <v>21</v>
@@ -5394,10 +5439,10 @@
         <v>21</v>
       </c>
       <c r="Q63">
-        <v>3.6783</v>
+        <v>3.665</v>
       </c>
       <c r="R63">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5405,11 +5450,11 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" t="s">
         <v>151</v>
       </c>
-      <c r="C64" t="s">
-        <v>152</v>
-      </c>
       <c r="D64" t="s">
         <v>21</v>
       </c>
@@ -5420,28 +5465,28 @@
         <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H64" t="s">
         <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="J64" t="s">
         <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L64" t="s">
         <v>20</v>
       </c>
       <c r="M64" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="N64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O64" t="s">
         <v>21</v>
@@ -5450,7 +5495,7 @@
         <v>21</v>
       </c>
       <c r="Q64">
-        <v>3.6739</v>
+        <v>3.66</v>
       </c>
       <c r="R64">
         <v>63</v>
@@ -5461,11 +5506,11 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
         <v>153</v>
       </c>
-      <c r="C65" t="s">
-        <v>154</v>
-      </c>
       <c r="D65" t="s">
         <v>21</v>
       </c>
@@ -5473,31 +5518,31 @@
         <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L65" t="s">
         <v>20</v>
       </c>
       <c r="M65" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="N65" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O65" t="s">
         <v>21</v>
@@ -5506,7 +5551,7 @@
         <v>21</v>
       </c>
       <c r="Q65">
-        <v>3.6714</v>
+        <v>3.652</v>
       </c>
       <c r="R65">
         <v>64</v>
@@ -5517,28 +5562,28 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" t="s">
         <v>155</v>
       </c>
-      <c r="C66" t="s">
-        <v>156</v>
-      </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
         <v>22</v>
       </c>
       <c r="I66" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
@@ -5547,13 +5592,13 @@
         <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N66" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="O66" t="s">
         <v>21</v>
@@ -5562,7 +5607,7 @@
         <v>21</v>
       </c>
       <c r="Q66">
-        <v>3.6652</v>
+        <v>3.645</v>
       </c>
       <c r="R66">
         <v>65</v>
@@ -5573,25 +5618,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
         <v>157</v>
       </c>
-      <c r="C67" t="s">
-        <v>158</v>
-      </c>
       <c r="D67" t="s">
         <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
         <v>20</v>
@@ -5600,25 +5645,25 @@
         <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="L67" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M67" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="N67" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="O67" t="s">
         <v>21</v>
       </c>
       <c r="P67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q67">
-        <v>3.6609</v>
+        <v>3.638</v>
       </c>
       <c r="R67">
         <v>66</v>
@@ -5629,28 +5674,28 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
         <v>159</v>
       </c>
-      <c r="C68" t="s">
-        <v>160</v>
-      </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
         <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
         <v>21</v>
@@ -5659,10 +5704,10 @@
         <v>31</v>
       </c>
       <c r="L68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M68" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="N68" t="s">
         <v>31</v>
@@ -5674,7 +5719,7 @@
         <v>21</v>
       </c>
       <c r="Q68">
-        <v>3.6522</v>
+        <v>3.63</v>
       </c>
       <c r="R68">
         <v>67</v>
@@ -5685,43 +5730,43 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
         <v>161</v>
       </c>
-      <c r="C69" t="s">
-        <v>162</v>
-      </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H69" t="s">
         <v>22</v>
       </c>
       <c r="I69" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J69" t="s">
         <v>21</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M69" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="N69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O69" t="s">
         <v>21</v>
@@ -5730,7 +5775,7 @@
         <v>21</v>
       </c>
       <c r="Q69">
-        <v>3.645</v>
+        <v>3.626</v>
       </c>
       <c r="R69">
         <v>68</v>
@@ -5741,52 +5786,52 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" t="s">
         <v>163</v>
       </c>
-      <c r="C70" t="s">
-        <v>164</v>
-      </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s">
         <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K70" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L70" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M70" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="N70" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="O70" t="s">
         <v>21</v>
       </c>
       <c r="P70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q70">
-        <v>3.6385</v>
+        <v>3.619</v>
       </c>
       <c r="R70">
         <v>69</v>
@@ -5797,43 +5842,43 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" t="s">
         <v>165</v>
       </c>
-      <c r="C71" t="s">
-        <v>166</v>
-      </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I71" t="s">
         <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K71" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M71" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="N71" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="O71" t="s">
         <v>21</v>
@@ -5842,7 +5887,7 @@
         <v>21</v>
       </c>
       <c r="Q71">
-        <v>3.63</v>
+        <v>3.613</v>
       </c>
       <c r="R71">
         <v>70</v>
@@ -5853,25 +5898,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" t="s">
         <v>167</v>
       </c>
-      <c r="C72" t="s">
-        <v>168</v>
-      </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I72" t="s">
         <v>31</v>
@@ -5883,13 +5928,13 @@
         <v>31</v>
       </c>
       <c r="L72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M72" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="N72" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O72" t="s">
         <v>21</v>
@@ -5898,7 +5943,7 @@
         <v>21</v>
       </c>
       <c r="Q72">
-        <v>3.6261</v>
+        <v>3.599</v>
       </c>
       <c r="R72">
         <v>71</v>
@@ -5909,43 +5954,43 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
         <v>169</v>
       </c>
-      <c r="C73" t="s">
-        <v>170</v>
-      </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="H73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K73" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M73" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="N73" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="O73" t="s">
         <v>21</v>
@@ -5954,7 +5999,7 @@
         <v>21</v>
       </c>
       <c r="Q73">
-        <v>3.619</v>
+        <v>3.591</v>
       </c>
       <c r="R73">
         <v>72</v>
@@ -5965,25 +6010,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" t="s">
         <v>171</v>
       </c>
-      <c r="C74" t="s">
-        <v>172</v>
-      </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I74" t="s">
         <v>21</v>
@@ -5992,16 +6037,16 @@
         <v>31</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L74" t="s">
         <v>20</v>
       </c>
       <c r="M74" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="N74" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O74" t="s">
         <v>21</v>
@@ -6010,7 +6055,7 @@
         <v>21</v>
       </c>
       <c r="Q74">
-        <v>3.613</v>
+        <v>3.586</v>
       </c>
       <c r="R74">
         <v>73</v>
@@ -6021,43 +6066,43 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" t="s">
         <v>173</v>
       </c>
-      <c r="C75" t="s">
-        <v>174</v>
-      </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H75" t="s">
         <v>22</v>
       </c>
       <c r="I75" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M75" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="N75" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O75" t="s">
         <v>21</v>
@@ -6066,7 +6111,7 @@
         <v>21</v>
       </c>
       <c r="Q75">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="R75">
         <v>74</v>
@@ -6074,28 +6119,28 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" t="s">
         <v>175</v>
       </c>
-      <c r="C76" t="s">
-        <v>176</v>
-      </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
         <v>31</v>
@@ -6104,16 +6149,16 @@
         <v>21</v>
       </c>
       <c r="K76" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="L76" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="M76" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="N76" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O76" t="s">
         <v>21</v>
@@ -6122,7 +6167,7 @@
         <v>21</v>
       </c>
       <c r="Q76">
-        <v>3.6</v>
+        <v>3.558</v>
       </c>
       <c r="R76">
         <v>75</v>
@@ -6133,43 +6178,43 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" t="s">
         <v>177</v>
       </c>
-      <c r="C77" t="s">
-        <v>178</v>
-      </c>
       <c r="D77" t="s">
         <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I77" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="J77" t="s">
         <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="L77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M77" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="N77" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="O77" t="s">
         <v>21</v>
@@ -6178,7 +6223,7 @@
         <v>21</v>
       </c>
       <c r="Q77">
-        <v>3.5913</v>
+        <v>3.543</v>
       </c>
       <c r="R77">
         <v>76</v>
@@ -6186,46 +6231,46 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" t="s">
         <v>179</v>
       </c>
-      <c r="C78" t="s">
-        <v>180</v>
-      </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L78" t="s">
         <v>20</v>
       </c>
       <c r="M78" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="N78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O78" t="s">
         <v>21</v>
@@ -6234,7 +6279,7 @@
         <v>21</v>
       </c>
       <c r="Q78">
-        <v>3.587</v>
+        <v>3.543</v>
       </c>
       <c r="R78">
         <v>77</v>
@@ -6245,22 +6290,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
         <v>181</v>
       </c>
-      <c r="C79" t="s">
-        <v>182</v>
-      </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H79" t="s">
         <v>22</v>
@@ -6269,16 +6314,16 @@
         <v>21</v>
       </c>
       <c r="J79" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K79" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M79" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="N79" t="s">
         <v>31</v>
@@ -6290,7 +6335,7 @@
         <v>21</v>
       </c>
       <c r="Q79">
-        <v>3.5609</v>
+        <v>3.54</v>
       </c>
       <c r="R79">
         <v>78</v>
@@ -6301,43 +6346,43 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" t="s">
         <v>183</v>
       </c>
-      <c r="C80" t="s">
-        <v>184</v>
-      </c>
       <c r="D80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="H80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I80" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J80" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K80" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="L80" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="M80" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="N80" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O80" t="s">
         <v>21</v>
@@ -6346,7 +6391,7 @@
         <v>21</v>
       </c>
       <c r="Q80">
-        <v>3.5583</v>
+        <v>3.526</v>
       </c>
       <c r="R80">
         <v>79</v>
@@ -6357,43 +6402,43 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" t="s">
         <v>185</v>
       </c>
-      <c r="C81" t="s">
-        <v>186</v>
-      </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="J81" t="s">
         <v>21</v>
       </c>
       <c r="K81" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M81" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="N81" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="O81" t="s">
         <v>21</v>
@@ -6402,7 +6447,7 @@
         <v>21</v>
       </c>
       <c r="Q81">
-        <v>3.5471</v>
+        <v>3.508</v>
       </c>
       <c r="R81">
         <v>80</v>
@@ -6413,43 +6458,43 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" t="s">
         <v>187</v>
       </c>
-      <c r="C82" t="s">
-        <v>188</v>
-      </c>
       <c r="D82" t="s">
         <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="J82" t="s">
         <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="L82" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M82" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N82" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="O82" t="s">
         <v>21</v>
@@ -6458,7 +6503,7 @@
         <v>21</v>
       </c>
       <c r="Q82">
-        <v>3.5435</v>
+        <v>3.5</v>
       </c>
       <c r="R82">
         <v>81</v>
@@ -6466,46 +6511,46 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>190</v>
-      </c>
       <c r="D83" t="s">
         <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s">
         <v>22</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J83" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K83" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M83" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="N83" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="O83" t="s">
         <v>21</v>
@@ -6514,7 +6559,7 @@
         <v>21</v>
       </c>
       <c r="Q83">
-        <v>3.5435</v>
+        <v>3.495</v>
       </c>
       <c r="R83">
         <v>82</v>
@@ -6525,25 +6570,25 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" t="s">
         <v>191</v>
       </c>
-      <c r="C84" t="s">
-        <v>192</v>
-      </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
         <v>21</v>
       </c>
       <c r="G84" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I84" t="s">
         <v>21</v>
@@ -6555,13 +6600,13 @@
         <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M84" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="N84" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="O84" t="s">
         <v>21</v>
@@ -6570,7 +6615,7 @@
         <v>21</v>
       </c>
       <c r="Q84">
-        <v>3.54</v>
+        <v>3.479</v>
       </c>
       <c r="R84">
         <v>83</v>
@@ -6581,11 +6626,11 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" t="s">
         <v>193</v>
       </c>
-      <c r="C85" t="s">
-        <v>194</v>
-      </c>
       <c r="D85" t="s">
         <v>21</v>
       </c>
@@ -6593,31 +6638,31 @@
         <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" t="s">
         <v>129</v>
       </c>
-      <c r="H85" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" t="s">
-        <v>21</v>
-      </c>
       <c r="J85" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K85" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="L85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M85" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="N85" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O85" t="s">
         <v>21</v>
@@ -6626,7 +6671,7 @@
         <v>21</v>
       </c>
       <c r="Q85">
-        <v>3.5261</v>
+        <v>3.469</v>
       </c>
       <c r="R85">
         <v>84</v>
@@ -6637,43 +6682,43 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" t="s">
         <v>195</v>
       </c>
-      <c r="C86" t="s">
-        <v>196</v>
-      </c>
       <c r="D86" t="s">
         <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G86" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="J86" t="s">
         <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L86" t="s">
         <v>20</v>
       </c>
       <c r="M86" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="N86" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="O86" t="s">
         <v>21</v>
@@ -6682,7 +6727,7 @@
         <v>21</v>
       </c>
       <c r="Q86">
-        <v>3.5087</v>
+        <v>3.465</v>
       </c>
       <c r="R86">
         <v>85</v>
@@ -6693,43 +6738,43 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" t="s">
         <v>197</v>
       </c>
-      <c r="C87" t="s">
-        <v>198</v>
-      </c>
       <c r="D87" t="s">
         <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="L87" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M87" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="N87" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="O87" t="s">
         <v>21</v>
@@ -6738,7 +6783,7 @@
         <v>21</v>
       </c>
       <c r="Q87">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="R87">
         <v>86</v>
@@ -6749,25 +6794,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" t="s">
         <v>199</v>
       </c>
-      <c r="C88" t="s">
-        <v>200</v>
-      </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="H88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
         <v>21</v>
@@ -6779,13 +6824,13 @@
         <v>22</v>
       </c>
       <c r="L88" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M88" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O88" t="s">
         <v>21</v>
@@ -6794,7 +6839,7 @@
         <v>21</v>
       </c>
       <c r="Q88">
-        <v>3.4957</v>
+        <v>3.447</v>
       </c>
       <c r="R88">
         <v>87</v>
@@ -6805,43 +6850,43 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
         <v>201</v>
       </c>
-      <c r="C89" t="s">
-        <v>202</v>
-      </c>
       <c r="D89" t="s">
         <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s">
         <v>22</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K89" t="s">
         <v>31</v>
       </c>
       <c r="L89" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M89" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="N89" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="O89" t="s">
         <v>21</v>
@@ -6850,7 +6895,7 @@
         <v>21</v>
       </c>
       <c r="Q89">
-        <v>3.495</v>
+        <v>3.443</v>
       </c>
       <c r="R89">
         <v>88</v>
@@ -6861,43 +6906,43 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" t="s">
         <v>203</v>
       </c>
-      <c r="C90" t="s">
-        <v>204</v>
-      </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="J90" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K90" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="L90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M90" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N90" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O90" t="s">
         <v>21</v>
@@ -6906,7 +6951,7 @@
         <v>21</v>
       </c>
       <c r="Q90">
-        <v>3.48</v>
+        <v>3.441</v>
       </c>
       <c r="R90">
         <v>89</v>
@@ -6917,43 +6962,43 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" t="s">
         <v>205</v>
       </c>
-      <c r="C91" t="s">
-        <v>206</v>
-      </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="H91" t="s">
         <v>22</v>
       </c>
       <c r="I91" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="J91" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K91" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L91" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="M91" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N91" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O91" t="s">
         <v>21</v>
@@ -6962,7 +7007,7 @@
         <v>21</v>
       </c>
       <c r="Q91">
-        <v>3.4696</v>
+        <v>3.424</v>
       </c>
       <c r="R91">
         <v>90</v>
@@ -6973,43 +7018,43 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" t="s">
         <v>207</v>
       </c>
-      <c r="C92" t="s">
-        <v>208</v>
-      </c>
       <c r="D92" t="s">
         <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I92" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J92" t="s">
         <v>21</v>
       </c>
       <c r="K92" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L92" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="M92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N92" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="O92" t="s">
         <v>21</v>
@@ -7018,7 +7063,7 @@
         <v>21</v>
       </c>
       <c r="Q92">
-        <v>3.4652</v>
+        <v>3.417</v>
       </c>
       <c r="R92">
         <v>91</v>
@@ -7029,43 +7074,43 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" t="s">
         <v>209</v>
       </c>
-      <c r="C93" t="s">
-        <v>210</v>
-      </c>
       <c r="D93" t="s">
         <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G93" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s">
         <v>22</v>
       </c>
       <c r="I93" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s">
         <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="L93" t="s">
         <v>20</v>
       </c>
       <c r="M93" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N93" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O93" t="s">
         <v>21</v>
@@ -7074,7 +7119,7 @@
         <v>21</v>
       </c>
       <c r="Q93">
-        <v>3.4609</v>
+        <v>3.404</v>
       </c>
       <c r="R93">
         <v>92</v>
@@ -7085,10 +7130,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" t="s">
         <v>211</v>
-      </c>
-      <c r="C94" t="s">
-        <v>212</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
@@ -7097,31 +7142,31 @@
         <v>129</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K94" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="L94" t="s">
         <v>22</v>
       </c>
       <c r="M94" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="N94" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="O94" t="s">
         <v>21</v>
@@ -7130,7 +7175,7 @@
         <v>21</v>
       </c>
       <c r="Q94">
-        <v>3.455</v>
+        <v>3.4</v>
       </c>
       <c r="R94">
         <v>93</v>
@@ -7141,43 +7186,43 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" t="s">
         <v>213</v>
       </c>
-      <c r="C95" t="s">
-        <v>214</v>
-      </c>
       <c r="D95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I95" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="J95" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="L95" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="M95" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="N95" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="O95" t="s">
         <v>21</v>
@@ -7186,7 +7231,7 @@
         <v>21</v>
       </c>
       <c r="Q95">
-        <v>3.4476</v>
+        <v>3.399</v>
       </c>
       <c r="R95">
         <v>94</v>
@@ -7197,44 +7242,44 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" t="s">
         <v>215</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" t="s">
         <v>216</v>
       </c>
-      <c r="D96" t="s">
-        <v>21</v>
-      </c>
-      <c r="E96" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>82</v>
-      </c>
-      <c r="H96" t="s">
-        <v>22</v>
-      </c>
-      <c r="I96" t="s">
-        <v>21</v>
-      </c>
-      <c r="J96" t="s">
-        <v>67</v>
-      </c>
-      <c r="K96" t="s">
-        <v>31</v>
-      </c>
-      <c r="L96" t="s">
-        <v>31</v>
-      </c>
-      <c r="M96" t="s">
-        <v>129</v>
-      </c>
-      <c r="N96" t="s">
-        <v>129</v>
-      </c>
       <c r="O96" t="s">
         <v>21</v>
       </c>
@@ -7242,7 +7287,7 @@
         <v>21</v>
       </c>
       <c r="Q96">
-        <v>3.4435</v>
+        <v>3.385</v>
       </c>
       <c r="R96">
         <v>95</v>
@@ -7262,34 +7307,34 @@
         <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I97" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J97" t="s">
         <v>31</v>
       </c>
       <c r="K97" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="L97" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M97" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="N97" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O97" t="s">
         <v>21</v>
@@ -7298,7 +7343,7 @@
         <v>21</v>
       </c>
       <c r="Q97">
-        <v>3.4417</v>
+        <v>3.373</v>
       </c>
       <c r="R97">
         <v>96</v>
@@ -7309,43 +7354,43 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
         <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G98" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="H98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J98" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K98" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="L98" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="M98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N98" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="O98" t="s">
         <v>21</v>
@@ -7354,7 +7399,7 @@
         <v>21</v>
       </c>
       <c r="Q98">
-        <v>3.425</v>
+        <v>3.347</v>
       </c>
       <c r="R98">
         <v>97</v>
@@ -7362,19 +7407,19 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D99" t="s">
         <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -7386,22 +7431,22 @@
         <v>22</v>
       </c>
       <c r="I99" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="J99" t="s">
         <v>21</v>
       </c>
       <c r="K99" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L99" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="M99" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="N99" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="O99" t="s">
         <v>21</v>
@@ -7410,7 +7455,7 @@
         <v>21</v>
       </c>
       <c r="Q99">
-        <v>3.4174</v>
+        <v>3.347</v>
       </c>
       <c r="R99">
         <v>98</v>
@@ -7421,43 +7466,43 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D100" t="s">
         <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="H100" t="s">
         <v>22</v>
       </c>
       <c r="I100" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="J100" t="s">
         <v>21</v>
       </c>
       <c r="K100" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L100" t="s">
         <v>20</v>
       </c>
       <c r="M100" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N100" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="O100" t="s">
         <v>21</v>
@@ -7466,7 +7511,7 @@
         <v>21</v>
       </c>
       <c r="Q100">
-        <v>3.4043</v>
+        <v>3.339</v>
       </c>
       <c r="R100">
         <v>99</v>
@@ -7477,43 +7522,43 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D101" t="s">
         <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I101" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="J101" t="s">
         <v>21</v>
       </c>
       <c r="K101" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L101" t="s">
         <v>22</v>
       </c>
       <c r="M101" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="N101" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O101" t="s">
         <v>21</v>
@@ -7522,7 +7567,7 @@
         <v>21</v>
       </c>
       <c r="Q101">
-        <v>3.4</v>
+        <v>3.334</v>
       </c>
       <c r="R101">
         <v>100</v>
@@ -7533,43 +7578,43 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C102" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D102" t="s">
         <v>21</v>
       </c>
       <c r="E102" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s">
+        <v>22</v>
+      </c>
+      <c r="I102" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" t="s">
+        <v>122</v>
+      </c>
+      <c r="M102" t="s">
         <v>129</v>
       </c>
-      <c r="H102" t="s">
-        <v>22</v>
-      </c>
-      <c r="I102" t="s">
-        <v>67</v>
-      </c>
-      <c r="J102" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102" t="s">
-        <v>67</v>
-      </c>
-      <c r="L102" t="s">
-        <v>20</v>
-      </c>
-      <c r="M102" t="s">
-        <v>136</v>
-      </c>
       <c r="N102" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="O102" t="s">
         <v>21</v>
@@ -7578,10 +7623,10 @@
         <v>21</v>
       </c>
       <c r="Q102">
-        <v>3.4</v>
+        <v>3.334</v>
       </c>
       <c r="R102">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -7589,25 +7634,25 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D103" t="s">
         <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
       </c>
       <c r="G103" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I103" t="s">
         <v>21</v>
@@ -7616,16 +7661,16 @@
         <v>31</v>
       </c>
       <c r="K103" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L103" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="M103" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="N103" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O103" t="s">
         <v>21</v>
@@ -7634,7 +7679,7 @@
         <v>21</v>
       </c>
       <c r="Q103">
-        <v>3.3739</v>
+        <v>3.304</v>
       </c>
       <c r="R103">
         <v>102</v>
@@ -7654,34 +7699,34 @@
         <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H104" t="s">
         <v>22</v>
       </c>
       <c r="I104" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J104" t="s">
         <v>21</v>
       </c>
       <c r="K104" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="L104" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M104" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="N104" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="O104" t="s">
         <v>21</v>
@@ -7690,7 +7735,7 @@
         <v>21</v>
       </c>
       <c r="Q104">
-        <v>3.3478</v>
+        <v>3.278</v>
       </c>
       <c r="R104">
         <v>103</v>
@@ -7710,34 +7755,34 @@
         <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I105" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="J105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K105" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="L105" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="M105" t="s">
         <v>129</v>
       </c>
       <c r="N105" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O105" t="s">
         <v>21</v>
@@ -7746,7 +7791,7 @@
         <v>21</v>
       </c>
       <c r="Q105">
-        <v>3.3391</v>
+        <v>3.221</v>
       </c>
       <c r="R105">
         <v>104</v>
@@ -7754,7 +7799,7 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>236</v>
@@ -7766,34 +7811,34 @@
         <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G106" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="H106" t="s">
         <v>22</v>
       </c>
       <c r="I106" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="J106" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K106" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="L106" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M106" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="N106" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O106" t="s">
         <v>21</v>
@@ -7802,7 +7847,7 @@
         <v>21</v>
       </c>
       <c r="Q106">
-        <v>3.3348</v>
+        <v>3.221</v>
       </c>
       <c r="R106">
         <v>105</v>
@@ -7810,7 +7855,7 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>238</v>
@@ -7819,16 +7864,16 @@
         <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G107" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="H107" t="s">
         <v>22</v>
@@ -7843,13 +7888,13 @@
         <v>31</v>
       </c>
       <c r="L107" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="M107" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="N107" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O107" t="s">
         <v>21</v>
@@ -7858,10 +7903,10 @@
         <v>21</v>
       </c>
       <c r="Q107">
-        <v>3.3348</v>
+        <v>3.214</v>
       </c>
       <c r="R107">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7878,34 +7923,34 @@
         <v>21</v>
       </c>
       <c r="E108" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="F108" t="s">
         <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="H108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I108" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="J108" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K108" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L108" t="s">
         <v>20</v>
       </c>
       <c r="M108" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="N108" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="O108" t="s">
         <v>21</v>
@@ -7914,7 +7959,7 @@
         <v>21</v>
       </c>
       <c r="Q108">
-        <v>3.3043</v>
+        <v>3.13</v>
       </c>
       <c r="R108">
         <v>107</v>
@@ -7934,34 +7979,34 @@
         <v>21</v>
       </c>
       <c r="E109" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
         <v>129</v>
       </c>
-      <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>136</v>
-      </c>
       <c r="H109" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I109" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J109" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K109" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L109" t="s">
         <v>31</v>
       </c>
       <c r="M109" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="N109" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="O109" t="s">
         <v>21</v>
@@ -7970,7 +8015,7 @@
         <v>21</v>
       </c>
       <c r="Q109">
-        <v>3.2783</v>
+        <v>3.095</v>
       </c>
       <c r="R109">
         <v>108</v>
@@ -7981,43 +8026,43 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D110" t="s">
         <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F110" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H110" t="s">
         <v>22</v>
       </c>
       <c r="I110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K110" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="L110" t="s">
         <v>22</v>
       </c>
       <c r="M110" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="N110" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="O110" t="s">
         <v>21</v>
@@ -8026,7 +8071,7 @@
         <v>21</v>
       </c>
       <c r="Q110">
-        <v>3.2529</v>
+        <v>3.039</v>
       </c>
       <c r="R110">
         <v>109</v>
@@ -8037,22 +8082,22 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C111" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G111" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="H111" t="s">
         <v>31</v>
@@ -8061,19 +8106,19 @@
         <v>21</v>
       </c>
       <c r="J111" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K111" t="s">
         <v>31</v>
       </c>
       <c r="L111" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M111" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="N111" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="O111" t="s">
         <v>21</v>
@@ -8082,7 +8127,7 @@
         <v>21</v>
       </c>
       <c r="Q111">
-        <v>3.25</v>
+        <v>3.014</v>
       </c>
       <c r="R111">
         <v>110</v>
@@ -8093,25 +8138,25 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D112" t="s">
         <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="H112" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I112" t="s">
         <v>21</v>
@@ -8120,16 +8165,16 @@
         <v>22</v>
       </c>
       <c r="K112" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="L112" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="M112" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="N112" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="O112" t="s">
         <v>21</v>
@@ -8138,7 +8183,7 @@
         <v>21</v>
       </c>
       <c r="Q112">
-        <v>3.2217</v>
+        <v>3.004</v>
       </c>
       <c r="R112">
         <v>111</v>
@@ -8146,25 +8191,25 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D113" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F113" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G113" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="H113" t="s">
         <v>22</v>
@@ -8173,19 +8218,19 @@
         <v>21</v>
       </c>
       <c r="J113" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K113" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="L113" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="M113" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="N113" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O113" t="s">
         <v>21</v>
@@ -8194,7 +8239,7 @@
         <v>21</v>
       </c>
       <c r="Q113">
-        <v>3.2217</v>
+        <v>2.835</v>
       </c>
       <c r="R113">
         <v>112</v>
@@ -8205,43 +8250,43 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D114" t="s">
         <v>21</v>
       </c>
       <c r="E114" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="F114" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G114" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="H114" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I114" t="s">
         <v>21</v>
       </c>
       <c r="J114" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="K114" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="L114" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M114" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="N114" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="O114" t="s">
         <v>21</v>
@@ -8250,7 +8295,7 @@
         <v>21</v>
       </c>
       <c r="Q114">
-        <v>3.1706</v>
+        <v>2.785</v>
       </c>
       <c r="R114">
         <v>113</v>
@@ -8261,43 +8306,43 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D115" t="s">
         <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="G115" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H115" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I115" t="s">
         <v>21</v>
       </c>
       <c r="J115" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="K115" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L115" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M115" t="s">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="N115" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="O115" t="s">
         <v>21</v>
@@ -8306,7 +8351,7 @@
         <v>21</v>
       </c>
       <c r="Q115">
-        <v>3.0957</v>
+        <v>2.404</v>
       </c>
       <c r="R115">
         <v>114</v>
@@ -8323,37 +8368,37 @@
         <v>258</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E116" t="s">
         <v>129</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="G116" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I116" t="s">
         <v>21</v>
       </c>
       <c r="J116" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K116" t="s">
+        <v>79</v>
+      </c>
+      <c r="L116" t="s">
+        <v>31</v>
+      </c>
+      <c r="M116" t="s">
         <v>129</v>
       </c>
-      <c r="L116" t="s">
-        <v>82</v>
-      </c>
-      <c r="M116" t="s">
-        <v>231</v>
-      </c>
       <c r="N116" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O116" t="s">
         <v>21</v>
@@ -8362,7 +8407,7 @@
         <v>21</v>
       </c>
       <c r="Q116">
-        <v>2.835</v>
+        <v>2.343</v>
       </c>
       <c r="R116">
         <v>115</v>

--- a/output/Results - sem3 (Extended).xlsx
+++ b/output/Results - sem3 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="314">
   <si>
     <t>Rank</t>
   </si>
@@ -610,12 +610,24 @@
     <t>GUNASEKARA H.M.</t>
   </si>
   <si>
+    <t>230261</t>
+  </si>
+  <si>
+    <t>INDUWARA M.L.A.S.</t>
+  </si>
+  <si>
     <t>230259</t>
   </si>
   <si>
     <t>IMBULPITIYA B.N.</t>
   </si>
   <si>
+    <t>230495</t>
+  </si>
+  <si>
+    <t>PRABHARSHA H.W.D.</t>
+  </si>
+  <si>
     <t>230473</t>
   </si>
   <si>
@@ -628,18 +640,6 @@
     <t>ADHIKARI A.H.C.S.</t>
   </si>
   <si>
-    <t>230261</t>
-  </si>
-  <si>
-    <t>INDUWARA M.L.A.S.</t>
-  </si>
-  <si>
-    <t>230495</t>
-  </si>
-  <si>
-    <t>PRABHARSHA H.W.D.</t>
-  </si>
-  <si>
     <t>230175</t>
   </si>
   <si>
@@ -907,18 +907,24 @@
     <t>12(10.4%)</t>
   </si>
   <si>
+    <t>4(3.5%)</t>
+  </si>
+  <si>
+    <t>15(16.9%)</t>
+  </si>
+  <si>
+    <t>1(0.9%)</t>
+  </si>
+  <si>
     <t>3(2.6%)</t>
   </si>
   <si>
-    <t>15(16.9%)</t>
+    <t>3(5.4%)</t>
   </si>
   <si>
     <t>2(1.7%)</t>
   </si>
   <si>
-    <t>3(5.4%)</t>
-  </si>
-  <si>
     <t>16(18.0%)</t>
   </si>
   <si>
@@ -926,9 +932,6 @@
   </si>
   <si>
     <t>2(3.6%)</t>
-  </si>
-  <si>
-    <t>1(0.9%)</t>
   </si>
   <si>
     <t>8(9.0%)</t>
@@ -1937,7 +1940,7 @@
         <v>269</v>
       </c>
       <c r="W7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="X7" t="s">
         <v>269</v>
@@ -1949,22 +1952,22 @@
         <v>269</v>
       </c>
       <c r="AA7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AB7" t="s">
         <v>269</v>
       </c>
       <c r="AC7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AD7" t="s">
         <v>297</v>
       </c>
       <c r="AE7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG7" t="s">
         <v>269</v>
@@ -2035,7 +2038,7 @@
         <v>269</v>
       </c>
       <c r="W8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="X8" t="s">
         <v>269</v>
@@ -2047,7 +2050,7 @@
         <v>269</v>
       </c>
       <c r="AA8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AB8" t="s">
         <v>269</v>
@@ -2056,10 +2059,10 @@
         <v>269</v>
       </c>
       <c r="AD8" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="AE8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF8" t="s">
         <v>269</v>
@@ -2157,7 +2160,7 @@
         <v>269</v>
       </c>
       <c r="AE9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF9" t="s">
         <v>269</v>
@@ -2237,7 +2240,7 @@
         <v>269</v>
       </c>
       <c r="Y10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Z10" t="s">
         <v>269</v>
@@ -2255,7 +2258,7 @@
         <v>269</v>
       </c>
       <c r="AE10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF10" t="s">
         <v>269</v>
@@ -2323,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V11" t="s">
         <v>269</v>
@@ -2421,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="U12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V12" t="s">
         <v>269</v>
@@ -2519,7 +2522,7 @@
         <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V13" t="s">
         <v>269</v>
@@ -2617,7 +2620,7 @@
         <v>13</v>
       </c>
       <c r="U14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V14" t="s">
         <v>269</v>
@@ -2724,10 +2727,10 @@
         <v>269</v>
       </c>
       <c r="X15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y15" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Z15" t="s">
         <v>269</v>
@@ -6803,16 +6806,16 @@
         <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I88" t="s">
         <v>21</v>
@@ -6821,10 +6824,10 @@
         <v>31</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="L88" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="M88" t="s">
         <v>21</v>
@@ -6839,7 +6842,7 @@
         <v>21</v>
       </c>
       <c r="Q88">
-        <v>3.447</v>
+        <v>3.458</v>
       </c>
       <c r="R88">
         <v>87</v>
@@ -6856,37 +6859,37 @@
         <v>201</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G89" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
         <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="K89" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L89" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M89" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="O89" t="s">
         <v>21</v>
@@ -6895,7 +6898,7 @@
         <v>21</v>
       </c>
       <c r="Q89">
-        <v>3.443</v>
+        <v>3.447</v>
       </c>
       <c r="R89">
         <v>88</v>
@@ -6915,34 +6918,34 @@
         <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I90" t="s">
         <v>64</v>
       </c>
       <c r="J90" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K90" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="L90" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N90" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="O90" t="s">
         <v>21</v>
@@ -6951,7 +6954,7 @@
         <v>21</v>
       </c>
       <c r="Q90">
-        <v>3.441</v>
+        <v>3.443</v>
       </c>
       <c r="R90">
         <v>89</v>
@@ -6959,7 +6962,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>204</v>
@@ -6968,38 +6971,38 @@
         <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
       </c>
       <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>64</v>
+      </c>
+      <c r="K91" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" t="s">
         <v>122</v>
       </c>
-      <c r="H91" t="s">
-        <v>22</v>
-      </c>
-      <c r="I91" t="s">
-        <v>21</v>
-      </c>
-      <c r="J91" t="s">
-        <v>31</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="N91" t="s">
         <v>122</v>
       </c>
-      <c r="L91" t="s">
-        <v>129</v>
-      </c>
-      <c r="M91" t="s">
-        <v>21</v>
-      </c>
-      <c r="N91" t="s">
-        <v>64</v>
-      </c>
       <c r="O91" t="s">
         <v>21</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>21</v>
       </c>
       <c r="Q91">
-        <v>3.424</v>
+        <v>3.443</v>
       </c>
       <c r="R91">
         <v>90</v>
@@ -7027,35 +7030,35 @@
         <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
         <v>64</v>
       </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K92" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L92" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" t="s">
         <v>79</v>
       </c>
-      <c r="M92" t="s">
-        <v>20</v>
-      </c>
-      <c r="N92" t="s">
-        <v>122</v>
-      </c>
       <c r="O92" t="s">
         <v>21</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>21</v>
       </c>
       <c r="Q92">
-        <v>3.417</v>
+        <v>3.441</v>
       </c>
       <c r="R92">
         <v>91</v>

--- a/output/Results - sem3 (Extended).xlsx
+++ b/output/Results - sem3 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="316">
   <si>
     <t>Rank</t>
   </si>
@@ -172,6 +172,12 @@
     <t>COLOMBAGE D.M.</t>
   </si>
   <si>
+    <t>230159</t>
+  </si>
+  <si>
+    <t>DISSANAYAKE G.R.G.K.</t>
+  </si>
+  <si>
     <t>230469</t>
   </si>
   <si>
@@ -202,6 +208,12 @@
     <t>DE MEL D.J.</t>
   </si>
   <si>
+    <t>230486</t>
+  </si>
+  <si>
+    <t>PERERA U.I.H.</t>
+  </si>
+  <si>
     <t>230680</t>
   </si>
   <si>
@@ -217,6 +229,12 @@
     <t>KUMARASINGHE M.N.</t>
   </si>
   <si>
+    <t>230322</t>
+  </si>
+  <si>
+    <t>KARUNARATHNA G.K.T.</t>
+  </si>
+  <si>
     <t>230197</t>
   </si>
   <si>
@@ -229,12 +247,6 @@
     <t>PATHIRANA P.T.S.</t>
   </si>
   <si>
-    <t>230159</t>
-  </si>
-  <si>
-    <t>DISSANAYAKE G.R.G.K.</t>
-  </si>
-  <si>
     <t>230566</t>
   </si>
   <si>
@@ -274,18 +286,6 @@
     <t>FERNANDO W.H.D.</t>
   </si>
   <si>
-    <t>230322</t>
-  </si>
-  <si>
-    <t>KARUNARATHNA G.K.T.</t>
-  </si>
-  <si>
-    <t>230486</t>
-  </si>
-  <si>
-    <t>PERERA U.I.H.</t>
-  </si>
-  <si>
     <t>230724</t>
   </si>
   <si>
@@ -298,6 +298,12 @@
     <t>RASANJANA W.P.G.R.A.</t>
   </si>
   <si>
+    <t>230521</t>
+  </si>
+  <si>
+    <t>RANASINGHE D.P.H.</t>
+  </si>
+  <si>
     <t>230051</t>
   </si>
   <si>
@@ -310,6 +316,12 @@
     <t>WEDAMESTRIGE A.N.</t>
   </si>
   <si>
+    <t>230218</t>
+  </si>
+  <si>
+    <t>GUNATHUNGA U.A.</t>
+  </si>
+  <si>
     <t>230212</t>
   </si>
   <si>
@@ -328,30 +340,27 @@
     <t>MUNASINGHE A.I.</t>
   </si>
   <si>
-    <t>230521</t>
-  </si>
-  <si>
-    <t>RANASINGHE D.P.H.</t>
-  </si>
-  <si>
     <t>230332</t>
   </si>
   <si>
     <t>KEERAWELLA K.P.C.P.</t>
   </si>
   <si>
-    <t>230218</t>
-  </si>
-  <si>
-    <t>GUNATHUNGA U.A.</t>
-  </si>
-  <si>
     <t>230180</t>
   </si>
   <si>
     <t>FERNANDO H.M.D.</t>
   </si>
   <si>
+    <t>230689</t>
+  </si>
+  <si>
+    <t>WEERAKOON A.H.T.M.</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
     <t>230327</t>
   </si>
   <si>
@@ -382,9 +391,6 @@
     <t>GUNASEKARA K.S.</t>
   </si>
   <si>
-    <t>B-</t>
-  </si>
-  <si>
     <t>230130</t>
   </si>
   <si>
@@ -520,6 +526,12 @@
     <t>LENMINI B.L.W.</t>
   </si>
   <si>
+    <t>230012</t>
+  </si>
+  <si>
+    <t>ABEYWARDHANA T.C.W.</t>
+  </si>
+  <si>
     <t>230654</t>
   </si>
   <si>
@@ -538,12 +550,6 @@
     <t>ATHUKORALA U.R.</t>
   </si>
   <si>
-    <t>230012</t>
-  </si>
-  <si>
-    <t>ABEYWARDHANA T.C.W.</t>
-  </si>
-  <si>
     <t>230585</t>
   </si>
   <si>
@@ -568,6 +574,12 @@
     <t>PEIRIS T.S.R.</t>
   </si>
   <si>
+    <t>230407</t>
+  </si>
+  <si>
+    <t>MEEDENIYA M.M.H.</t>
+  </si>
+  <si>
     <t>230147</t>
   </si>
   <si>
@@ -592,12 +604,6 @@
     <t>ABISHEK L.</t>
   </si>
   <si>
-    <t>230407</t>
-  </si>
-  <si>
-    <t>MEEDENIYA M.M.H.</t>
-  </si>
-  <si>
     <t>230458</t>
   </si>
   <si>
@@ -640,6 +646,12 @@
     <t>ADHIKARI A.H.C.S.</t>
   </si>
   <si>
+    <t>230520</t>
+  </si>
+  <si>
+    <t>RANASINGHE A.G.N.S.</t>
+  </si>
+  <si>
     <t>230175</t>
   </si>
   <si>
@@ -658,30 +670,24 @@
     <t>WITHANAGE G.D.N.</t>
   </si>
   <si>
-    <t>230689</t>
-  </si>
-  <si>
-    <t>WEERAKOON A.H.T.M.</t>
+    <t>230650</t>
+  </si>
+  <si>
+    <t>UBEYSEKARA V.T.T.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>230065</t>
+  </si>
+  <si>
+    <t>AYANAJA N.B.G.M.</t>
   </si>
   <si>
     <t>I-we</t>
   </si>
   <si>
-    <t>230650</t>
-  </si>
-  <si>
-    <t>UBEYSEKARA V.T.T.</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>230065</t>
-  </si>
-  <si>
-    <t>AYANAJA N.B.G.M.</t>
-  </si>
-  <si>
     <t>230033</t>
   </si>
   <si>
@@ -751,12 +757,6 @@
     <t>C-</t>
   </si>
   <si>
-    <t>230520</t>
-  </si>
-  <si>
-    <t>RANASINGHE A.G.N.S.</t>
-  </si>
-  <si>
     <t>230581</t>
   </si>
   <si>
@@ -838,84 +838,87 @@
     <t>67(67.0%)</t>
   </si>
   <si>
+    <t>23(20.0%)</t>
+  </si>
+  <si>
+    <t>64(55.7%)</t>
+  </si>
+  <si>
+    <t>19(33.9%)</t>
+  </si>
+  <si>
+    <t>18(34.0%)</t>
+  </si>
+  <si>
+    <t>52(45.2%)</t>
+  </si>
+  <si>
+    <t>30(26.1%)</t>
+  </si>
+  <si>
+    <t>12(13.5%)</t>
+  </si>
+  <si>
+    <t>27(23.5%)</t>
+  </si>
+  <si>
+    <t>2(40.0%)</t>
+  </si>
+  <si>
+    <t>1(100.0%)</t>
+  </si>
+  <si>
+    <t>4(20.0%)</t>
+  </si>
+  <si>
+    <t>21(18.3%)</t>
+  </si>
+  <si>
+    <t>8(8.0%)</t>
+  </si>
+  <si>
+    <t>7(6.1%)</t>
+  </si>
+  <si>
+    <t>12(21.4%)</t>
+  </si>
+  <si>
+    <t>25(47.2%)</t>
+  </si>
+  <si>
+    <t>9(7.8%)</t>
+  </si>
+  <si>
+    <t>32(27.8%)</t>
+  </si>
+  <si>
+    <t>3(3.0%)</t>
+  </si>
+  <si>
+    <t>9(17.0%)</t>
+  </si>
+  <si>
+    <t>12(10.4%)</t>
+  </si>
+  <si>
+    <t>4(3.5%)</t>
+  </si>
+  <si>
+    <t>15(16.9%)</t>
+  </si>
+  <si>
+    <t>20(17.4%)</t>
+  </si>
+  <si>
     <t>22(19.1%)</t>
   </si>
   <si>
-    <t>64(55.7%)</t>
-  </si>
-  <si>
-    <t>18(32.1%)</t>
-  </si>
-  <si>
-    <t>18(34.0%)</t>
-  </si>
-  <si>
-    <t>52(45.2%)</t>
-  </si>
-  <si>
-    <t>30(26.1%)</t>
-  </si>
-  <si>
-    <t>12(13.5%)</t>
-  </si>
-  <si>
-    <t>26(22.6%)</t>
-  </si>
-  <si>
-    <t>2(40.0%)</t>
-  </si>
-  <si>
-    <t>1(100.0%)</t>
-  </si>
-  <si>
-    <t>4(20.0%)</t>
-  </si>
-  <si>
-    <t>21(18.3%)</t>
-  </si>
-  <si>
-    <t>8(8.0%)</t>
-  </si>
-  <si>
-    <t>7(6.1%)</t>
-  </si>
-  <si>
-    <t>13(23.2%)</t>
-  </si>
-  <si>
-    <t>25(47.2%)</t>
-  </si>
-  <si>
-    <t>9(7.8%)</t>
-  </si>
-  <si>
-    <t>31(27.0%)</t>
-  </si>
-  <si>
-    <t>3(3.0%)</t>
-  </si>
-  <si>
-    <t>23(20.0%)</t>
-  </si>
-  <si>
-    <t>12(21.4%)</t>
-  </si>
-  <si>
-    <t>9(17.0%)</t>
-  </si>
-  <si>
-    <t>12(10.4%)</t>
-  </si>
-  <si>
-    <t>4(3.5%)</t>
-  </si>
-  <si>
-    <t>15(16.9%)</t>
-  </si>
-  <si>
     <t>1(0.9%)</t>
   </si>
   <si>
+    <t>24(20.9%)</t>
+  </si>
+  <si>
     <t>3(2.6%)</t>
   </si>
   <si>
@@ -926,6 +929,9 @@
   </si>
   <si>
     <t>16(18.0%)</t>
+  </si>
+  <si>
+    <t>6(5.2%)</t>
   </si>
   <si>
     <t>5(4.3%)</t>
@@ -1738,7 +1744,7 @@
         <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="V5" t="s">
         <v>269</v>
@@ -1750,28 +1756,28 @@
         <v>292</v>
       </c>
       <c r="Y5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB5" t="s">
         <v>293</v>
       </c>
-      <c r="Z5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>294</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>295</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>296</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>297</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>298</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>274</v>
       </c>
       <c r="AG5" t="s">
         <v>269</v>
@@ -1836,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="V6" t="s">
         <v>269</v>
@@ -1848,7 +1854,7 @@
         <v>269</v>
       </c>
       <c r="Y6" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Z6" t="s">
         <v>269</v>
@@ -1869,7 +1875,7 @@
         <v>280</v>
       </c>
       <c r="AF6" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AG6" t="s">
         <v>269</v>
@@ -1934,13 +1940,13 @@
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="V7" t="s">
         <v>269</v>
       </c>
       <c r="W7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X7" t="s">
         <v>269</v>
@@ -1952,22 +1958,22 @@
         <v>269</v>
       </c>
       <c r="AA7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AB7" t="s">
         <v>269</v>
       </c>
       <c r="AC7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AD7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AE7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG7" t="s">
         <v>269</v>
@@ -2032,13 +2038,13 @@
         <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="V8" t="s">
         <v>269</v>
       </c>
       <c r="W8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="X8" t="s">
         <v>269</v>
@@ -2050,7 +2056,7 @@
         <v>269</v>
       </c>
       <c r="AA8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AB8" t="s">
         <v>269</v>
@@ -2062,7 +2068,7 @@
         <v>269</v>
       </c>
       <c r="AE8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AF8" t="s">
         <v>269</v>
@@ -2130,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="V9" t="s">
         <v>269</v>
@@ -2160,7 +2166,7 @@
         <v>269</v>
       </c>
       <c r="AE9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF9" t="s">
         <v>269</v>
@@ -2228,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="V10" t="s">
         <v>269</v>
@@ -2258,7 +2264,7 @@
         <v>269</v>
       </c>
       <c r="AE10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF10" t="s">
         <v>269</v>
@@ -2326,7 +2332,7 @@
         <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="V11" t="s">
         <v>269</v>
@@ -2424,7 +2430,7 @@
         <v>11</v>
       </c>
       <c r="U12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="V12" t="s">
         <v>269</v>
@@ -2522,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="V13" t="s">
         <v>269</v>
@@ -2620,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="U14" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="V14" t="s">
         <v>269</v>
@@ -2718,7 +2724,7 @@
         <v>14</v>
       </c>
       <c r="U15" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="V15" t="s">
         <v>269</v>
@@ -2727,10 +2733,10 @@
         <v>269</v>
       </c>
       <c r="X15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z15" t="s">
         <v>269</v>
@@ -2751,7 +2757,7 @@
         <v>269</v>
       </c>
       <c r="AF15" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="AG15" t="s">
         <v>269</v>
@@ -2818,7 +2824,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -2827,37 +2833,37 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
         <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O17" t="s">
         <v>21</v>
@@ -2866,7 +2872,7 @@
         <v>21</v>
       </c>
       <c r="Q17">
-        <v>3.937</v>
+        <v>3.954</v>
       </c>
       <c r="R17">
         <v>16</v>
@@ -2883,31 +2889,31 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
@@ -2922,7 +2928,7 @@
         <v>21</v>
       </c>
       <c r="Q18">
-        <v>3.925</v>
+        <v>3.937</v>
       </c>
       <c r="R18">
         <v>17</v>
@@ -2939,25 +2945,25 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>
@@ -2969,7 +2975,7 @@
         <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O19" t="s">
         <v>21</v>
@@ -2978,7 +2984,7 @@
         <v>21</v>
       </c>
       <c r="Q19">
-        <v>3.924</v>
+        <v>3.925</v>
       </c>
       <c r="R19">
         <v>18</v>
@@ -3010,10 +3016,10 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
         <v>22</v>
@@ -3022,7 +3028,7 @@
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -3034,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="Q20">
-        <v>3.921</v>
+        <v>3.924</v>
       </c>
       <c r="R20">
         <v>19</v>
@@ -3042,7 +3048,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -3054,31 +3060,31 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K21" t="s">
         <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N21" t="s">
         <v>31</v>
@@ -3098,7 +3104,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -3110,16 +3116,16 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -3128,16 +3134,16 @@
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O22" t="s">
         <v>21</v>
@@ -3146,7 +3152,7 @@
         <v>21</v>
       </c>
       <c r="Q22">
-        <v>3.9</v>
+        <v>3.921</v>
       </c>
       <c r="R22">
         <v>21</v>
@@ -3154,43 +3160,43 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
         <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N23" t="s">
         <v>22</v>
@@ -3202,7 +3208,7 @@
         <v>21</v>
       </c>
       <c r="Q23">
-        <v>3.9</v>
+        <v>3.907</v>
       </c>
       <c r="R23">
         <v>22</v>
@@ -3213,25 +3219,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -3240,16 +3246,16 @@
         <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s">
         <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="O24" t="s">
         <v>21</v>
@@ -3258,7 +3264,7 @@
         <v>21</v>
       </c>
       <c r="Q24">
-        <v>3.899</v>
+        <v>3.9</v>
       </c>
       <c r="R24">
         <v>23</v>
@@ -3266,7 +3272,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -3278,34 +3284,34 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N25" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O25" t="s">
         <v>21</v>
@@ -3314,7 +3320,7 @@
         <v>21</v>
       </c>
       <c r="Q25">
-        <v>3.895</v>
+        <v>3.9</v>
       </c>
       <c r="R25">
         <v>24</v>
@@ -3322,7 +3328,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
@@ -3331,13 +3337,13 @@
         <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
         <v>22</v>
@@ -3346,22 +3352,22 @@
         <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O26" t="s">
         <v>21</v>
@@ -3370,7 +3376,7 @@
         <v>21</v>
       </c>
       <c r="Q26">
-        <v>3.895</v>
+        <v>3.9</v>
       </c>
       <c r="R26">
         <v>25</v>
@@ -3390,22 +3396,22 @@
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
         <v>22</v>
@@ -3414,10 +3420,10 @@
         <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N27" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O27" t="s">
         <v>21</v>
@@ -3426,7 +3432,7 @@
         <v>21</v>
       </c>
       <c r="Q27">
-        <v>3.884</v>
+        <v>3.899</v>
       </c>
       <c r="R27">
         <v>26</v>
@@ -3446,43 +3452,43 @@
         <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
         <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N28" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P28" t="s">
         <v>21</v>
       </c>
       <c r="Q28">
-        <v>3.882</v>
+        <v>3.895</v>
       </c>
       <c r="R28">
         <v>27</v>
@@ -3502,7 +3508,7 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -3514,7 +3520,7 @@
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J29" t="s">
         <v>31</v>
@@ -3526,7 +3532,7 @@
         <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="N29" t="s">
         <v>22</v>
@@ -3538,7 +3544,7 @@
         <v>21</v>
       </c>
       <c r="Q29">
-        <v>3.873</v>
+        <v>3.884</v>
       </c>
       <c r="R29">
         <v>28</v>
@@ -3546,99 +3552,99 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
         <v>80</v>
       </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
       <c r="D30" t="s">
         <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L30" t="s">
         <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N30" t="s">
         <v>22</v>
       </c>
       <c r="O30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P30" t="s">
         <v>21</v>
       </c>
       <c r="Q30">
-        <v>3.873</v>
+        <v>3.882</v>
       </c>
       <c r="R30">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
         <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" t="s">
-        <v>79</v>
       </c>
       <c r="N31" t="s">
         <v>22</v>
@@ -3658,7 +3664,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
@@ -3670,22 +3676,22 @@
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
         <v>22</v>
@@ -3694,7 +3700,7 @@
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N32" t="s">
         <v>22</v>
@@ -3706,15 +3712,15 @@
         <v>21</v>
       </c>
       <c r="Q32">
-        <v>3.869</v>
+        <v>3.873</v>
       </c>
       <c r="R32">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>86</v>
@@ -3729,31 +3735,31 @@
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M33" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="N33" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O33" t="s">
         <v>21</v>
@@ -3762,7 +3768,7 @@
         <v>21</v>
       </c>
       <c r="Q33">
-        <v>3.862</v>
+        <v>3.873</v>
       </c>
       <c r="R33">
         <v>32</v>
@@ -3779,25 +3785,25 @@
         <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
@@ -3806,7 +3812,7 @@
         <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N34" t="s">
         <v>22</v>
@@ -3818,7 +3824,7 @@
         <v>21</v>
       </c>
       <c r="Q34">
-        <v>3.861</v>
+        <v>3.869</v>
       </c>
       <c r="R34">
         <v>33</v>
@@ -3844,7 +3850,7 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
         <v>22</v>
@@ -3856,7 +3862,7 @@
         <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s">
         <v>20</v>
@@ -3918,7 +3924,7 @@
         <v>20</v>
       </c>
       <c r="M36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N36" t="s">
         <v>31</v>
@@ -3950,10 +3956,10 @@
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
         <v>22</v>
@@ -3962,19 +3968,19 @@
         <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M37" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N37" t="s">
         <v>31</v>
@@ -3986,7 +3992,7 @@
         <v>21</v>
       </c>
       <c r="Q37">
-        <v>3.83</v>
+        <v>3.843</v>
       </c>
       <c r="R37">
         <v>36</v>
@@ -3994,7 +4000,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>96</v>
@@ -4006,34 +4012,34 @@
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L38" t="s">
         <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N38" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O38" t="s">
         <v>21</v>
@@ -4050,7 +4056,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>98</v>
@@ -4062,13 +4068,13 @@
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H39" t="s">
         <v>20</v>
@@ -4080,16 +4086,16 @@
         <v>31</v>
       </c>
       <c r="K39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="N39" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="O39" t="s">
         <v>21</v>
@@ -4098,7 +4104,7 @@
         <v>21</v>
       </c>
       <c r="Q39">
-        <v>3.821</v>
+        <v>3.83</v>
       </c>
       <c r="R39">
         <v>38</v>
@@ -4115,22 +4121,22 @@
         <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
         <v>21</v>
@@ -4139,13 +4145,13 @@
         <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="N40" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O40" t="s">
         <v>21</v>
@@ -4154,7 +4160,7 @@
         <v>21</v>
       </c>
       <c r="Q40">
-        <v>3.804</v>
+        <v>3.825</v>
       </c>
       <c r="R40">
         <v>39</v>
@@ -4162,7 +4168,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>102</v>
@@ -4174,16 +4180,16 @@
         <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
@@ -4192,13 +4198,13 @@
         <v>31</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M41" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="N41" t="s">
         <v>31</v>
@@ -4210,10 +4216,10 @@
         <v>21</v>
       </c>
       <c r="Q41">
-        <v>3.804</v>
+        <v>3.821</v>
       </c>
       <c r="R41">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4230,22 +4236,22 @@
         <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J42" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
         <v>22</v>
@@ -4257,7 +4263,7 @@
         <v>31</v>
       </c>
       <c r="N42" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O42" t="s">
         <v>21</v>
@@ -4266,7 +4272,7 @@
         <v>21</v>
       </c>
       <c r="Q42">
-        <v>3.791</v>
+        <v>3.804</v>
       </c>
       <c r="R42">
         <v>41</v>
@@ -4274,7 +4280,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>106</v>
@@ -4283,28 +4289,28 @@
         <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K43" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
         <v>20</v>
@@ -4322,10 +4328,10 @@
         <v>21</v>
       </c>
       <c r="Q43">
-        <v>3.79</v>
+        <v>3.804</v>
       </c>
       <c r="R43">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4339,7 +4345,7 @@
         <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -4348,7 +4354,7 @@
         <v>21</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H44" t="s">
         <v>20</v>
@@ -4360,13 +4366,13 @@
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L44" t="s">
         <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N44" t="s">
         <v>31</v>
@@ -4378,7 +4384,7 @@
         <v>21</v>
       </c>
       <c r="Q44">
-        <v>3.78</v>
+        <v>3.79</v>
       </c>
       <c r="R44">
         <v>43</v>
@@ -4413,7 +4419,7 @@
         <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K45" t="s">
         <v>31</v>
@@ -4454,7 +4460,7 @@
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -4463,25 +4469,25 @@
         <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M46" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="O46" t="s">
         <v>21</v>
@@ -4490,7 +4496,7 @@
         <v>21</v>
       </c>
       <c r="Q46">
-        <v>3.765</v>
+        <v>3.771</v>
       </c>
       <c r="R46">
         <v>45</v>
@@ -4501,22 +4507,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
         <v>22</v>
@@ -4525,19 +4531,19 @@
         <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="K47" t="s">
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N47" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="O47" t="s">
         <v>21</v>
@@ -4546,7 +4552,7 @@
         <v>21</v>
       </c>
       <c r="Q47">
-        <v>3.757</v>
+        <v>3.765</v>
       </c>
       <c r="R47">
         <v>46</v>
@@ -4557,43 +4563,43 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K48" t="s">
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M48" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="O48" t="s">
         <v>21</v>
@@ -4602,7 +4608,7 @@
         <v>21</v>
       </c>
       <c r="Q48">
-        <v>3.73</v>
+        <v>3.757</v>
       </c>
       <c r="R48">
         <v>47</v>
@@ -4613,10 +4619,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
@@ -4628,28 +4634,28 @@
         <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J49" t="s">
         <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
         <v>20</v>
       </c>
       <c r="M49" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N49" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O49" t="s">
         <v>21</v>
@@ -4658,7 +4664,7 @@
         <v>21</v>
       </c>
       <c r="Q49">
-        <v>3.721</v>
+        <v>3.73</v>
       </c>
       <c r="R49">
         <v>48</v>
@@ -4666,13 +4672,13 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -4687,25 +4693,25 @@
         <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="L50" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="M50" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="N50" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="O50" t="s">
         <v>21</v>
@@ -4722,7 +4728,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
@@ -4737,7 +4743,7 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
         <v>31</v>
@@ -4746,22 +4752,22 @@
         <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L51" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="M51" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="N51" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="O51" t="s">
         <v>21</v>
@@ -4770,7 +4776,7 @@
         <v>21</v>
       </c>
       <c r="Q51">
-        <v>3.714</v>
+        <v>3.721</v>
       </c>
       <c r="R51">
         <v>50</v>
@@ -4793,31 +4799,31 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H52" t="s">
         <v>22</v>
       </c>
       <c r="I52" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="J52" t="s">
         <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M52" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N52" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O52" t="s">
         <v>21</v>
@@ -4826,7 +4832,7 @@
         <v>21</v>
       </c>
       <c r="Q52">
-        <v>3.713</v>
+        <v>3.714</v>
       </c>
       <c r="R52">
         <v>51</v>
@@ -4834,7 +4840,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>127</v>
@@ -4846,34 +4852,34 @@
         <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N53" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="O53" t="s">
         <v>21</v>
@@ -4885,51 +4891,51 @@
         <v>3.713</v>
       </c>
       <c r="R53">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
         <v>130</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
         <v>131</v>
       </c>
-      <c r="D54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>64</v>
-      </c>
       <c r="H54" t="s">
         <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M54" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="N54" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O54" t="s">
         <v>21</v>
@@ -4938,15 +4944,15 @@
         <v>21</v>
       </c>
       <c r="Q54">
-        <v>3.704</v>
+        <v>3.713</v>
       </c>
       <c r="R54">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>132</v>
@@ -4958,16 +4964,16 @@
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
         <v>21</v>
@@ -4979,13 +4985,13 @@
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M55" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N55" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="O55" t="s">
         <v>21</v>
@@ -5002,7 +5008,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>134</v>
@@ -5014,43 +5020,43 @@
         <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H56" t="s">
         <v>22</v>
       </c>
       <c r="I56" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K56" t="s">
         <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M56" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="N56" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P56" t="s">
         <v>21</v>
       </c>
       <c r="Q56">
-        <v>3.699</v>
+        <v>3.704</v>
       </c>
       <c r="R56">
         <v>55</v>
@@ -5070,43 +5076,43 @@
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J57" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M57" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P57" t="s">
         <v>21</v>
       </c>
       <c r="Q57">
-        <v>3.691</v>
+        <v>3.699</v>
       </c>
       <c r="R57">
         <v>56</v>
@@ -5126,34 +5132,34 @@
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
         <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K58" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M58" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O58" t="s">
         <v>21</v>
@@ -5162,7 +5168,7 @@
         <v>21</v>
       </c>
       <c r="Q58">
-        <v>3.69</v>
+        <v>3.691</v>
       </c>
       <c r="R58">
         <v>57</v>
@@ -5188,28 +5194,28 @@
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="L59" t="s">
         <v>20</v>
       </c>
       <c r="M59" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O59" t="s">
         <v>21</v>
@@ -5218,7 +5224,7 @@
         <v>21</v>
       </c>
       <c r="Q59">
-        <v>3.678</v>
+        <v>3.69</v>
       </c>
       <c r="R59">
         <v>58</v>
@@ -5226,7 +5232,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>142</v>
@@ -5238,22 +5244,22 @@
         <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s">
         <v>22</v>
       </c>
       <c r="I60" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
         <v>22</v>
@@ -5262,10 +5268,10 @@
         <v>20</v>
       </c>
       <c r="M60" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N60" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="O60" t="s">
         <v>21</v>
@@ -5277,12 +5283,12 @@
         <v>3.678</v>
       </c>
       <c r="R60">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>144</v>
@@ -5294,34 +5300,34 @@
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H61" t="s">
         <v>22</v>
       </c>
       <c r="I61" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J61" t="s">
         <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
         <v>20</v>
       </c>
       <c r="M61" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="N61" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="O61" t="s">
         <v>21</v>
@@ -5330,10 +5336,10 @@
         <v>21</v>
       </c>
       <c r="Q61">
-        <v>3.673</v>
+        <v>3.678</v>
       </c>
       <c r="R61">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5350,34 +5356,34 @@
         <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J62" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L62" t="s">
         <v>20</v>
       </c>
       <c r="M62" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N62" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O62" t="s">
         <v>21</v>
@@ -5386,7 +5392,7 @@
         <v>21</v>
       </c>
       <c r="Q62">
-        <v>3.671</v>
+        <v>3.673</v>
       </c>
       <c r="R62">
         <v>61</v>
@@ -5406,34 +5412,34 @@
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K63" t="s">
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M63" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O63" t="s">
         <v>21</v>
@@ -5442,7 +5448,7 @@
         <v>21</v>
       </c>
       <c r="Q63">
-        <v>3.665</v>
+        <v>3.671</v>
       </c>
       <c r="R63">
         <v>62</v>
@@ -5468,28 +5474,28 @@
         <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H64" t="s">
         <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J64" t="s">
         <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M64" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="N64" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O64" t="s">
         <v>21</v>
@@ -5498,7 +5504,7 @@
         <v>21</v>
       </c>
       <c r="Q64">
-        <v>3.66</v>
+        <v>3.665</v>
       </c>
       <c r="R64">
         <v>63</v>
@@ -5518,34 +5524,34 @@
         <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J65" t="s">
         <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="L65" t="s">
         <v>20</v>
       </c>
       <c r="M65" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N65" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="O65" t="s">
         <v>21</v>
@@ -5554,7 +5560,7 @@
         <v>21</v>
       </c>
       <c r="Q65">
-        <v>3.652</v>
+        <v>3.66</v>
       </c>
       <c r="R65">
         <v>64</v>
@@ -5571,37 +5577,37 @@
         <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L66" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M66" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="N66" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="O66" t="s">
         <v>21</v>
@@ -5610,7 +5616,7 @@
         <v>21</v>
       </c>
       <c r="Q66">
-        <v>3.645</v>
+        <v>3.652</v>
       </c>
       <c r="R66">
         <v>65</v>
@@ -5627,46 +5633,46 @@
         <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
         <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="L67" t="s">
         <v>31</v>
       </c>
       <c r="M67" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="N67" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="O67" t="s">
         <v>21</v>
       </c>
       <c r="P67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q67">
-        <v>3.638</v>
+        <v>3.645</v>
       </c>
       <c r="R67">
         <v>66</v>
@@ -5683,46 +5689,46 @@
         <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J68" t="s">
         <v>21</v>
       </c>
       <c r="K68" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="L68" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M68" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="N68" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O68" t="s">
         <v>21</v>
       </c>
       <c r="P68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q68">
-        <v>3.63</v>
+        <v>3.638</v>
       </c>
       <c r="R68">
         <v>67</v>
@@ -5739,22 +5745,22 @@
         <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I69" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
         <v>21</v>
@@ -5763,13 +5769,13 @@
         <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M69" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N69" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="O69" t="s">
         <v>21</v>
@@ -5778,7 +5784,7 @@
         <v>21</v>
       </c>
       <c r="Q69">
-        <v>3.626</v>
+        <v>3.63</v>
       </c>
       <c r="R69">
         <v>68</v>
@@ -5795,37 +5801,37 @@
         <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K70" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="L70" t="s">
         <v>20</v>
       </c>
       <c r="M70" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="N70" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O70" t="s">
         <v>21</v>
@@ -5834,7 +5840,7 @@
         <v>21</v>
       </c>
       <c r="Q70">
-        <v>3.619</v>
+        <v>3.626</v>
       </c>
       <c r="R70">
         <v>69</v>
@@ -5851,37 +5857,37 @@
         <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
         <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="L71" t="s">
         <v>20</v>
       </c>
       <c r="M71" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N71" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O71" t="s">
         <v>21</v>
@@ -5890,7 +5896,7 @@
         <v>21</v>
       </c>
       <c r="Q71">
-        <v>3.613</v>
+        <v>3.619</v>
       </c>
       <c r="R71">
         <v>70</v>
@@ -5910,34 +5916,34 @@
         <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I72" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K72" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M72" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N72" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="O72" t="s">
         <v>21</v>
@@ -5946,7 +5952,7 @@
         <v>21</v>
       </c>
       <c r="Q72">
-        <v>3.599</v>
+        <v>3.613</v>
       </c>
       <c r="R72">
         <v>71</v>
@@ -5966,16 +5972,16 @@
         <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I73" t="s">
         <v>31</v>
@@ -5984,13 +5990,13 @@
         <v>21</v>
       </c>
       <c r="K73" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="L73" t="s">
         <v>22</v>
       </c>
       <c r="M73" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="N73" t="s">
         <v>31</v>
@@ -6002,7 +6008,7 @@
         <v>21</v>
       </c>
       <c r="Q73">
-        <v>3.591</v>
+        <v>3.599</v>
       </c>
       <c r="R73">
         <v>72</v>
@@ -6019,37 +6025,37 @@
         <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s">
         <v>20</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="L74" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="M74" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O74" t="s">
         <v>21</v>
@@ -6058,7 +6064,7 @@
         <v>21</v>
       </c>
       <c r="Q74">
-        <v>3.586</v>
+        <v>3.595</v>
       </c>
       <c r="R74">
         <v>73</v>
@@ -6078,31 +6084,31 @@
         <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H75" t="s">
         <v>22</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J75" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="L75" t="s">
         <v>22</v>
       </c>
       <c r="M75" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="N75" t="s">
         <v>31</v>
@@ -6114,7 +6120,7 @@
         <v>21</v>
       </c>
       <c r="Q75">
-        <v>3.56</v>
+        <v>3.591</v>
       </c>
       <c r="R75">
         <v>74</v>
@@ -6131,37 +6137,37 @@
         <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H76" t="s">
         <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J76" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K76" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="M76" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="N76" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O76" t="s">
         <v>21</v>
@@ -6170,7 +6176,7 @@
         <v>21</v>
       </c>
       <c r="Q76">
-        <v>3.558</v>
+        <v>3.586</v>
       </c>
       <c r="R76">
         <v>75</v>
@@ -6190,34 +6196,34 @@
         <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H77" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I77" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K77" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M77" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N77" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="O77" t="s">
         <v>21</v>
@@ -6226,7 +6232,7 @@
         <v>21</v>
       </c>
       <c r="Q77">
-        <v>3.543</v>
+        <v>3.56</v>
       </c>
       <c r="R77">
         <v>76</v>
@@ -6234,7 +6240,7 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>178</v>
@@ -6246,34 +6252,34 @@
         <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="J78" t="s">
         <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L78" t="s">
         <v>20</v>
       </c>
       <c r="M78" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N78" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="O78" t="s">
         <v>21</v>
@@ -6290,7 +6296,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>180</v>
@@ -6299,37 +6305,37 @@
         <v>181</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H79" t="s">
         <v>22</v>
       </c>
       <c r="I79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J79" t="s">
         <v>21</v>
       </c>
       <c r="K79" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L79" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M79" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="N79" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="O79" t="s">
         <v>21</v>
@@ -6338,7 +6344,7 @@
         <v>21</v>
       </c>
       <c r="Q79">
-        <v>3.54</v>
+        <v>3.543</v>
       </c>
       <c r="R79">
         <v>78</v>
@@ -6355,16 +6361,16 @@
         <v>183</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="H80" t="s">
         <v>22</v>
@@ -6373,19 +6379,19 @@
         <v>21</v>
       </c>
       <c r="J80" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M80" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N80" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O80" t="s">
         <v>21</v>
@@ -6394,7 +6400,7 @@
         <v>21</v>
       </c>
       <c r="Q80">
-        <v>3.526</v>
+        <v>3.54</v>
       </c>
       <c r="R80">
         <v>79</v>
@@ -6414,34 +6420,34 @@
         <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H81" t="s">
         <v>22</v>
       </c>
       <c r="I81" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K81" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="L81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M81" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="N81" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="O81" t="s">
         <v>21</v>
@@ -6450,7 +6456,7 @@
         <v>21</v>
       </c>
       <c r="Q81">
-        <v>3.508</v>
+        <v>3.526</v>
       </c>
       <c r="R81">
         <v>80</v>
@@ -6470,34 +6476,34 @@
         <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="J82" t="s">
         <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M82" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N82" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="O82" t="s">
         <v>21</v>
@@ -6506,7 +6512,7 @@
         <v>21</v>
       </c>
       <c r="Q82">
-        <v>3.5</v>
+        <v>3.508</v>
       </c>
       <c r="R82">
         <v>81</v>
@@ -6514,7 +6520,7 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>188</v>
@@ -6526,34 +6532,34 @@
         <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s">
         <v>22</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="J83" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M83" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="N83" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="O83" t="s">
         <v>21</v>
@@ -6562,7 +6568,7 @@
         <v>21</v>
       </c>
       <c r="Q83">
-        <v>3.495</v>
+        <v>3.508</v>
       </c>
       <c r="R83">
         <v>82</v>
@@ -6579,37 +6585,37 @@
         <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J84" t="s">
         <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="L84" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M84" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N84" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="O84" t="s">
         <v>21</v>
@@ -6618,7 +6624,7 @@
         <v>21</v>
       </c>
       <c r="Q84">
-        <v>3.479</v>
+        <v>3.5</v>
       </c>
       <c r="R84">
         <v>83</v>
@@ -6638,34 +6644,34 @@
         <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H85" t="s">
         <v>22</v>
       </c>
       <c r="I85" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K85" t="s">
         <v>22</v>
       </c>
       <c r="L85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M85" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="N85" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O85" t="s">
         <v>21</v>
@@ -6674,7 +6680,7 @@
         <v>21</v>
       </c>
       <c r="Q85">
-        <v>3.469</v>
+        <v>3.495</v>
       </c>
       <c r="R85">
         <v>84</v>
@@ -6691,22 +6697,22 @@
         <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H86" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I86" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J86" t="s">
         <v>21</v>
@@ -6718,10 +6724,10 @@
         <v>20</v>
       </c>
       <c r="M86" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="N86" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O86" t="s">
         <v>21</v>
@@ -6730,7 +6736,7 @@
         <v>21</v>
       </c>
       <c r="Q86">
-        <v>3.465</v>
+        <v>3.479</v>
       </c>
       <c r="R86">
         <v>85</v>
@@ -6750,34 +6756,34 @@
         <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="G87" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="L87" t="s">
         <v>20</v>
       </c>
       <c r="M87" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="N87" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O87" t="s">
         <v>21</v>
@@ -6786,10 +6792,10 @@
         <v>21</v>
       </c>
       <c r="Q87">
-        <v>3.46</v>
+        <v>3.465</v>
       </c>
       <c r="R87">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6803,37 +6809,37 @@
         <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
         <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="H88" t="s">
         <v>22</v>
       </c>
       <c r="I88" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J88" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="L88" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="M88" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="N88" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O88" t="s">
         <v>21</v>
@@ -6842,7 +6848,7 @@
         <v>21</v>
       </c>
       <c r="Q88">
-        <v>3.458</v>
+        <v>3.46</v>
       </c>
       <c r="R88">
         <v>87</v>
@@ -6862,16 +6868,16 @@
         <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I89" t="s">
         <v>21</v>
@@ -6880,16 +6886,16 @@
         <v>31</v>
       </c>
       <c r="K89" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="L89" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="M89" t="s">
         <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O89" t="s">
         <v>21</v>
@@ -6898,7 +6904,7 @@
         <v>21</v>
       </c>
       <c r="Q89">
-        <v>3.447</v>
+        <v>3.458</v>
       </c>
       <c r="R89">
         <v>88</v>
@@ -6915,37 +6921,37 @@
         <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G90" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J90" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K90" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N90" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="O90" t="s">
         <v>21</v>
@@ -6954,7 +6960,7 @@
         <v>21</v>
       </c>
       <c r="Q90">
-        <v>3.443</v>
+        <v>3.447</v>
       </c>
       <c r="R90">
         <v>89</v>
@@ -6962,7 +6968,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>204</v>
@@ -6974,34 +6980,34 @@
         <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H91" t="s">
         <v>22</v>
       </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J91" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="K91" t="s">
         <v>31</v>
       </c>
       <c r="L91" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="M91" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="N91" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O91" t="s">
         <v>21</v>
@@ -7018,7 +7024,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>206</v>
@@ -7030,34 +7036,34 @@
         <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I92" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J92" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="K92" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="L92" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M92" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="N92" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="O92" t="s">
         <v>21</v>
@@ -7066,7 +7072,7 @@
         <v>21</v>
       </c>
       <c r="Q92">
-        <v>3.441</v>
+        <v>3.443</v>
       </c>
       <c r="R92">
         <v>91</v>
@@ -7086,34 +7092,34 @@
         <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J93" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K93" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="L93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M93" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="N93" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O93" t="s">
         <v>21</v>
@@ -7122,7 +7128,7 @@
         <v>21</v>
       </c>
       <c r="Q93">
-        <v>3.404</v>
+        <v>3.441</v>
       </c>
       <c r="R93">
         <v>92</v>
@@ -7142,16 +7148,16 @@
         <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I94" t="s">
         <v>22</v>
@@ -7166,10 +7172,10 @@
         <v>22</v>
       </c>
       <c r="M94" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N94" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O94" t="s">
         <v>21</v>
@@ -7178,7 +7184,7 @@
         <v>21</v>
       </c>
       <c r="Q94">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="R94">
         <v>93</v>
@@ -7198,34 +7204,34 @@
         <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s">
         <v>22</v>
       </c>
       <c r="I95" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J95" t="s">
         <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="L95" t="s">
         <v>20</v>
       </c>
       <c r="M95" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="N95" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="O95" t="s">
         <v>21</v>
@@ -7234,7 +7240,7 @@
         <v>21</v>
       </c>
       <c r="Q95">
-        <v>3.399</v>
+        <v>3.404</v>
       </c>
       <c r="R95">
         <v>94</v>
@@ -7254,25 +7260,25 @@
         <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H96" t="s">
         <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L96" t="s">
         <v>22</v>
@@ -7281,7 +7287,7 @@
         <v>21</v>
       </c>
       <c r="N96" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="O96" t="s">
         <v>21</v>
@@ -7290,7 +7296,7 @@
         <v>21</v>
       </c>
       <c r="Q96">
-        <v>3.385</v>
+        <v>3.4</v>
       </c>
       <c r="R96">
         <v>95</v>
@@ -7301,43 +7307,43 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" t="s">
         <v>217</v>
       </c>
-      <c r="C97" t="s">
-        <v>218</v>
-      </c>
       <c r="D97" t="s">
         <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H97" t="s">
         <v>22</v>
       </c>
       <c r="I97" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J97" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K97" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="L97" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="M97" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="N97" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="O97" t="s">
         <v>21</v>
@@ -7346,7 +7352,7 @@
         <v>21</v>
       </c>
       <c r="Q97">
-        <v>3.373</v>
+        <v>3.399</v>
       </c>
       <c r="R97">
         <v>96</v>
@@ -7357,43 +7363,43 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>83</v>
+      </c>
+      <c r="H98" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>31</v>
+      </c>
+      <c r="K98" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" t="s">
+        <v>68</v>
+      </c>
+      <c r="M98" t="s">
         <v>220</v>
       </c>
-      <c r="C98" t="s">
-        <v>221</v>
-      </c>
-      <c r="D98" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" t="s">
-        <v>31</v>
-      </c>
-      <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>64</v>
-      </c>
-      <c r="H98" t="s">
-        <v>20</v>
-      </c>
-      <c r="I98" t="s">
-        <v>22</v>
-      </c>
-      <c r="J98" t="s">
-        <v>21</v>
-      </c>
-      <c r="K98" t="s">
-        <v>22</v>
-      </c>
-      <c r="L98" t="s">
-        <v>22</v>
-      </c>
-      <c r="M98" t="s">
-        <v>22</v>
-      </c>
       <c r="N98" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="O98" t="s">
         <v>21</v>
@@ -7402,7 +7408,7 @@
         <v>21</v>
       </c>
       <c r="Q98">
-        <v>3.347</v>
+        <v>3.373</v>
       </c>
       <c r="R98">
         <v>97</v>
@@ -7410,46 +7416,46 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" t="s">
         <v>222</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>68</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" t="s">
+        <v>22</v>
+      </c>
+      <c r="M99" t="s">
+        <v>22</v>
+      </c>
+      <c r="N99" t="s">
         <v>223</v>
-      </c>
-      <c r="D99" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99" t="s">
-        <v>64</v>
-      </c>
-      <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>129</v>
-      </c>
-      <c r="H99" t="s">
-        <v>22</v>
-      </c>
-      <c r="I99" t="s">
-        <v>31</v>
-      </c>
-      <c r="J99" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" t="s">
-        <v>64</v>
-      </c>
-      <c r="L99" t="s">
-        <v>22</v>
-      </c>
-      <c r="M99" t="s">
-        <v>129</v>
-      </c>
-      <c r="N99" t="s">
-        <v>64</v>
       </c>
       <c r="O99" t="s">
         <v>21</v>
@@ -7466,7 +7472,7 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>224</v>
@@ -7478,34 +7484,34 @@
         <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H100" t="s">
         <v>22</v>
       </c>
       <c r="I100" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="J100" t="s">
         <v>21</v>
       </c>
       <c r="K100" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="L100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M100" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N100" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O100" t="s">
         <v>21</v>
@@ -7514,7 +7520,7 @@
         <v>21</v>
       </c>
       <c r="Q100">
-        <v>3.339</v>
+        <v>3.347</v>
       </c>
       <c r="R100">
         <v>99</v>
@@ -7540,28 +7546,28 @@
         <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H101" t="s">
         <v>22</v>
       </c>
       <c r="I101" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J101" t="s">
         <v>21</v>
       </c>
       <c r="K101" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="L101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M101" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="N101" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O101" t="s">
         <v>21</v>
@@ -7570,7 +7576,7 @@
         <v>21</v>
       </c>
       <c r="Q101">
-        <v>3.334</v>
+        <v>3.339</v>
       </c>
       <c r="R101">
         <v>100</v>
@@ -7578,7 +7584,7 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>228</v>
@@ -7590,34 +7596,34 @@
         <v>21</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G102" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H102" t="s">
         <v>22</v>
       </c>
       <c r="I102" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="J102" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K102" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="L102" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="M102" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="N102" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O102" t="s">
         <v>21</v>
@@ -7629,12 +7635,12 @@
         <v>3.334</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:18">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>230</v>
@@ -7646,16 +7652,16 @@
         <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H103" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I103" t="s">
         <v>21</v>
@@ -7667,13 +7673,13 @@
         <v>31</v>
       </c>
       <c r="L103" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="M103" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N103" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O103" t="s">
         <v>21</v>
@@ -7682,10 +7688,10 @@
         <v>21</v>
       </c>
       <c r="Q103">
-        <v>3.304</v>
+        <v>3.334</v>
       </c>
       <c r="R103">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -7702,34 +7708,34 @@
         <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="H104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I104" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J104" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K104" t="s">
         <v>31</v>
       </c>
       <c r="L104" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M104" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N104" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="O104" t="s">
         <v>21</v>
@@ -7738,7 +7744,7 @@
         <v>21</v>
       </c>
       <c r="Q104">
-        <v>3.278</v>
+        <v>3.304</v>
       </c>
       <c r="R104">
         <v>103</v>
@@ -7758,34 +7764,34 @@
         <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I105" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K105" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="L105" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M105" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N105" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="O105" t="s">
         <v>21</v>
@@ -7794,7 +7800,7 @@
         <v>21</v>
       </c>
       <c r="Q105">
-        <v>3.221</v>
+        <v>3.278</v>
       </c>
       <c r="R105">
         <v>104</v>
@@ -7802,7 +7808,7 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>236</v>
@@ -7814,34 +7820,34 @@
         <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F106" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H106" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I106" t="s">
         <v>21</v>
       </c>
       <c r="J106" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="K106" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="L106" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="M106" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N106" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O106" t="s">
         <v>21</v>
@@ -7858,7 +7864,7 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>238</v>
@@ -7867,16 +7873,16 @@
         <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="G107" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="H107" t="s">
         <v>22</v>
@@ -7885,19 +7891,19 @@
         <v>21</v>
       </c>
       <c r="J107" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="K107" t="s">
         <v>31</v>
       </c>
       <c r="L107" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M107" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="N107" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="O107" t="s">
         <v>21</v>
@@ -7906,7 +7912,7 @@
         <v>21</v>
       </c>
       <c r="Q107">
-        <v>3.214</v>
+        <v>3.221</v>
       </c>
       <c r="R107">
         <v>106</v>
@@ -7923,37 +7929,37 @@
         <v>241</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="H108" t="s">
         <v>22</v>
       </c>
       <c r="I108" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="J108" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K108" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M108" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N108" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="O108" t="s">
         <v>21</v>
@@ -7962,7 +7968,7 @@
         <v>21</v>
       </c>
       <c r="Q108">
-        <v>3.13</v>
+        <v>3.214</v>
       </c>
       <c r="R108">
         <v>107</v>
@@ -7982,34 +7988,34 @@
         <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="H109" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I109" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="J109" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="K109" t="s">
         <v>22</v>
       </c>
       <c r="L109" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M109" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="N109" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="O109" t="s">
         <v>21</v>
@@ -8018,7 +8024,7 @@
         <v>21</v>
       </c>
       <c r="Q109">
-        <v>3.095</v>
+        <v>3.13</v>
       </c>
       <c r="R109">
         <v>108</v>
@@ -8029,43 +8035,43 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" t="s">
         <v>245</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" t="s">
+        <v>83</v>
+      </c>
+      <c r="F110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s">
+        <v>131</v>
+      </c>
+      <c r="H110" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" t="s">
+        <v>68</v>
+      </c>
+      <c r="K110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110" t="s">
         <v>246</v>
       </c>
-      <c r="D110" t="s">
-        <v>21</v>
-      </c>
-      <c r="E110" t="s">
-        <v>79</v>
-      </c>
-      <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>129</v>
-      </c>
-      <c r="H110" t="s">
-        <v>22</v>
-      </c>
-      <c r="I110" t="s">
-        <v>22</v>
-      </c>
-      <c r="J110" t="s">
-        <v>21</v>
-      </c>
-      <c r="K110" t="s">
-        <v>31</v>
-      </c>
-      <c r="L110" t="s">
-        <v>22</v>
-      </c>
-      <c r="M110" t="s">
-        <v>64</v>
-      </c>
       <c r="N110" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="O110" t="s">
         <v>21</v>
@@ -8074,7 +8080,7 @@
         <v>21</v>
       </c>
       <c r="Q110">
-        <v>3.039</v>
+        <v>3.095</v>
       </c>
       <c r="R110">
         <v>109</v>
@@ -8100,7 +8106,7 @@
         <v>21</v>
       </c>
       <c r="G111" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H111" t="s">
         <v>31</v>
@@ -8118,10 +8124,10 @@
         <v>22</v>
       </c>
       <c r="M111" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N111" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O111" t="s">
         <v>21</v>
@@ -8150,13 +8156,13 @@
         <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H112" t="s">
         <v>22</v>
@@ -8168,16 +8174,16 @@
         <v>22</v>
       </c>
       <c r="K112" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L112" t="s">
         <v>22</v>
       </c>
       <c r="M112" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N112" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O112" t="s">
         <v>21</v>
@@ -8206,13 +8212,13 @@
         <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F113" t="s">
         <v>21</v>
       </c>
       <c r="G113" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H113" t="s">
         <v>22</v>
@@ -8224,16 +8230,16 @@
         <v>21</v>
       </c>
       <c r="K113" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L113" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M113" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N113" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O113" t="s">
         <v>21</v>
@@ -8262,13 +8268,13 @@
         <v>21</v>
       </c>
       <c r="E114" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F114" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G114" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H114" t="s">
         <v>31</v>
@@ -8277,7 +8283,7 @@
         <v>21</v>
       </c>
       <c r="J114" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K114" t="s">
         <v>31</v>
@@ -8289,7 +8295,7 @@
         <v>21</v>
       </c>
       <c r="N114" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O114" t="s">
         <v>21</v>
@@ -8318,13 +8324,13 @@
         <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G115" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H115" t="s">
         <v>22</v>
@@ -8336,16 +8342,16 @@
         <v>22</v>
       </c>
       <c r="K115" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L115" t="s">
         <v>22</v>
       </c>
       <c r="M115" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N115" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O115" t="s">
         <v>21</v>
@@ -8374,13 +8380,13 @@
         <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G116" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H116" t="s">
         <v>20</v>
@@ -8392,16 +8398,16 @@
         <v>31</v>
       </c>
       <c r="K116" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L116" t="s">
         <v>31</v>
       </c>
       <c r="M116" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N116" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O116" t="s">
         <v>21</v>

--- a/output/Results - sem3 (Extended).xlsx
+++ b/output/Results - sem3 (Extended).xlsx
@@ -391,6 +391,12 @@
     <t>GUNASEKARA K.S.</t>
   </si>
   <si>
+    <t>230070</t>
+  </si>
+  <si>
+    <t>BALASOORIYA B.R.B.D.</t>
+  </si>
+  <si>
     <t>230130</t>
   </si>
   <si>
@@ -466,12 +472,6 @@
     <t>WEERASINGHE J.A.H.R.</t>
   </si>
   <si>
-    <t>230070</t>
-  </si>
-  <si>
-    <t>BALASOORIYA B.R.B.D.</t>
-  </si>
-  <si>
     <t>230726</t>
   </si>
   <si>
@@ -877,6 +877,9 @@
     <t>8(8.0%)</t>
   </si>
   <si>
+    <t>22(19.1%)</t>
+  </si>
+  <si>
     <t>7(6.1%)</t>
   </si>
   <si>
@@ -908,9 +911,6 @@
   </si>
   <si>
     <t>20(17.4%)</t>
-  </si>
-  <si>
-    <t>22(19.1%)</t>
   </si>
   <si>
     <t>1(0.9%)</t>
@@ -1658,28 +1658,28 @@
         <v>286</v>
       </c>
       <c r="Y4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Z4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AB4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC4" t="s">
         <v>260</v>
       </c>
       <c r="AD4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AE4" t="s">
         <v>280</v>
       </c>
       <c r="AF4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG4" t="s">
         <v>269</v>
@@ -1753,31 +1753,31 @@
         <v>266</v>
       </c>
       <c r="X5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y5" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="Z5" t="s">
         <v>269</v>
       </c>
       <c r="AA5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AB5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AD5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AE5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG5" t="s">
         <v>269</v>
@@ -1848,13 +1848,13 @@
         <v>269</v>
       </c>
       <c r="W6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X6" t="s">
         <v>269</v>
       </c>
       <c r="Y6" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Z6" t="s">
         <v>269</v>
@@ -1952,7 +1952,7 @@
         <v>269</v>
       </c>
       <c r="Y7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z7" t="s">
         <v>269</v>
@@ -1967,7 +1967,7 @@
         <v>303</v>
       </c>
       <c r="AD7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AE7" t="s">
         <v>304</v>
@@ -2038,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="V8" t="s">
         <v>269</v>
@@ -4799,7 +4799,7 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
         <v>31</v>
@@ -4814,16 +4814,16 @@
         <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
         <v>22</v>
       </c>
       <c r="M52" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N52" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O52" t="s">
         <v>21</v>
@@ -4832,7 +4832,7 @@
         <v>21</v>
       </c>
       <c r="Q52">
-        <v>3.714</v>
+        <v>3.717</v>
       </c>
       <c r="R52">
         <v>51</v>
@@ -4855,31 +4855,31 @@
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H53" t="s">
         <v>22</v>
       </c>
       <c r="I53" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M53" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N53" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O53" t="s">
         <v>21</v>
@@ -4888,7 +4888,7 @@
         <v>21</v>
       </c>
       <c r="Q53">
-        <v>3.713</v>
+        <v>3.714</v>
       </c>
       <c r="R53">
         <v>52</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>129</v>
@@ -4908,34 +4908,34 @@
         <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="J54" t="s">
         <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N54" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="O54" t="s">
         <v>21</v>
@@ -4947,51 +4947,51 @@
         <v>3.713</v>
       </c>
       <c r="R54">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
         <v>132</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
         <v>133</v>
       </c>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>68</v>
-      </c>
       <c r="H55" t="s">
         <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M55" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="N55" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O55" t="s">
         <v>21</v>
@@ -5000,15 +5000,15 @@
         <v>21</v>
       </c>
       <c r="Q55">
-        <v>3.704</v>
+        <v>3.713</v>
       </c>
       <c r="R55">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>134</v>
@@ -5020,16 +5020,16 @@
         <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
@@ -5041,13 +5041,13 @@
         <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M56" t="s">
         <v>83</v>
       </c>
       <c r="N56" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="O56" t="s">
         <v>21</v>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>136</v>
@@ -5076,43 +5076,43 @@
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H57" t="s">
         <v>22</v>
       </c>
       <c r="I57" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K57" t="s">
         <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M57" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="N57" t="s">
         <v>83</v>
       </c>
       <c r="O57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P57" t="s">
         <v>21</v>
       </c>
       <c r="Q57">
-        <v>3.699</v>
+        <v>3.704</v>
       </c>
       <c r="R57">
         <v>56</v>
@@ -5132,43 +5132,43 @@
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J58" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P58" t="s">
         <v>21</v>
       </c>
       <c r="Q58">
-        <v>3.691</v>
+        <v>3.699</v>
       </c>
       <c r="R58">
         <v>57</v>
@@ -5188,31 +5188,31 @@
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K59" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M59" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N59" t="s">
         <v>68</v>
@@ -5224,7 +5224,7 @@
         <v>21</v>
       </c>
       <c r="Q59">
-        <v>3.69</v>
+        <v>3.691</v>
       </c>
       <c r="R59">
         <v>58</v>
@@ -5250,28 +5250,28 @@
         <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="L60" t="s">
         <v>20</v>
       </c>
       <c r="M60" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O60" t="s">
         <v>21</v>
@@ -5280,7 +5280,7 @@
         <v>21</v>
       </c>
       <c r="Q60">
-        <v>3.678</v>
+        <v>3.69</v>
       </c>
       <c r="R60">
         <v>59</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>144</v>
@@ -5300,34 +5300,34 @@
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s">
         <v>22</v>
       </c>
       <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" t="s">
+        <v>68</v>
+      </c>
+      <c r="N61" t="s">
         <v>83</v>
-      </c>
-      <c r="J61" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" t="s">
-        <v>68</v>
-      </c>
-      <c r="N61" t="s">
-        <v>22</v>
       </c>
       <c r="O61" t="s">
         <v>21</v>
@@ -5339,12 +5339,12 @@
         <v>3.678</v>
       </c>
       <c r="R61">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>146</v>
@@ -5356,34 +5356,34 @@
         <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H62" t="s">
         <v>22</v>
       </c>
       <c r="I62" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
         <v>20</v>
       </c>
       <c r="M62" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="N62" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="O62" t="s">
         <v>21</v>
@@ -5392,10 +5392,10 @@
         <v>21</v>
       </c>
       <c r="Q62">
-        <v>3.673</v>
+        <v>3.678</v>
       </c>
       <c r="R62">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5412,7 +5412,7 @@
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -5421,25 +5421,25 @@
         <v>68</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J63" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L63" t="s">
         <v>20</v>
       </c>
       <c r="M63" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N63" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O63" t="s">
         <v>21</v>
@@ -5448,7 +5448,7 @@
         <v>21</v>
       </c>
       <c r="Q63">
-        <v>3.671</v>
+        <v>3.673</v>
       </c>
       <c r="R63">
         <v>62</v>
@@ -5468,7 +5468,7 @@
         <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -5477,25 +5477,25 @@
         <v>68</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K64" t="s">
         <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M64" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="N64" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O64" t="s">
         <v>21</v>
@@ -5504,7 +5504,7 @@
         <v>21</v>
       </c>
       <c r="Q64">
-        <v>3.665</v>
+        <v>3.671</v>
       </c>
       <c r="R64">
         <v>63</v>
@@ -5548,7 +5548,7 @@
         <v>20</v>
       </c>
       <c r="M65" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N65" t="s">
         <v>68</v>
@@ -6308,7 +6308,7 @@
         <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -6488,7 +6488,7 @@
         <v>22</v>
       </c>
       <c r="I82" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J82" t="s">
         <v>21</v>
@@ -6588,7 +6588,7 @@
         <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -6930,7 +6930,7 @@
         <v>21</v>
       </c>
       <c r="G90" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H90" t="s">
         <v>20</v>
@@ -7154,7 +7154,7 @@
         <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H94" t="s">
         <v>22</v>
@@ -7260,7 +7260,7 @@
         <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F96" t="s">
         <v>31</v>
@@ -7340,7 +7340,7 @@
         <v>20</v>
       </c>
       <c r="M97" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N97" t="s">
         <v>31</v>
@@ -7490,7 +7490,7 @@
         <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H100" t="s">
         <v>22</v>
@@ -7508,7 +7508,7 @@
         <v>22</v>
       </c>
       <c r="M100" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N100" t="s">
         <v>68</v>
@@ -7552,7 +7552,7 @@
         <v>22</v>
       </c>
       <c r="I101" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J101" t="s">
         <v>21</v>
@@ -7676,7 +7676,7 @@
         <v>114</v>
       </c>
       <c r="M103" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N103" t="s">
         <v>83</v>
@@ -7708,7 +7708,7 @@
         <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -7732,7 +7732,7 @@
         <v>20</v>
       </c>
       <c r="M104" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N104" t="s">
         <v>83</v>
@@ -7770,7 +7770,7 @@
         <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H105" t="s">
         <v>22</v>
@@ -7788,7 +7788,7 @@
         <v>31</v>
       </c>
       <c r="M105" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N105" t="s">
         <v>31</v>
@@ -7844,7 +7844,7 @@
         <v>114</v>
       </c>
       <c r="M106" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N106" t="s">
         <v>83</v>
@@ -8050,7 +8050,7 @@
         <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H110" t="s">
         <v>31</v>
@@ -8274,7 +8274,7 @@
         <v>68</v>
       </c>
       <c r="G114" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H114" t="s">
         <v>31</v>
@@ -8330,7 +8330,7 @@
         <v>223</v>
       </c>
       <c r="G115" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H115" t="s">
         <v>22</v>
@@ -8380,7 +8380,7 @@
         <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F116" t="s">
         <v>223</v>
@@ -8404,7 +8404,7 @@
         <v>31</v>
       </c>
       <c r="M116" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N116" t="s">
         <v>68</v>

--- a/output/Results - sem3 (Extended).xlsx
+++ b/output/Results - sem3 (Extended).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="317">
   <si>
     <t>Rank</t>
   </si>
@@ -346,6 +346,15 @@
     <t>KEERAWELLA K.P.C.P.</t>
   </si>
   <si>
+    <t>230211</t>
+  </si>
+  <si>
+    <t>GUNASEKARA K.S.</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
     <t>230180</t>
   </si>
   <si>
@@ -358,9 +367,6 @@
     <t>WEERAKOON A.H.T.M.</t>
   </si>
   <si>
-    <t>B-</t>
-  </si>
-  <si>
     <t>230327</t>
   </si>
   <si>
@@ -379,18 +385,18 @@
     <t>KARUNANAYAKE A.H.D.</t>
   </si>
   <si>
+    <t>230629</t>
+  </si>
+  <si>
+    <t>TENNAKOON U.G.R.B.</t>
+  </si>
+  <si>
     <t>230100</t>
   </si>
   <si>
     <t>CHANDRAKUMARA H.A.D.C.</t>
   </si>
   <si>
-    <t>230211</t>
-  </si>
-  <si>
-    <t>GUNASEKARA K.S.</t>
-  </si>
-  <si>
     <t>230070</t>
   </si>
   <si>
@@ -460,12 +466,6 @@
     <t>GAMAGE SK</t>
   </si>
   <si>
-    <t>230629</t>
-  </si>
-  <si>
-    <t>TENNAKOON U.G.R.B.</t>
-  </si>
-  <si>
     <t>230697</t>
   </si>
   <si>
@@ -853,7 +853,7 @@
     <t>52(45.2%)</t>
   </si>
   <si>
-    <t>30(26.1%)</t>
+    <t>31(27.0%)</t>
   </si>
   <si>
     <t>12(13.5%)</t>
@@ -883,7 +883,7 @@
     <t>7(6.1%)</t>
   </si>
   <si>
-    <t>12(21.4%)</t>
+    <t>13(23.2%)</t>
   </si>
   <si>
     <t>25(47.2%)</t>
@@ -898,34 +898,37 @@
     <t>3(3.0%)</t>
   </si>
   <si>
+    <t>11(19.6%)</t>
+  </si>
+  <si>
     <t>9(17.0%)</t>
   </si>
   <si>
     <t>12(10.4%)</t>
   </si>
   <si>
+    <t>3(2.6%)</t>
+  </si>
+  <si>
+    <t>15(16.9%)</t>
+  </si>
+  <si>
+    <t>20(17.4%)</t>
+  </si>
+  <si>
+    <t>1(0.9%)</t>
+  </si>
+  <si>
+    <t>24(20.9%)</t>
+  </si>
+  <si>
+    <t>3(5.4%)</t>
+  </si>
+  <si>
+    <t>2(1.7%)</t>
+  </si>
+  <si>
     <t>4(3.5%)</t>
-  </si>
-  <si>
-    <t>15(16.9%)</t>
-  </si>
-  <si>
-    <t>20(17.4%)</t>
-  </si>
-  <si>
-    <t>1(0.9%)</t>
-  </si>
-  <si>
-    <t>24(20.9%)</t>
-  </si>
-  <si>
-    <t>3(2.6%)</t>
-  </si>
-  <si>
-    <t>3(5.4%)</t>
-  </si>
-  <si>
-    <t>2(1.7%)</t>
   </si>
   <si>
     <t>16(18.0%)</t>
@@ -1762,22 +1765,22 @@
         <v>269</v>
       </c>
       <c r="AA5" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AB5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AD5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AE5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG5" t="s">
         <v>269</v>
@@ -1869,13 +1872,13 @@
         <v>262</v>
       </c>
       <c r="AD6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AE6" t="s">
         <v>280</v>
       </c>
       <c r="AF6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG6" t="s">
         <v>269</v>
@@ -1940,13 +1943,13 @@
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V7" t="s">
         <v>269</v>
       </c>
       <c r="W7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="X7" t="s">
         <v>269</v>
@@ -1967,13 +1970,13 @@
         <v>303</v>
       </c>
       <c r="AD7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AE7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG7" t="s">
         <v>269</v>
@@ -2038,13 +2041,13 @@
         <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V8" t="s">
         <v>269</v>
       </c>
       <c r="W8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X8" t="s">
         <v>269</v>
@@ -2056,7 +2059,7 @@
         <v>269</v>
       </c>
       <c r="AA8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB8" t="s">
         <v>269</v>
@@ -2068,7 +2071,7 @@
         <v>269</v>
       </c>
       <c r="AE8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF8" t="s">
         <v>269</v>
@@ -2166,7 +2169,7 @@
         <v>269</v>
       </c>
       <c r="AE9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF9" t="s">
         <v>269</v>
@@ -2246,7 +2249,7 @@
         <v>269</v>
       </c>
       <c r="Y10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z10" t="s">
         <v>269</v>
@@ -2264,7 +2267,7 @@
         <v>269</v>
       </c>
       <c r="AE10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF10" t="s">
         <v>269</v>
@@ -2332,7 +2335,7 @@
         <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V11" t="s">
         <v>269</v>
@@ -2430,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="U12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V12" t="s">
         <v>269</v>
@@ -2528,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V13" t="s">
         <v>269</v>
@@ -2626,7 +2629,7 @@
         <v>13</v>
       </c>
       <c r="U14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="V14" t="s">
         <v>269</v>
@@ -2733,7 +2736,7 @@
         <v>269</v>
       </c>
       <c r="X15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y15" t="s">
         <v>303</v>
@@ -2757,7 +2760,7 @@
         <v>269</v>
       </c>
       <c r="AF15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG15" t="s">
         <v>269</v>
@@ -4404,7 +4407,7 @@
         <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -4419,16 +4422,16 @@
         <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
         <v>31</v>
       </c>
       <c r="L45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M45" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="N45" t="s">
         <v>31</v>
@@ -4440,7 +4443,7 @@
         <v>21</v>
       </c>
       <c r="Q45">
-        <v>3.778</v>
+        <v>3.782</v>
       </c>
       <c r="R45">
         <v>44</v>
@@ -4451,16 +4454,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -4469,25 +4472,25 @@
         <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M46" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N46" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="O46" t="s">
         <v>21</v>
@@ -4496,7 +4499,7 @@
         <v>21</v>
       </c>
       <c r="Q46">
-        <v>3.771</v>
+        <v>3.778</v>
       </c>
       <c r="R46">
         <v>45</v>
@@ -4516,7 +4519,7 @@
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -4525,25 +4528,25 @@
         <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M47" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="O47" t="s">
         <v>21</v>
@@ -4552,7 +4555,7 @@
         <v>21</v>
       </c>
       <c r="Q47">
-        <v>3.765</v>
+        <v>3.771</v>
       </c>
       <c r="R47">
         <v>46</v>
@@ -4569,16 +4572,16 @@
         <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
@@ -4587,19 +4590,19 @@
         <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="K48" t="s">
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N48" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="O48" t="s">
         <v>21</v>
@@ -4608,7 +4611,7 @@
         <v>21</v>
       </c>
       <c r="Q48">
-        <v>3.757</v>
+        <v>3.765</v>
       </c>
       <c r="R48">
         <v>47</v>
@@ -4625,38 +4628,38 @@
         <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" t="s">
         <v>83</v>
       </c>
-      <c r="H49" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" t="s">
-        <v>68</v>
-      </c>
-      <c r="N49" t="s">
-        <v>31</v>
-      </c>
       <c r="O49" t="s">
         <v>21</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>21</v>
       </c>
       <c r="Q49">
-        <v>3.73</v>
+        <v>3.757</v>
       </c>
       <c r="R49">
         <v>48</v>
@@ -4690,28 +4693,28 @@
         <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J50" t="s">
         <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
         <v>20</v>
       </c>
       <c r="M50" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="N50" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="O50" t="s">
         <v>21</v>
@@ -4720,7 +4723,7 @@
         <v>21</v>
       </c>
       <c r="Q50">
-        <v>3.721</v>
+        <v>3.73</v>
       </c>
       <c r="R50">
         <v>49</v>
@@ -4728,7 +4731,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
@@ -4746,28 +4749,28 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H51" t="s">
         <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
         <v>31</v>
       </c>
       <c r="L51" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M51" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="N51" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="O51" t="s">
         <v>21</v>
@@ -4776,7 +4779,7 @@
         <v>21</v>
       </c>
       <c r="Q51">
-        <v>3.721</v>
+        <v>3.726</v>
       </c>
       <c r="R51">
         <v>50</v>
@@ -4805,22 +4808,22 @@
         <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
         <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="L52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M52" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="N52" t="s">
         <v>68</v>
@@ -4832,7 +4835,7 @@
         <v>21</v>
       </c>
       <c r="Q52">
-        <v>3.717</v>
+        <v>3.721</v>
       </c>
       <c r="R52">
         <v>51</v>
@@ -4855,7 +4858,7 @@
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -4870,16 +4873,16 @@
         <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
         <v>22</v>
       </c>
       <c r="M53" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N53" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O53" t="s">
         <v>21</v>
@@ -4888,7 +4891,7 @@
         <v>21</v>
       </c>
       <c r="Q53">
-        <v>3.714</v>
+        <v>3.717</v>
       </c>
       <c r="R53">
         <v>52</v>
@@ -4911,31 +4914,31 @@
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H54" t="s">
         <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="J54" t="s">
         <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M54" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N54" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O54" t="s">
         <v>21</v>
@@ -4944,7 +4947,7 @@
         <v>21</v>
       </c>
       <c r="Q54">
-        <v>3.713</v>
+        <v>3.714</v>
       </c>
       <c r="R54">
         <v>53</v>
@@ -4952,7 +4955,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>131</v>
@@ -4964,34 +4967,34 @@
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M55" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N55" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="O55" t="s">
         <v>21</v>
@@ -5003,51 +5006,51 @@
         <v>3.713</v>
       </c>
       <c r="R55">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
         <v>134</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
         <v>135</v>
       </c>
-      <c r="D56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
       <c r="H56" t="s">
         <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M56" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="N56" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O56" t="s">
         <v>21</v>
@@ -5056,15 +5059,15 @@
         <v>21</v>
       </c>
       <c r="Q56">
-        <v>3.704</v>
+        <v>3.713</v>
       </c>
       <c r="R56">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>136</v>
@@ -5076,16 +5079,16 @@
         <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
@@ -5097,13 +5100,13 @@
         <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M57" t="s">
         <v>83</v>
       </c>
       <c r="N57" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="O57" t="s">
         <v>21</v>
@@ -5120,7 +5123,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -5132,43 +5135,43 @@
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s">
         <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K58" t="s">
         <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M58" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="N58" t="s">
         <v>83</v>
       </c>
       <c r="O58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P58" t="s">
         <v>21</v>
       </c>
       <c r="Q58">
-        <v>3.699</v>
+        <v>3.704</v>
       </c>
       <c r="R58">
         <v>57</v>
@@ -5188,43 +5191,43 @@
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J59" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M59" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P59" t="s">
         <v>21</v>
       </c>
       <c r="Q59">
-        <v>3.691</v>
+        <v>3.699</v>
       </c>
       <c r="R59">
         <v>58</v>
@@ -5244,31 +5247,31 @@
         <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H60" t="s">
         <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K60" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M60" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N60" t="s">
         <v>68</v>
@@ -5280,7 +5283,7 @@
         <v>21</v>
       </c>
       <c r="Q60">
-        <v>3.69</v>
+        <v>3.691</v>
       </c>
       <c r="R60">
         <v>59</v>
@@ -5306,28 +5309,28 @@
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="L61" t="s">
         <v>20</v>
       </c>
       <c r="M61" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="N61" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O61" t="s">
         <v>21</v>
@@ -5336,7 +5339,7 @@
         <v>21</v>
       </c>
       <c r="Q61">
-        <v>3.678</v>
+        <v>3.69</v>
       </c>
       <c r="R61">
         <v>60</v>
@@ -5344,7 +5347,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>146</v>
@@ -5356,34 +5359,34 @@
         <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s">
         <v>22</v>
       </c>
       <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" t="s">
+        <v>68</v>
+      </c>
+      <c r="N62" t="s">
         <v>83</v>
-      </c>
-      <c r="J62" t="s">
-        <v>21</v>
-      </c>
-      <c r="K62" t="s">
-        <v>22</v>
-      </c>
-      <c r="L62" t="s">
-        <v>20</v>
-      </c>
-      <c r="M62" t="s">
-        <v>68</v>
-      </c>
-      <c r="N62" t="s">
-        <v>22</v>
       </c>
       <c r="O62" t="s">
         <v>21</v>
@@ -5395,12 +5398,12 @@
         <v>3.678</v>
       </c>
       <c r="R62">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>148</v>
@@ -5412,34 +5415,34 @@
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H63" t="s">
         <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
         <v>20</v>
       </c>
       <c r="M63" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="N63" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="O63" t="s">
         <v>21</v>
@@ -5448,10 +5451,10 @@
         <v>21</v>
       </c>
       <c r="Q63">
-        <v>3.673</v>
+        <v>3.678</v>
       </c>
       <c r="R63">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5548,7 +5551,7 @@
         <v>20</v>
       </c>
       <c r="M65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N65" t="s">
         <v>68</v>
@@ -5604,7 +5607,7 @@
         <v>20</v>
       </c>
       <c r="M66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N66" t="s">
         <v>31</v>
@@ -5716,7 +5719,7 @@
         <v>31</v>
       </c>
       <c r="M68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N68" t="s">
         <v>22</v>
@@ -6049,7 +6052,7 @@
         <v>83</v>
       </c>
       <c r="L74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M74" t="s">
         <v>21</v>
@@ -6108,7 +6111,7 @@
         <v>22</v>
       </c>
       <c r="M75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N75" t="s">
         <v>31</v>
@@ -6164,7 +6167,7 @@
         <v>20</v>
       </c>
       <c r="M76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N76" t="s">
         <v>68</v>
@@ -6264,7 +6267,7 @@
         <v>31</v>
       </c>
       <c r="I78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J78" t="s">
         <v>21</v>
@@ -6279,7 +6282,7 @@
         <v>22</v>
       </c>
       <c r="N78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O78" t="s">
         <v>21</v>
@@ -6308,7 +6311,7 @@
         <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -6388,7 +6391,7 @@
         <v>31</v>
       </c>
       <c r="M80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N80" t="s">
         <v>31</v>
@@ -6426,7 +6429,7 @@
         <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H81" t="s">
         <v>22</v>
@@ -6444,7 +6447,7 @@
         <v>22</v>
       </c>
       <c r="M81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N81" t="s">
         <v>68</v>
@@ -6488,7 +6491,7 @@
         <v>22</v>
       </c>
       <c r="I82" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J82" t="s">
         <v>21</v>
@@ -6559,7 +6562,7 @@
         <v>68</v>
       </c>
       <c r="N83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O83" t="s">
         <v>21</v>
@@ -6588,7 +6591,7 @@
         <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -6668,7 +6671,7 @@
         <v>22</v>
       </c>
       <c r="M85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N85" t="s">
         <v>83</v>
@@ -6836,7 +6839,7 @@
         <v>20</v>
       </c>
       <c r="M88" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N88" t="s">
         <v>83</v>
@@ -6874,7 +6877,7 @@
         <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H89" t="s">
         <v>22</v>
@@ -6886,10 +6889,10 @@
         <v>31</v>
       </c>
       <c r="K89" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L89" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M89" t="s">
         <v>21</v>
@@ -6930,7 +6933,7 @@
         <v>21</v>
       </c>
       <c r="G90" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H90" t="s">
         <v>20</v>
@@ -6986,7 +6989,7 @@
         <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H91" t="s">
         <v>22</v>
@@ -7007,7 +7010,7 @@
         <v>20</v>
       </c>
       <c r="N91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O91" t="s">
         <v>21</v>
@@ -7060,10 +7063,10 @@
         <v>31</v>
       </c>
       <c r="M92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O92" t="s">
         <v>21</v>
@@ -7154,7 +7157,7 @@
         <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H94" t="s">
         <v>22</v>
@@ -7228,7 +7231,7 @@
         <v>20</v>
       </c>
       <c r="M95" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N95" t="s">
         <v>68</v>
@@ -7260,7 +7263,7 @@
         <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F96" t="s">
         <v>31</v>
@@ -7322,7 +7325,7 @@
         <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H97" t="s">
         <v>22</v>
@@ -7340,7 +7343,7 @@
         <v>20</v>
       </c>
       <c r="M97" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N97" t="s">
         <v>31</v>
@@ -7490,7 +7493,7 @@
         <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H100" t="s">
         <v>22</v>
@@ -7508,7 +7511,7 @@
         <v>22</v>
       </c>
       <c r="M100" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N100" t="s">
         <v>68</v>
@@ -7546,13 +7549,13 @@
         <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H101" t="s">
         <v>22</v>
       </c>
       <c r="I101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J101" t="s">
         <v>21</v>
@@ -7564,7 +7567,7 @@
         <v>20</v>
       </c>
       <c r="M101" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N101" t="s">
         <v>83</v>
@@ -7608,7 +7611,7 @@
         <v>22</v>
       </c>
       <c r="I102" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J102" t="s">
         <v>21</v>
@@ -7673,10 +7676,10 @@
         <v>31</v>
       </c>
       <c r="L103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M103" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N103" t="s">
         <v>83</v>
@@ -7708,7 +7711,7 @@
         <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -7732,7 +7735,7 @@
         <v>20</v>
       </c>
       <c r="M104" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N104" t="s">
         <v>83</v>
@@ -7764,13 +7767,13 @@
         <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H105" t="s">
         <v>22</v>
@@ -7788,7 +7791,7 @@
         <v>31</v>
       </c>
       <c r="M105" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N105" t="s">
         <v>31</v>
@@ -7826,7 +7829,7 @@
         <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H106" t="s">
         <v>20</v>
@@ -7841,10 +7844,10 @@
         <v>83</v>
       </c>
       <c r="L106" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M106" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N106" t="s">
         <v>83</v>
@@ -7882,7 +7885,7 @@
         <v>68</v>
       </c>
       <c r="G107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H107" t="s">
         <v>22</v>
@@ -7900,7 +7903,7 @@
         <v>31</v>
       </c>
       <c r="M107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N107" t="s">
         <v>83</v>
@@ -8050,7 +8053,7 @@
         <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H110" t="s">
         <v>31</v>
@@ -8071,7 +8074,7 @@
         <v>246</v>
       </c>
       <c r="N110" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O110" t="s">
         <v>21</v>
@@ -8124,7 +8127,7 @@
         <v>22</v>
       </c>
       <c r="M111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N111" t="s">
         <v>223</v>
@@ -8156,7 +8159,7 @@
         <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -8180,7 +8183,7 @@
         <v>22</v>
       </c>
       <c r="M112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N112" t="s">
         <v>223</v>
@@ -8212,7 +8215,7 @@
         <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F113" t="s">
         <v>21</v>
@@ -8230,7 +8233,7 @@
         <v>21</v>
       </c>
       <c r="K113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L113" t="s">
         <v>83</v>
@@ -8274,7 +8277,7 @@
         <v>68</v>
       </c>
       <c r="G114" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H114" t="s">
         <v>31</v>
@@ -8330,7 +8333,7 @@
         <v>223</v>
       </c>
       <c r="G115" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H115" t="s">
         <v>22</v>
@@ -8348,7 +8351,7 @@
         <v>22</v>
       </c>
       <c r="M115" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N115" t="s">
         <v>223</v>
@@ -8380,7 +8383,7 @@
         <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F116" t="s">
         <v>223</v>
@@ -8404,7 +8407,7 @@
         <v>31</v>
       </c>
       <c r="M116" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N116" t="s">
         <v>68</v>
